--- a/s60_signal/position-00670-600115.xlsx
+++ b/s60_signal/position-00670-600115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4983" uniqueCount="537">
   <si>
     <t>trade_time</t>
   </si>
@@ -745,10 +745,10 @@
     <t>2021-05-12</t>
   </si>
   <si>
-    <t>2021-06-21</t>
+    <t>2021-04-01</t>
   </si>
   <si>
-    <t>2021-04-01</t>
+    <t>2021-06-21</t>
   </si>
   <si>
     <t>2021-06-11</t>
@@ -1270,7 +1270,7 @@
     <t>2021-05-17</t>
   </si>
   <si>
-    <t>2021-07-09</t>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-07-08</t>
@@ -1279,10 +1279,10 @@
     <t>2021-04-09</t>
   </si>
   <si>
-    <t>2021-06-01</t>
+    <t>2021-04-28</t>
   </si>
   <si>
-    <t>2021-04-28</t>
+    <t>2021-06-01</t>
   </si>
   <si>
     <t>2016-08-24</t>
@@ -1982,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1658"/>
+  <dimension ref="A1:P1657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79949,7 +79949,7 @@
         <v>418</v>
       </c>
       <c r="E1560">
-        <v>2.744645269127334</v>
+        <v>2.603248337348258</v>
       </c>
       <c r="F1560">
         <v>1</v>
@@ -79958,10 +79958,10 @@
         <v>0.007219471700361068</v>
       </c>
       <c r="H1560">
-        <v>0.007095354730872666</v>
+        <v>0.006996751662651741</v>
       </c>
       <c r="I1560">
-        <v>0.1041169694884028</v>
+        <v>-0.03727996229067321</v>
       </c>
       <c r="J1560">
         <v>0.7132310593025135</v>
@@ -79973,10 +79973,10 @@
         <v>4.93</v>
       </c>
       <c r="M1560">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="N1560">
-        <v>4.92</v>
+        <v>4.8</v>
       </c>
       <c r="O1560">
         <v>1</v>
@@ -81190,10 +81190,10 @@
         <v>8</v>
       </c>
       <c r="B1585" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1585">
-        <v>1.962203457871769</v>
+        <v>1.937309941623433</v>
       </c>
       <c r="D1585" t="s">
         <v>419</v>
@@ -81205,22 +81205,22 @@
         <v>1</v>
       </c>
       <c r="G1585">
-        <v>0.00835779654212823</v>
+        <v>0.007922690058376567</v>
       </c>
       <c r="H1585">
         <v>0.007842844728545887</v>
       </c>
       <c r="I1585">
-        <v>0.174951813582346</v>
+        <v>0.1998453298306813</v>
       </c>
       <c r="J1585">
         <v>0.9323021988712045</v>
       </c>
       <c r="K1585">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1585">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1585">
         <v>3.06</v>
@@ -81237,93 +81237,93 @@
     </row>
     <row r="1586" spans="1:16">
       <c r="A1586" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1586" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1586">
-        <v>1.937309941623433</v>
+        <v>1.792368417943001</v>
       </c>
       <c r="D1586" t="s">
-        <v>419</v>
+        <v>230</v>
       </c>
       <c r="E1586">
-        <v>2.137155271454115</v>
+        <v>2.115136692736337</v>
       </c>
       <c r="F1586">
         <v>1</v>
       </c>
       <c r="G1586">
-        <v>0.007922690058376567</v>
+        <v>0.008707631582056998</v>
       </c>
       <c r="H1586">
-        <v>0.007842844728545887</v>
+        <v>0.009164863307263663</v>
       </c>
       <c r="I1586">
-        <v>0.1998453298306813</v>
+        <v>0.322768274793336</v>
       </c>
       <c r="J1586">
-        <v>0.9323021988712045</v>
+        <v>0.9604532172380553</v>
       </c>
       <c r="K1586">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="L1586">
-        <v>4.93</v>
+        <v>5.25</v>
       </c>
       <c r="M1586">
-        <v>3.06</v>
+        <v>3.67</v>
       </c>
       <c r="N1586">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1586">
         <v>1</v>
       </c>
       <c r="P1586" t="s">
-        <v>535</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1587" spans="1:16">
       <c r="A1587" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1587" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C1587">
-        <v>1.792368417943001</v>
+        <v>1.864345757081098</v>
       </c>
       <c r="D1587" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1587">
-        <v>2.115136692736337</v>
+        <v>2.086323096219195</v>
       </c>
       <c r="F1587">
         <v>1</v>
       </c>
       <c r="G1587">
-        <v>0.008707631582056998</v>
+        <v>0.008875654242918902</v>
       </c>
       <c r="H1587">
-        <v>0.009164863307263663</v>
+        <v>0.009193676903780805</v>
       </c>
       <c r="I1587">
-        <v>0.322768274793336</v>
+        <v>0.2219773391380966</v>
       </c>
       <c r="J1587">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1587">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L1587">
-        <v>5.25</v>
+        <v>5.37</v>
       </c>
       <c r="M1587">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="N1587">
         <v>5.64</v>
@@ -81337,46 +81337,46 @@
     </row>
     <row r="1588" spans="1:16">
       <c r="A1588" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1588" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1588">
-        <v>1.864345757081098</v>
+        <v>2.137904967529674</v>
       </c>
       <c r="D1588" t="s">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="E1588">
-        <v>2.086323096219195</v>
+        <v>1.944854529218231</v>
       </c>
       <c r="F1588">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1588">
-        <v>0.008875654242918902</v>
+        <v>0.009322095032470328</v>
       </c>
       <c r="H1588">
-        <v>0.009193676903780805</v>
+        <v>0.008495145470781769</v>
       </c>
       <c r="I1588">
-        <v>0.2219773391380966</v>
+        <v>0.1930504383114426</v>
       </c>
       <c r="J1588">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1588">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="L1588">
-        <v>5.37</v>
+        <v>5.73</v>
       </c>
       <c r="M1588">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="N1588">
-        <v>5.64</v>
+        <v>5.22</v>
       </c>
       <c r="O1588">
         <v>1</v>
@@ -81387,13 +81387,13 @@
     </row>
     <row r="1589" spans="1:16">
       <c r="A1589" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1589" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1589">
-        <v>2.137904967529674</v>
+        <v>2.170786546632523</v>
       </c>
       <c r="D1589" t="s">
         <v>416</v>
@@ -81405,22 +81405,22 @@
         <v>-1</v>
       </c>
       <c r="G1589">
-        <v>0.009322095032470328</v>
+        <v>0.009009213453367476</v>
       </c>
       <c r="H1589">
         <v>0.008495145470781769</v>
       </c>
       <c r="I1589">
-        <v>0.1930504383114426</v>
+        <v>0.225932017414292</v>
       </c>
       <c r="J1589">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1589">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="L1589">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="M1589">
         <v>3.41</v>
@@ -81437,46 +81437,46 @@
     </row>
     <row r="1590" spans="1:16">
       <c r="A1590" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1590" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1590">
-        <v>2.170786546632523</v>
+        <v>1.81524999704585</v>
       </c>
       <c r="D1590" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E1590">
-        <v>1.944854529218231</v>
+        <v>2.056831868356328</v>
       </c>
       <c r="F1590">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1590">
-        <v>0.009009213453367476</v>
+        <v>0.008384750002954149</v>
       </c>
       <c r="H1590">
-        <v>0.008495145470781769</v>
+        <v>0.008703168131643672</v>
       </c>
       <c r="I1590">
-        <v>0.225932017414292</v>
+        <v>0.241581871310478</v>
       </c>
       <c r="J1590">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1590">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1590">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1590">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1590">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1590">
         <v>1</v>
@@ -81487,13 +81487,13 @@
     </row>
     <row r="1591" spans="1:16">
       <c r="A1591" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1591" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1591">
-        <v>1.81524999704585</v>
+        <v>1.864854529218231</v>
       </c>
       <c r="D1591" t="s">
         <v>417</v>
@@ -81505,22 +81505,22 @@
         <v>1</v>
       </c>
       <c r="G1591">
-        <v>0.008384750002954149</v>
+        <v>0.008415145470781768</v>
       </c>
       <c r="H1591">
         <v>0.008703168131643672</v>
       </c>
       <c r="I1591">
-        <v>0.241581871310478</v>
+        <v>0.1919773391380977</v>
       </c>
       <c r="J1591">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1591">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1591">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1591">
         <v>3.46</v>
@@ -81537,46 +81537,46 @@
     </row>
     <row r="1592" spans="1:16">
       <c r="A1592" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1592" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1592">
-        <v>1.864854529218231</v>
+        <v>2.151182014460143</v>
       </c>
       <c r="D1592" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="E1592">
-        <v>2.056831868356328</v>
+        <v>1.910786546632523</v>
       </c>
       <c r="F1592">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1592">
-        <v>0.008415145470781768</v>
+        <v>0.009008817985539857</v>
       </c>
       <c r="H1592">
-        <v>0.008703168131643672</v>
+        <v>0.008749213453367478</v>
       </c>
       <c r="I1592">
-        <v>0.1919773391380977</v>
+        <v>0.2403954678276197</v>
       </c>
       <c r="J1592">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1592">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1592">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1592">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1592">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1592">
         <v>1</v>
@@ -81587,46 +81587,46 @@
     </row>
     <row r="1593" spans="1:16">
       <c r="A1593" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1593" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C1593">
-        <v>2.151182014460143</v>
+        <v>1.828018271839186</v>
       </c>
       <c r="D1593" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
       <c r="E1593">
-        <v>1.910786546632523</v>
+        <v>2.051013155251551</v>
       </c>
       <c r="F1593">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1593">
-        <v>0.009008817985539857</v>
+        <v>0.008531981728160814</v>
       </c>
       <c r="H1593">
-        <v>0.008749213453367478</v>
+        <v>0.007928986844748449</v>
       </c>
       <c r="I1593">
-        <v>0.2403954678276197</v>
+        <v>0.2229948834123645</v>
       </c>
       <c r="J1593">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1593">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1593">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1593">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="N1593">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="O1593">
         <v>1</v>
@@ -81637,13 +81637,13 @@
     </row>
     <row r="1594" spans="1:16">
       <c r="A1594" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1594" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C1594">
-        <v>1.828018271839186</v>
+        <v>1.853668125735373</v>
       </c>
       <c r="D1594" t="s">
         <v>419</v>
@@ -81655,22 +81655,22 @@
         <v>1</v>
       </c>
       <c r="G1594">
-        <v>0.008531981728160814</v>
+        <v>0.008346331874264626</v>
       </c>
       <c r="H1594">
         <v>0.007928986844748449</v>
       </c>
       <c r="I1594">
-        <v>0.2229948834123645</v>
+        <v>0.1973450295161783</v>
       </c>
       <c r="J1594">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1594">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="L1594">
-        <v>5.18</v>
+        <v>5.1</v>
       </c>
       <c r="M1594">
         <v>3.06</v>
@@ -81687,13 +81687,13 @@
     </row>
     <row r="1595" spans="1:16">
       <c r="A1595" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1595" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1595">
-        <v>1.853668125735373</v>
+        <v>1.86564546487347</v>
       </c>
       <c r="D1595" t="s">
         <v>419</v>
@@ -81705,22 +81705,22 @@
         <v>1</v>
       </c>
       <c r="G1595">
-        <v>0.008346331874264626</v>
+        <v>0.008454354535126531</v>
       </c>
       <c r="H1595">
         <v>0.007928986844748449</v>
       </c>
       <c r="I1595">
-        <v>0.1973450295161783</v>
+        <v>0.1853676903780808</v>
       </c>
       <c r="J1595">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1595">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1595">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1595">
         <v>3.06</v>
@@ -81737,13 +81737,13 @@
     </row>
     <row r="1596" spans="1:16">
       <c r="A1596" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1596" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1596">
-        <v>1.86564546487347</v>
+        <v>1.846945172665842</v>
       </c>
       <c r="D1596" t="s">
         <v>419</v>
@@ -81755,22 +81755,22 @@
         <v>1</v>
       </c>
       <c r="G1596">
-        <v>0.008454354535126531</v>
+        <v>0.008013054827334156</v>
       </c>
       <c r="H1596">
         <v>0.007928986844748449</v>
       </c>
       <c r="I1596">
-        <v>0.1853676903780808</v>
+        <v>0.2040679825857086</v>
       </c>
       <c r="J1596">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1596">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1596">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1596">
         <v>3.06</v>
@@ -81787,93 +81787,93 @@
     </row>
     <row r="1597" spans="1:16">
       <c r="A1597" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1597" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1597">
-        <v>1.846945172665842</v>
+        <v>1.676370302057997</v>
       </c>
       <c r="D1597" t="s">
-        <v>419</v>
+        <v>230</v>
       </c>
       <c r="E1597">
-        <v>2.051013155251551</v>
+        <v>1.996883057931346</v>
       </c>
       <c r="F1597">
         <v>1</v>
       </c>
       <c r="G1597">
-        <v>0.008013054827334156</v>
+        <v>0.008823629697942004</v>
       </c>
       <c r="H1597">
-        <v>0.007928986844748449</v>
+        <v>0.009283116942068651</v>
       </c>
       <c r="I1597">
-        <v>0.2040679825857086</v>
+        <v>0.3205127558733496</v>
       </c>
       <c r="J1597">
-        <v>0.9604532172380553</v>
+        <v>0.9926749160950009</v>
       </c>
       <c r="K1597">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="L1597">
-        <v>4.93</v>
+        <v>5.25</v>
       </c>
       <c r="M1597">
-        <v>3.06</v>
+        <v>3.67</v>
       </c>
       <c r="N1597">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1597">
         <v>1</v>
       </c>
       <c r="P1597" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1598" spans="1:16">
       <c r="A1598" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1598" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C1598">
-        <v>1.676370302057997</v>
+        <v>1.746736556253247</v>
       </c>
       <c r="D1598" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1598">
-        <v>1.996883057931346</v>
+        <v>1.967102810448496</v>
       </c>
       <c r="F1598">
         <v>1</v>
       </c>
       <c r="G1598">
-        <v>0.008823629697942004</v>
+        <v>0.008993263443746754</v>
       </c>
       <c r="H1598">
-        <v>0.009283116942068651</v>
+        <v>0.009312897189551504</v>
       </c>
       <c r="I1598">
-        <v>0.3205127558733496</v>
+        <v>0.2203662541952491</v>
       </c>
       <c r="J1598">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1598">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L1598">
-        <v>5.25</v>
+        <v>5.37</v>
       </c>
       <c r="M1598">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="N1598">
         <v>5.64</v>
@@ -81887,46 +81887,46 @@
     </row>
     <row r="1599" spans="1:16">
       <c r="A1599" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1599" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1599">
-        <v>1.746736556253247</v>
+        <v>2.017395813804697</v>
       </c>
       <c r="D1599" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="E1599">
-        <v>1.967102810448496</v>
+        <v>1.887029559609446</v>
       </c>
       <c r="F1599">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1599">
-        <v>0.008993263443746754</v>
+        <v>0.009442604186195304</v>
       </c>
       <c r="H1599">
-        <v>0.009312897189551504</v>
+        <v>0.009212970440390553</v>
       </c>
       <c r="I1599">
-        <v>0.2203662541952491</v>
+        <v>0.1303662541952506</v>
       </c>
       <c r="J1599">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1599">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="L1599">
-        <v>5.37</v>
+        <v>5.73</v>
       </c>
       <c r="M1599">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="N1599">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="O1599">
         <v>1</v>
@@ -81937,46 +81937,46 @@
     </row>
     <row r="1600" spans="1:16">
       <c r="A1600" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1600" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1600">
-        <v>2.017395813804697</v>
+        <v>2.056077298701796</v>
       </c>
       <c r="D1600" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E1600">
-        <v>1.887029559609446</v>
+        <v>1.834978536116047</v>
       </c>
       <c r="F1600">
         <v>-1</v>
       </c>
       <c r="G1600">
-        <v>0.009442604186195304</v>
+        <v>0.009123922701298205</v>
       </c>
       <c r="H1600">
-        <v>0.009212970440390553</v>
+        <v>0.008605021463883953</v>
       </c>
       <c r="I1600">
-        <v>0.1303662541952506</v>
+        <v>0.2210987625857497</v>
       </c>
       <c r="J1600">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1600">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="L1600">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="M1600">
-        <v>3.69</v>
+        <v>3.41</v>
       </c>
       <c r="N1600">
-        <v>5.55</v>
+        <v>5.22</v>
       </c>
       <c r="O1600">
         <v>1</v>
@@ -81987,46 +81987,46 @@
     </row>
     <row r="1601" spans="1:16">
       <c r="A1601" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1601" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1601">
-        <v>2.056077298701796</v>
+        <v>1.705051786955097</v>
       </c>
       <c r="D1601" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E1601">
-        <v>1.834978536116047</v>
+        <v>1.945344790311297</v>
       </c>
       <c r="F1601">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1601">
-        <v>0.009123922701298205</v>
+        <v>0.008494948213044903</v>
       </c>
       <c r="H1601">
-        <v>0.008605021463883953</v>
+        <v>0.008814655209688702</v>
       </c>
       <c r="I1601">
-        <v>0.2210987625857497</v>
+        <v>0.2402930033562001</v>
       </c>
       <c r="J1601">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1601">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1601">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1601">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1601">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1601">
         <v>1</v>
@@ -82037,13 +82037,13 @@
     </row>
     <row r="1602" spans="1:16">
       <c r="A1602" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1602" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1602">
-        <v>1.705051786955097</v>
+        <v>1.754978536116047</v>
       </c>
       <c r="D1602" t="s">
         <v>417</v>
@@ -82055,22 +82055,22 @@
         <v>1</v>
       </c>
       <c r="G1602">
-        <v>0.008494948213044903</v>
+        <v>0.008525021463883953</v>
       </c>
       <c r="H1602">
         <v>0.008814655209688702</v>
       </c>
       <c r="I1602">
-        <v>0.2402930033562001</v>
+        <v>0.1903662541952502</v>
       </c>
       <c r="J1602">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1602">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1602">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1602">
         <v>3.46</v>
@@ -82087,46 +82087,46 @@
     </row>
     <row r="1603" spans="1:16">
       <c r="A1603" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1603" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1603">
-        <v>1.754978536116047</v>
+        <v>2.036150549540847</v>
       </c>
       <c r="D1603" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="E1603">
-        <v>1.945344790311297</v>
+        <v>1.796077298701797</v>
       </c>
       <c r="F1603">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1603">
-        <v>0.008525021463883953</v>
+        <v>0.009123849450459152</v>
       </c>
       <c r="H1603">
-        <v>0.008814655209688702</v>
+        <v>0.008863922701298205</v>
       </c>
       <c r="I1603">
-        <v>0.1903662541952502</v>
+        <v>0.2400732508390506</v>
       </c>
       <c r="J1603">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1603">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1603">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1603">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1603">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1603">
         <v>1</v>
@@ -82137,46 +82137,46 @@
     </row>
     <row r="1604" spans="1:16">
       <c r="A1604" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1604" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C1604">
-        <v>2.036150549540847</v>
+        <v>1.715564542828446</v>
       </c>
       <c r="D1604" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
       <c r="E1604">
-        <v>1.796077298701797</v>
+        <v>1.952414756749298</v>
       </c>
       <c r="F1604">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1604">
-        <v>0.009123849450459152</v>
+        <v>0.008644435457171553</v>
       </c>
       <c r="H1604">
-        <v>0.008863922701298205</v>
+        <v>0.008027585243250703</v>
       </c>
       <c r="I1604">
-        <v>0.2400732508390506</v>
+        <v>0.2368502139208513</v>
       </c>
       <c r="J1604">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1604">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1604">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1604">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="N1604">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="O1604">
         <v>1</v>
@@ -82187,13 +82187,13 @@
     </row>
     <row r="1605" spans="1:16">
       <c r="A1605" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1605" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1605">
-        <v>1.715564542828446</v>
+        <v>1.765637793667497</v>
       </c>
       <c r="D1605" t="s">
         <v>419</v>
@@ -82205,22 +82205,22 @@
         <v>1</v>
       </c>
       <c r="G1605">
-        <v>0.008644435457171553</v>
+        <v>0.008714362206332503</v>
       </c>
       <c r="H1605">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1605">
-        <v>0.2368502139208513</v>
+        <v>0.1867769630818006</v>
       </c>
       <c r="J1605">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1605">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1605">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1605">
         <v>3.06</v>
@@ -82237,13 +82237,13 @@
     </row>
     <row r="1606" spans="1:16">
       <c r="A1606" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1606" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1606">
-        <v>1.765637793667497</v>
+        <v>1.744758783598896</v>
       </c>
       <c r="D1606" t="s">
         <v>419</v>
@@ -82255,22 +82255,22 @@
         <v>1</v>
       </c>
       <c r="G1606">
-        <v>0.008714362206332503</v>
+        <v>0.008455241216401102</v>
       </c>
       <c r="H1606">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1606">
-        <v>0.1867769630818006</v>
+        <v>0.2076559731504011</v>
       </c>
       <c r="J1606">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1606">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L1606">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="M1606">
         <v>3.06</v>
@@ -82287,13 +82287,13 @@
     </row>
     <row r="1607" spans="1:16">
       <c r="A1607" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1607" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1607">
-        <v>1.744758783598896</v>
+        <v>1.755125037794147</v>
       </c>
       <c r="D1607" t="s">
         <v>419</v>
@@ -82305,22 +82305,22 @@
         <v>1</v>
       </c>
       <c r="G1607">
-        <v>0.008455241216401102</v>
+        <v>0.008564874962205853</v>
       </c>
       <c r="H1607">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1607">
-        <v>0.2076559731504011</v>
+        <v>0.1972897189551506</v>
       </c>
       <c r="J1607">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1607">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1607">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1607">
         <v>3.06</v>
@@ -82337,13 +82337,13 @@
     </row>
     <row r="1608" spans="1:16">
       <c r="A1608" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1608" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1608">
-        <v>1.755125037794147</v>
+        <v>1.743513519335047</v>
       </c>
       <c r="D1608" t="s">
         <v>419</v>
@@ -82355,22 +82355,22 @@
         <v>1</v>
       </c>
       <c r="G1608">
-        <v>0.008564874962205853</v>
+        <v>0.008116486480664953</v>
       </c>
       <c r="H1608">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1608">
-        <v>0.1972897189551506</v>
+        <v>0.2089012374142509</v>
       </c>
       <c r="J1608">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1608">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1608">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1608">
         <v>3.06</v>
@@ -82387,96 +82387,96 @@
     </row>
     <row r="1609" spans="1:16">
       <c r="A1609" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1609" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C1609">
-        <v>1.743513519335047</v>
+        <v>1.605356319289299</v>
       </c>
       <c r="D1609" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="E1609">
-        <v>1.952414756749298</v>
+        <v>1.823785857909699</v>
       </c>
       <c r="F1609">
         <v>1</v>
       </c>
       <c r="G1609">
-        <v>0.008116486480664953</v>
+        <v>0.009134643680710703</v>
       </c>
       <c r="H1609">
-        <v>0.008027585243250703</v>
+        <v>0.009456214142090301</v>
       </c>
       <c r="I1609">
-        <v>0.2089012374142509</v>
+        <v>0.2184295386204007</v>
       </c>
       <c r="J1609">
-        <v>0.9926749160950009</v>
+        <v>1.031409227591973</v>
       </c>
       <c r="K1609">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="L1609">
-        <v>4.93</v>
+        <v>5.37</v>
       </c>
       <c r="M1609">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="N1609">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1609">
         <v>1</v>
       </c>
       <c r="P1609" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1610" spans="1:16">
       <c r="A1610" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1610" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C1610">
-        <v>1.605356319289299</v>
+        <v>1.918183149772576</v>
       </c>
       <c r="D1610" t="s">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="E1610">
-        <v>1.823785857909699</v>
+        <v>1.702894533911371</v>
       </c>
       <c r="F1610">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1610">
-        <v>0.009134643680710703</v>
+        <v>0.009261816850227424</v>
       </c>
       <c r="H1610">
-        <v>0.009456214142090301</v>
+        <v>0.00873710546608863</v>
       </c>
       <c r="I1610">
-        <v>0.2184295386204007</v>
+        <v>0.2152886158612044</v>
       </c>
       <c r="J1610">
         <v>1.031409227591973</v>
       </c>
       <c r="K1610">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1610">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1610">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="N1610">
-        <v>5.64</v>
+        <v>5.22</v>
       </c>
       <c r="O1610">
         <v>1</v>
@@ -82487,46 +82487,46 @@
     </row>
     <row r="1611" spans="1:16">
       <c r="A1611" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1611" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1611">
-        <v>1.918183149772576</v>
+        <v>1.572580441635452</v>
       </c>
       <c r="D1611" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E1611">
-        <v>1.702894533911371</v>
+        <v>1.811324072531773</v>
       </c>
       <c r="F1611">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1611">
-        <v>0.009261816850227424</v>
+        <v>0.008627419558364548</v>
       </c>
       <c r="H1611">
-        <v>0.00873710546608863</v>
+        <v>0.008948675927468227</v>
       </c>
       <c r="I1611">
-        <v>0.2152886158612044</v>
+        <v>0.2387436308963213</v>
       </c>
       <c r="J1611">
         <v>1.031409227591973</v>
       </c>
       <c r="K1611">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1611">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1611">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1611">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1611">
         <v>1</v>
@@ -82537,13 +82537,13 @@
     </row>
     <row r="1612" spans="1:16">
       <c r="A1612" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1612" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1612">
-        <v>1.572580441635452</v>
+        <v>1.622894533911371</v>
       </c>
       <c r="D1612" t="s">
         <v>417</v>
@@ -82555,22 +82555,22 @@
         <v>1</v>
       </c>
       <c r="G1612">
-        <v>0.008627419558364548</v>
+        <v>0.00865710546608863</v>
       </c>
       <c r="H1612">
         <v>0.008948675927468227</v>
       </c>
       <c r="I1612">
-        <v>0.2387436308963213</v>
+        <v>0.1884295386204018</v>
       </c>
       <c r="J1612">
         <v>1.031409227591973</v>
       </c>
       <c r="K1612">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1612">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1612">
         <v>3.46</v>
@@ -82587,46 +82587,46 @@
     </row>
     <row r="1613" spans="1:16">
       <c r="A1613" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1613" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1613">
-        <v>1.622894533911371</v>
+        <v>1.897869057496656</v>
       </c>
       <c r="D1613" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="E1613">
-        <v>1.811324072531773</v>
+        <v>1.658183149772576</v>
       </c>
       <c r="F1613">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1613">
-        <v>0.00865710546608863</v>
+        <v>0.009262130942503345</v>
       </c>
       <c r="H1613">
-        <v>0.008948675927468227</v>
+        <v>0.009001816850227424</v>
       </c>
       <c r="I1613">
-        <v>0.1884295386204018</v>
+        <v>0.2396859077240805</v>
       </c>
       <c r="J1613">
         <v>1.031409227591973</v>
       </c>
       <c r="K1613">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1613">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1613">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1613">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1613">
         <v>1</v>
@@ -82637,46 +82637,46 @@
     </row>
     <row r="1614" spans="1:16">
       <c r="A1614" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1614" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C1614">
-        <v>1.897869057496656</v>
+        <v>1.580381795704013</v>
       </c>
       <c r="D1614" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E1614">
-        <v>1.759439518876254</v>
+        <v>1.833887763568562</v>
       </c>
       <c r="F1614">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1614">
-        <v>0.009262130942503345</v>
+        <v>0.008779618204295986</v>
       </c>
       <c r="H1614">
-        <v>0.009020560481123745</v>
+        <v>0.008146112236431439</v>
       </c>
       <c r="I1614">
-        <v>0.138429538620402</v>
+        <v>0.253505967864549</v>
       </c>
       <c r="J1614">
         <v>1.031409227591973</v>
       </c>
       <c r="K1614">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1614">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1614">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1614">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1614">
         <v>1</v>
@@ -82687,13 +82687,13 @@
     </row>
     <row r="1615" spans="1:16">
       <c r="A1615" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1615" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1615">
-        <v>1.580381795704013</v>
+        <v>1.630067703428094</v>
       </c>
       <c r="D1615" t="s">
         <v>419</v>
@@ -82705,22 +82705,22 @@
         <v>1</v>
       </c>
       <c r="G1615">
-        <v>0.008779618204295986</v>
+        <v>0.008849932296571906</v>
       </c>
       <c r="H1615">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1615">
-        <v>0.253505967864549</v>
+        <v>0.2038200601404681</v>
       </c>
       <c r="J1615">
         <v>1.031409227591973</v>
       </c>
       <c r="K1615">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1615">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1615">
         <v>3.06</v>
@@ -82737,13 +82737,13 @@
     </row>
     <row r="1616" spans="1:16">
       <c r="A1616" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1616" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1616">
-        <v>1.630067703428094</v>
+        <v>1.613836810739131</v>
       </c>
       <c r="D1616" t="s">
         <v>419</v>
@@ -82755,22 +82755,22 @@
         <v>1</v>
       </c>
       <c r="G1616">
-        <v>0.008849932296571906</v>
+        <v>0.00858616318926087</v>
       </c>
       <c r="H1616">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1616">
-        <v>0.2038200601404681</v>
+        <v>0.2200509528294314</v>
       </c>
       <c r="J1616">
         <v>1.031409227591973</v>
       </c>
       <c r="K1616">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L1616">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="M1616">
         <v>3.06</v>
@@ -82787,13 +82787,13 @@
     </row>
     <row r="1617" spans="1:16">
       <c r="A1617" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1617" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1617">
-        <v>1.613836810739131</v>
+        <v>1.622266349359532</v>
       </c>
       <c r="D1617" t="s">
         <v>419</v>
@@ -82805,22 +82805,22 @@
         <v>1</v>
       </c>
       <c r="G1617">
-        <v>0.00858616318926087</v>
+        <v>0.008697733650640469</v>
       </c>
       <c r="H1617">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1617">
-        <v>0.2200509528294314</v>
+        <v>0.2116214142090302</v>
       </c>
       <c r="J1617">
         <v>1.031409227591973</v>
       </c>
       <c r="K1617">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1617">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1617">
         <v>3.06</v>
@@ -82837,13 +82837,13 @@
     </row>
     <row r="1618" spans="1:16">
       <c r="A1618" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1618" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1618">
-        <v>1.622266349359532</v>
+        <v>1.619176379429766</v>
       </c>
       <c r="D1618" t="s">
         <v>419</v>
@@ -82855,22 +82855,22 @@
         <v>1</v>
       </c>
       <c r="G1618">
-        <v>0.008697733650640469</v>
+        <v>0.008240823620570232</v>
       </c>
       <c r="H1618">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1618">
-        <v>0.2116214142090302</v>
+        <v>0.2147113841387962</v>
       </c>
       <c r="J1618">
         <v>1.031409227591973</v>
       </c>
       <c r="K1618">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1618">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1618">
         <v>3.06</v>
@@ -82887,63 +82887,63 @@
     </row>
     <row r="1619" spans="1:16">
       <c r="A1619" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1619" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C1619">
-        <v>1.619176379429766</v>
+        <v>1.561057407303271</v>
       </c>
       <c r="D1619" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="E1619">
-        <v>1.833887763568562</v>
+        <v>1.733292087439065</v>
       </c>
       <c r="F1619">
         <v>1</v>
       </c>
       <c r="G1619">
-        <v>0.008240823620570232</v>
+        <v>0.00945894259269673</v>
       </c>
       <c r="H1619">
-        <v>0.008146112236431439</v>
+        <v>0.009546707912560935</v>
       </c>
       <c r="I1619">
-        <v>0.2147113841387962</v>
+        <v>0.1722346801357939</v>
       </c>
       <c r="J1619">
-        <v>1.031409227591973</v>
+        <v>1.055867003394847</v>
       </c>
       <c r="K1619">
-        <v>3.21</v>
+        <v>3.74</v>
       </c>
       <c r="L1619">
-        <v>4.93</v>
+        <v>5.51</v>
       </c>
       <c r="M1619">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="N1619">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1619">
         <v>1</v>
       </c>
       <c r="P1619" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1620" spans="1:16">
       <c r="A1620" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1620" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C1620">
-        <v>1.561057407303271</v>
+        <v>1.516085437608808</v>
       </c>
       <c r="D1620" t="s">
         <v>231</v>
@@ -82955,22 +82955,22 @@
         <v>1</v>
       </c>
       <c r="G1620">
-        <v>0.00945894259269673</v>
+        <v>0.009223914562391192</v>
       </c>
       <c r="H1620">
         <v>0.009546707912560935</v>
       </c>
       <c r="I1620">
-        <v>0.1722346801357939</v>
+        <v>0.2172066498302567</v>
       </c>
       <c r="J1620">
         <v>1.055867003394847</v>
       </c>
       <c r="K1620">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="L1620">
-        <v>5.51</v>
+        <v>5.37</v>
       </c>
       <c r="M1620">
         <v>3.7</v>
@@ -82987,46 +82987,46 @@
     </row>
     <row r="1621" spans="1:16">
       <c r="A1621" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1621" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C1621">
-        <v>1.516085437608808</v>
+        <v>1.831113467914344</v>
       </c>
       <c r="D1621" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="E1621">
-        <v>1.733292087439065</v>
+        <v>1.675024158151984</v>
       </c>
       <c r="F1621">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1621">
-        <v>0.009223914562391192</v>
+        <v>0.009348886532085656</v>
       </c>
       <c r="H1621">
-        <v>0.009546707912560935</v>
+        <v>0.009044975841848019</v>
       </c>
       <c r="I1621">
-        <v>0.2172066498302567</v>
+        <v>0.1560893097623604</v>
       </c>
       <c r="J1621">
         <v>1.055867003394847</v>
       </c>
       <c r="K1621">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1621">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1621">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="N1621">
-        <v>5.64</v>
+        <v>5.36</v>
       </c>
       <c r="O1621">
         <v>1</v>
@@ -83037,46 +83037,46 @@
     </row>
     <row r="1622" spans="1:16">
       <c r="A1622" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1622" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1622">
-        <v>1.831113467914344</v>
+        <v>1.488934848389623</v>
       </c>
       <c r="D1622" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E1622">
-        <v>1.675024158151984</v>
+        <v>1.726700168253829</v>
       </c>
       <c r="F1622">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1622">
-        <v>0.009348886532085656</v>
+        <v>0.008711065151610378</v>
       </c>
       <c r="H1622">
-        <v>0.009044975841848019</v>
+        <v>0.00903329983174617</v>
       </c>
       <c r="I1622">
-        <v>0.1560893097623604</v>
+        <v>0.2377653198642062</v>
       </c>
       <c r="J1622">
         <v>1.055867003394847</v>
       </c>
       <c r="K1622">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1622">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1622">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1622">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1622">
         <v>1</v>
@@ -83087,13 +83087,13 @@
     </row>
     <row r="1623" spans="1:16">
       <c r="A1623" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1623" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1623">
-        <v>1.488934848389623</v>
+        <v>1.539493518423571</v>
       </c>
       <c r="D1623" t="s">
         <v>417</v>
@@ -83105,22 +83105,22 @@
         <v>1</v>
       </c>
       <c r="G1623">
-        <v>0.008711065151610378</v>
+        <v>0.008740506481576428</v>
       </c>
       <c r="H1623">
         <v>0.00903329983174617</v>
       </c>
       <c r="I1623">
-        <v>0.2377653198642062</v>
+        <v>0.1872066498302583</v>
       </c>
       <c r="J1623">
         <v>1.055867003394847</v>
       </c>
       <c r="K1623">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1623">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1623">
         <v>3.46</v>
@@ -83137,46 +83137,46 @@
     </row>
     <row r="1624" spans="1:16">
       <c r="A1624" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1624" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1624">
-        <v>1.539493518423571</v>
+        <v>1.810554797880396</v>
       </c>
       <c r="D1624" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E1624">
-        <v>1.726700168253829</v>
+        <v>1.673348148050138</v>
       </c>
       <c r="F1624">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1624">
-        <v>0.008740506481576428</v>
+        <v>0.009349445202119604</v>
       </c>
       <c r="H1624">
-        <v>0.00903329983174617</v>
+        <v>0.009106651851949862</v>
       </c>
       <c r="I1624">
-        <v>0.1872066498302583</v>
+        <v>0.137206649830258</v>
       </c>
       <c r="J1624">
         <v>1.055867003394847</v>
       </c>
       <c r="K1624">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1624">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1624">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1624">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1624">
         <v>1</v>
@@ -83187,46 +83187,46 @@
     </row>
     <row r="1625" spans="1:16">
       <c r="A1625" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1625" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C1625">
-        <v>1.810554797880396</v>
+        <v>1.495024158151983</v>
       </c>
       <c r="D1625" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E1625">
-        <v>1.673348148050138</v>
+        <v>1.759046969611768</v>
       </c>
       <c r="F1625">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1625">
-        <v>0.009349445202119604</v>
+        <v>0.008864975841848017</v>
       </c>
       <c r="H1625">
-        <v>0.009106651851949862</v>
+        <v>0.008220953030388231</v>
       </c>
       <c r="I1625">
-        <v>0.137206649830258</v>
+        <v>0.2640228114597849</v>
       </c>
       <c r="J1625">
         <v>1.055867003394847</v>
       </c>
       <c r="K1625">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1625">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1625">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1625">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1625">
         <v>1</v>
@@ -83237,13 +83237,13 @@
     </row>
     <row r="1626" spans="1:16">
       <c r="A1626" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1626" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1626">
-        <v>1.495024158151983</v>
+        <v>1.544465488118035</v>
       </c>
       <c r="D1626" t="s">
         <v>419</v>
@@ -83255,22 +83255,22 @@
         <v>1</v>
       </c>
       <c r="G1626">
-        <v>0.008864975841848017</v>
+        <v>0.008935534511881966</v>
       </c>
       <c r="H1626">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1626">
-        <v>0.2640228114597849</v>
+        <v>0.2145814814937328</v>
       </c>
       <c r="J1626">
         <v>1.055867003394847</v>
       </c>
       <c r="K1626">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1626">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1626">
         <v>3.06</v>
@@ -83287,13 +83287,13 @@
     </row>
     <row r="1627" spans="1:16">
       <c r="A1627" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1627" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1627">
-        <v>1.544465488118035</v>
+        <v>1.538376178355674</v>
       </c>
       <c r="D1627" t="s">
         <v>419</v>
@@ -83305,22 +83305,22 @@
         <v>1</v>
       </c>
       <c r="G1627">
-        <v>0.008935534511881966</v>
+        <v>0.008781623821644326</v>
       </c>
       <c r="H1627">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1627">
-        <v>0.2145814814937328</v>
+        <v>0.2206707912560937</v>
       </c>
       <c r="J1627">
         <v>1.055867003394847</v>
       </c>
       <c r="K1627">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L1627">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
       <c r="M1627">
         <v>3.06</v>
@@ -83337,13 +83337,13 @@
     </row>
     <row r="1628" spans="1:16">
       <c r="A1628" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1628" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1628">
-        <v>1.538376178355674</v>
+        <v>1.54066691910254</v>
       </c>
       <c r="D1628" t="s">
         <v>419</v>
@@ -83355,22 +83355,22 @@
         <v>1</v>
       </c>
       <c r="G1628">
-        <v>0.008781623821644326</v>
+        <v>0.008319333080897461</v>
       </c>
       <c r="H1628">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1628">
-        <v>0.2206707912560937</v>
+        <v>0.2183800505092277</v>
       </c>
       <c r="J1628">
         <v>1.055867003394847</v>
       </c>
       <c r="K1628">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1628">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1628">
         <v>3.06</v>
@@ -83387,96 +83387,96 @@
     </row>
     <row r="1629" spans="1:16">
       <c r="A1629" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1629" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C1629">
-        <v>1.54066691910254</v>
+        <v>1.244990997067842</v>
       </c>
       <c r="D1629" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="E1629">
-        <v>1.759046969611768</v>
+        <v>1.458484024424935</v>
       </c>
       <c r="F1629">
         <v>1</v>
       </c>
       <c r="G1629">
-        <v>0.008319333080897461</v>
+        <v>0.009495009002932157</v>
       </c>
       <c r="H1629">
-        <v>0.008220953030388231</v>
+        <v>0.009821515975575065</v>
       </c>
       <c r="I1629">
-        <v>0.2183800505092277</v>
+        <v>0.2134930273570932</v>
       </c>
       <c r="J1629">
-        <v>1.055867003394847</v>
+        <v>1.130139452858125</v>
       </c>
       <c r="K1629">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="L1629">
-        <v>4.93</v>
+        <v>5.37</v>
       </c>
       <c r="M1629">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="N1629">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1629">
         <v>1</v>
       </c>
       <c r="P1629" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1630" spans="1:16">
       <c r="A1630" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1630" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C1630">
-        <v>1.244990997067842</v>
+        <v>1.566703547825073</v>
       </c>
       <c r="D1630" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="E1630">
-        <v>1.458484024424935</v>
+        <v>1.415813309525142</v>
       </c>
       <c r="F1630">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1630">
-        <v>0.009495009002932157</v>
+        <v>0.009613296452174926</v>
       </c>
       <c r="H1630">
-        <v>0.009821515975575065</v>
+        <v>0.009304186690474857</v>
       </c>
       <c r="I1630">
-        <v>0.2134930273570932</v>
+        <v>0.1508902382999304</v>
       </c>
       <c r="J1630">
         <v>1.130139452858125</v>
       </c>
       <c r="K1630">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1630">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1630">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="N1630">
-        <v>5.64</v>
+        <v>5.36</v>
       </c>
       <c r="O1630">
         <v>1</v>
@@ -83487,46 +83487,46 @@
     </row>
     <row r="1631" spans="1:16">
       <c r="A1631" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1631" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1631">
-        <v>1.566703547825073</v>
+        <v>1.234923071225211</v>
       </c>
       <c r="D1631" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E1631">
-        <v>1.415813309525142</v>
+        <v>1.469717493110886</v>
       </c>
       <c r="F1631">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1631">
-        <v>0.009613296452174926</v>
+        <v>0.008965076928774789</v>
       </c>
       <c r="H1631">
-        <v>0.009304186690474857</v>
+        <v>0.009290282506889113</v>
       </c>
       <c r="I1631">
-        <v>0.1508902382999304</v>
+        <v>0.2347944218856752</v>
       </c>
       <c r="J1631">
         <v>1.130139452858125</v>
       </c>
       <c r="K1631">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1631">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1631">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1631">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1631">
         <v>1</v>
@@ -83537,13 +83537,13 @@
     </row>
     <row r="1632" spans="1:16">
       <c r="A1632" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1632" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1632">
-        <v>1.234923071225211</v>
+        <v>1.286224465753792</v>
       </c>
       <c r="D1632" t="s">
         <v>417</v>
@@ -83555,22 +83555,22 @@
         <v>1</v>
       </c>
       <c r="G1632">
-        <v>0.008965076928774789</v>
+        <v>0.008993775534246207</v>
       </c>
       <c r="H1632">
         <v>0.009290282506889113</v>
       </c>
       <c r="I1632">
-        <v>0.2347944218856752</v>
+        <v>0.1834930273570943</v>
       </c>
       <c r="J1632">
         <v>1.130139452858125</v>
       </c>
       <c r="K1632">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1632">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1632">
         <v>3.46</v>
@@ -83587,46 +83587,46 @@
     </row>
     <row r="1633" spans="1:16">
       <c r="A1633" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1633" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1633">
-        <v>1.286224465753792</v>
+        <v>1.545402153296492</v>
       </c>
       <c r="D1633" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E1633">
-        <v>1.469717493110886</v>
+        <v>1.411909125939398</v>
       </c>
       <c r="F1633">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1633">
-        <v>0.008993775534246207</v>
+        <v>0.009614597846703507</v>
       </c>
       <c r="H1633">
-        <v>0.009290282506889113</v>
+        <v>0.009368090874060602</v>
       </c>
       <c r="I1633">
-        <v>0.1834930273570943</v>
+        <v>0.133493027357094</v>
       </c>
       <c r="J1633">
         <v>1.130139452858125</v>
       </c>
       <c r="K1633">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1633">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1633">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1633">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1633">
         <v>1</v>
@@ -83637,46 +83637,46 @@
     </row>
     <row r="1634" spans="1:16">
       <c r="A1634" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1634" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C1634">
-        <v>1.545402153296492</v>
+        <v>1.306703547825073</v>
       </c>
       <c r="D1634" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E1634">
-        <v>1.411909125939398</v>
+        <v>1.531773274254136</v>
       </c>
       <c r="F1634">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1634">
-        <v>0.009614597846703507</v>
+        <v>0.009353296452174927</v>
       </c>
       <c r="H1634">
-        <v>0.009368090874060602</v>
+        <v>0.008448226725745866</v>
       </c>
       <c r="I1634">
-        <v>0.133493027357094</v>
+        <v>0.2250697264290631</v>
       </c>
       <c r="J1634">
         <v>1.130139452858125</v>
       </c>
       <c r="K1634">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L1634">
-        <v>5.58</v>
+        <v>5.33</v>
       </c>
       <c r="M1634">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1634">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1634">
         <v>1</v>
@@ -83687,13 +83687,13 @@
     </row>
     <row r="1635" spans="1:16">
       <c r="A1635" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1635" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C1635">
-        <v>1.306703547825073</v>
+        <v>1.235813309525142</v>
       </c>
       <c r="D1635" t="s">
         <v>419</v>
@@ -83705,22 +83705,22 @@
         <v>1</v>
       </c>
       <c r="G1635">
-        <v>0.009353296452174927</v>
+        <v>0.009124186690474857</v>
       </c>
       <c r="H1635">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1635">
-        <v>0.2250697264290631</v>
+        <v>0.2959599647289943</v>
       </c>
       <c r="J1635">
         <v>1.130139452858125</v>
       </c>
       <c r="K1635">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="L1635">
-        <v>5.33</v>
+        <v>5.18</v>
       </c>
       <c r="M1635">
         <v>3.06</v>
@@ -83737,13 +83737,13 @@
     </row>
     <row r="1636" spans="1:16">
       <c r="A1636" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1636" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1636">
-        <v>1.235813309525142</v>
+        <v>1.284511914996561</v>
       </c>
       <c r="D1636" t="s">
         <v>419</v>
@@ -83755,22 +83755,22 @@
         <v>1</v>
       </c>
       <c r="G1636">
-        <v>0.009124186690474857</v>
+        <v>0.00919548808500344</v>
       </c>
       <c r="H1636">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1636">
-        <v>0.2959599647289943</v>
+        <v>0.2472613592575748</v>
       </c>
       <c r="J1636">
         <v>1.130139452858125</v>
       </c>
       <c r="K1636">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1636">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1636">
         <v>3.06</v>
@@ -83787,13 +83787,13 @@
     </row>
     <row r="1637" spans="1:16">
       <c r="A1637" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1637" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1637">
-        <v>1.284511914996561</v>
+        <v>1.28362167669663</v>
       </c>
       <c r="D1637" t="s">
         <v>419</v>
@@ -83805,22 +83805,22 @@
         <v>1</v>
       </c>
       <c r="G1637">
-        <v>0.00919548808500344</v>
+        <v>0.009036378323303371</v>
       </c>
       <c r="H1637">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1637">
-        <v>0.2472613592575748</v>
+        <v>0.2481515975575066</v>
       </c>
       <c r="J1637">
         <v>1.130139452858125</v>
       </c>
       <c r="K1637">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L1637">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
       <c r="M1637">
         <v>3.06</v>
@@ -83837,13 +83837,13 @@
     </row>
     <row r="1638" spans="1:16">
       <c r="A1638" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1638" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1638">
-        <v>1.28362167669663</v>
+        <v>1.302252356325417</v>
       </c>
       <c r="D1638" t="s">
         <v>419</v>
@@ -83855,22 +83855,22 @@
         <v>1</v>
       </c>
       <c r="G1638">
-        <v>0.009036378323303371</v>
+        <v>0.008557747643674583</v>
       </c>
       <c r="H1638">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1638">
-        <v>0.2481515975575066</v>
+        <v>0.2295209179287192</v>
       </c>
       <c r="J1638">
         <v>1.130139452858125</v>
       </c>
       <c r="K1638">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1638">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1638">
         <v>3.06</v>
@@ -83887,96 +83887,96 @@
     </row>
     <row r="1639" spans="1:16">
       <c r="A1639" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1639" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C1639">
-        <v>1.302252356325417</v>
+        <v>1.121405183498271</v>
       </c>
       <c r="D1639" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="E1639">
-        <v>1.531773274254136</v>
+        <v>1.333205254505096</v>
       </c>
       <c r="F1639">
         <v>1</v>
       </c>
       <c r="G1639">
-        <v>0.008557747643674583</v>
+        <v>0.00961859481650173</v>
       </c>
       <c r="H1639">
-        <v>0.008448226725745866</v>
+        <v>0.009946794745494904</v>
       </c>
       <c r="I1639">
-        <v>0.2295209179287192</v>
+        <v>0.2118000710068246</v>
       </c>
       <c r="J1639">
-        <v>1.130139452858125</v>
+        <v>1.163998579863488</v>
       </c>
       <c r="K1639">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="L1639">
-        <v>4.93</v>
+        <v>5.37</v>
       </c>
       <c r="M1639">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="N1639">
-        <v>4.99</v>
+        <v>5.64</v>
       </c>
       <c r="O1639">
         <v>1</v>
       </c>
       <c r="P1639" t="s">
-        <v>246</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1640" spans="1:16">
       <c r="A1640" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1640" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C1640">
-        <v>1.121405183498271</v>
+        <v>1.446165055685984</v>
       </c>
       <c r="D1640" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="E1640">
-        <v>1.333205254505096</v>
+        <v>1.297644956276429</v>
       </c>
       <c r="F1640">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1640">
-        <v>0.00961859481650173</v>
+        <v>0.009733834944314016</v>
       </c>
       <c r="H1640">
-        <v>0.009946794745494904</v>
+        <v>0.009422355043723572</v>
       </c>
       <c r="I1640">
-        <v>0.2118000710068246</v>
+        <v>0.1485200994095557</v>
       </c>
       <c r="J1640">
         <v>1.163998579863488</v>
       </c>
       <c r="K1640">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1640">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1640">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="N1640">
-        <v>5.64</v>
+        <v>5.36</v>
       </c>
       <c r="O1640">
         <v>1</v>
@@ -83987,46 +83987,46 @@
     </row>
     <row r="1641" spans="1:16">
       <c r="A1641" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1641" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1641">
-        <v>1.446165055685984</v>
+        <v>1.119124856866872</v>
       </c>
       <c r="D1641" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E1641">
-        <v>1.297644956276429</v>
+        <v>1.352564913672333</v>
       </c>
       <c r="F1641">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1641">
-        <v>0.009733834944314016</v>
+        <v>0.009080875143133127</v>
       </c>
       <c r="H1641">
-        <v>0.009422355043723572</v>
+        <v>0.009407435086327666</v>
       </c>
       <c r="I1641">
-        <v>0.1485200994095557</v>
+        <v>0.2334400568054611</v>
       </c>
       <c r="J1641">
         <v>1.163998579863488</v>
       </c>
       <c r="K1641">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1641">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1641">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1641">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1641">
         <v>1</v>
@@ -84037,13 +84037,13 @@
     </row>
     <row r="1642" spans="1:16">
       <c r="A1642" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1642" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1642">
-        <v>1.119124856866872</v>
+        <v>1.170764842665507</v>
       </c>
       <c r="D1642" t="s">
         <v>417</v>
@@ -84055,22 +84055,22 @@
         <v>1</v>
       </c>
       <c r="G1642">
-        <v>0.009080875143133127</v>
+        <v>0.009109235157334493</v>
       </c>
       <c r="H1642">
         <v>0.009407435086327666</v>
       </c>
       <c r="I1642">
-        <v>0.2334400568054611</v>
+        <v>0.1818000710068266</v>
       </c>
       <c r="J1642">
         <v>1.163998579863488</v>
       </c>
       <c r="K1642">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1642">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1642">
         <v>3.46</v>
@@ -84087,46 +84087,46 @@
     </row>
     <row r="1643" spans="1:16">
       <c r="A1643" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1643" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1643">
-        <v>1.170764842665507</v>
+        <v>1.42452506988735</v>
       </c>
       <c r="D1643" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E1643">
-        <v>1.352564913672333</v>
+        <v>1.292724998880524</v>
       </c>
       <c r="F1643">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1643">
-        <v>0.009109235157334493</v>
+        <v>0.009735474930112651</v>
       </c>
       <c r="H1643">
-        <v>0.009407435086327666</v>
+        <v>0.009487275001119474</v>
       </c>
       <c r="I1643">
-        <v>0.1818000710068266</v>
+        <v>0.1318000710068263</v>
       </c>
       <c r="J1643">
         <v>1.163998579863488</v>
       </c>
       <c r="K1643">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1643">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1643">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1643">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1643">
         <v>1</v>
@@ -84137,46 +84137,46 @@
     </row>
     <row r="1644" spans="1:16">
       <c r="A1644" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1644" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C1644">
-        <v>1.42452506988735</v>
+        <v>1.186165055685985</v>
       </c>
       <c r="D1644" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E1644">
-        <v>1.292724998880524</v>
+        <v>1.428164345617728</v>
       </c>
       <c r="F1644">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1644">
-        <v>0.009735474930112651</v>
+        <v>0.009473834944314016</v>
       </c>
       <c r="H1644">
-        <v>0.009487275001119474</v>
+        <v>0.008551835654382271</v>
       </c>
       <c r="I1644">
-        <v>0.1318000710068263</v>
+        <v>0.2419992899317438</v>
       </c>
       <c r="J1644">
         <v>1.163998579863488</v>
       </c>
       <c r="K1644">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L1644">
-        <v>5.58</v>
+        <v>5.33</v>
       </c>
       <c r="M1644">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1644">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1644">
         <v>1</v>
@@ -84187,13 +84187,13 @@
     </row>
     <row r="1645" spans="1:16">
       <c r="A1645" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1645" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C1645">
-        <v>1.186165055685985</v>
+        <v>1.117644956276428</v>
       </c>
       <c r="D1645" t="s">
         <v>419</v>
@@ -84205,22 +84205,22 @@
         <v>1</v>
       </c>
       <c r="G1645">
-        <v>0.009473834944314016</v>
+        <v>0.009242355043723571</v>
       </c>
       <c r="H1645">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1645">
-        <v>0.2419992899317438</v>
+        <v>0.3105193893413003</v>
       </c>
       <c r="J1645">
         <v>1.163998579863488</v>
       </c>
       <c r="K1645">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="L1645">
-        <v>5.33</v>
+        <v>5.18</v>
       </c>
       <c r="M1645">
         <v>3.06</v>
@@ -84237,13 +84237,13 @@
     </row>
     <row r="1646" spans="1:16">
       <c r="A1646" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1646" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1646">
-        <v>1.117644956276428</v>
+        <v>1.166004970477794</v>
       </c>
       <c r="D1646" t="s">
         <v>419</v>
@@ -84255,22 +84255,22 @@
         <v>1</v>
       </c>
       <c r="G1646">
-        <v>0.009242355043723571</v>
+        <v>0.009313995029522208</v>
       </c>
       <c r="H1646">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1646">
-        <v>0.3105193893413003</v>
+        <v>0.2621593751399343</v>
       </c>
       <c r="J1646">
         <v>1.163998579863488</v>
       </c>
       <c r="K1646">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1646">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1646">
         <v>3.06</v>
@@ -84287,13 +84287,13 @@
     </row>
     <row r="1647" spans="1:16">
       <c r="A1647" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1647" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1647">
-        <v>1.166004970477794</v>
+        <v>1.167484871068238</v>
       </c>
       <c r="D1647" t="s">
         <v>419</v>
@@ -84305,22 +84305,22 @@
         <v>1</v>
       </c>
       <c r="G1647">
-        <v>0.009313995029522208</v>
+        <v>0.009152515128931763</v>
       </c>
       <c r="H1647">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1647">
-        <v>0.2621593751399343</v>
+        <v>0.2606794745494909</v>
       </c>
       <c r="J1647">
         <v>1.163998579863488</v>
       </c>
       <c r="K1647">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L1647">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
       <c r="M1647">
         <v>3.06</v>
@@ -84337,13 +84337,13 @@
     </row>
     <row r="1648" spans="1:16">
       <c r="A1648" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1648" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C1648">
-        <v>1.167484871068238</v>
+        <v>1.193564558638205</v>
       </c>
       <c r="D1648" t="s">
         <v>419</v>
@@ -84355,22 +84355,22 @@
         <v>1</v>
       </c>
       <c r="G1648">
-        <v>0.009152515128931763</v>
+        <v>0.008666435441361794</v>
       </c>
       <c r="H1648">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1648">
-        <v>0.2606794745494909</v>
+        <v>0.2345997869795236</v>
       </c>
       <c r="J1648">
         <v>1.163998579863488</v>
       </c>
       <c r="K1648">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1648">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1648">
         <v>3.06</v>
@@ -84387,96 +84387,96 @@
     </row>
     <row r="1649" spans="1:16">
       <c r="A1649" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1649" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1649">
-        <v>1.193564558638205</v>
+        <v>1.284389949876279</v>
       </c>
       <c r="D1649" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E1649">
-        <v>1.428164345617728</v>
+        <v>1.139050821648374</v>
       </c>
       <c r="F1649">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1649">
-        <v>0.008666435441361794</v>
+        <v>0.009895610050123722</v>
       </c>
       <c r="H1649">
-        <v>0.008551835654382271</v>
+        <v>0.009580949178351627</v>
       </c>
       <c r="I1649">
-        <v>0.2345997869795236</v>
+        <v>0.1453391282279046</v>
       </c>
       <c r="J1649">
-        <v>1.163998579863488</v>
+        <v>1.209441025315652</v>
       </c>
       <c r="K1649">
-        <v>3.21</v>
+        <v>3.56</v>
       </c>
       <c r="L1649">
-        <v>4.93</v>
+        <v>5.59</v>
       </c>
       <c r="M1649">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="N1649">
-        <v>4.99</v>
+        <v>5.36</v>
       </c>
       <c r="O1649">
         <v>1</v>
       </c>
       <c r="P1649" t="s">
-        <v>536</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1650" spans="1:16">
       <c r="A1650" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1650" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1650">
-        <v>1.284389949876279</v>
+        <v>0.9637116934204695</v>
       </c>
       <c r="D1650" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E1650">
-        <v>1.139050821648374</v>
+        <v>1.195334052407844</v>
       </c>
       <c r="F1650">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1650">
-        <v>0.009895610050123722</v>
+        <v>0.00923628830657953</v>
       </c>
       <c r="H1650">
-        <v>0.009580949178351627</v>
+        <v>0.009564665947592156</v>
       </c>
       <c r="I1650">
-        <v>0.1453391282279046</v>
+        <v>0.2316223589873747</v>
       </c>
       <c r="J1650">
         <v>1.209441025315652</v>
       </c>
       <c r="K1650">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1650">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1650">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1650">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1650">
         <v>1</v>
@@ -84487,13 +84487,13 @@
     </row>
     <row r="1651" spans="1:16">
       <c r="A1651" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1651" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1651">
-        <v>0.9637116934204695</v>
+        <v>1.015806103673627</v>
       </c>
       <c r="D1651" t="s">
         <v>417</v>
@@ -84505,22 +84505,22 @@
         <v>1</v>
       </c>
       <c r="G1651">
-        <v>0.00923628830657953</v>
+        <v>0.009264193896326373</v>
       </c>
       <c r="H1651">
         <v>0.009564665947592156</v>
       </c>
       <c r="I1651">
-        <v>0.2316223589873747</v>
+        <v>0.1795279487342176</v>
       </c>
       <c r="J1651">
         <v>1.209441025315652</v>
       </c>
       <c r="K1651">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1651">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1651">
         <v>3.46</v>
@@ -84537,46 +84537,46 @@
     </row>
     <row r="1652" spans="1:16">
       <c r="A1652" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1652" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1652">
-        <v>1.015806103673627</v>
+        <v>1.262295539623123</v>
       </c>
       <c r="D1652" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E1652">
-        <v>1.195334052407844</v>
+        <v>1.132767590888904</v>
       </c>
       <c r="F1652">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1652">
-        <v>0.009264193896326373</v>
+        <v>0.009897704460376877</v>
       </c>
       <c r="H1652">
-        <v>0.009564665947592156</v>
+        <v>0.009647232409111094</v>
       </c>
       <c r="I1652">
-        <v>0.1795279487342176</v>
+        <v>0.1295279487342187</v>
       </c>
       <c r="J1652">
         <v>1.209441025315652</v>
       </c>
       <c r="K1652">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1652">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1652">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1652">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1652">
         <v>1</v>
@@ -84587,46 +84587,46 @@
     </row>
     <row r="1653" spans="1:16">
       <c r="A1653" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1653" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C1653">
-        <v>1.262295539623123</v>
+        <v>1.024389949876279</v>
       </c>
       <c r="D1653" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E1653">
-        <v>1.132767590888904</v>
+        <v>1.289110462534105</v>
       </c>
       <c r="F1653">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1653">
-        <v>0.009897704460376877</v>
+        <v>0.00963561005012372</v>
       </c>
       <c r="H1653">
-        <v>0.009647232409111094</v>
+        <v>0.008690889537465897</v>
       </c>
       <c r="I1653">
-        <v>0.1295279487342187</v>
+        <v>0.264720512657826</v>
       </c>
       <c r="J1653">
         <v>1.209441025315652</v>
       </c>
       <c r="K1653">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L1653">
-        <v>5.58</v>
+        <v>5.33</v>
       </c>
       <c r="M1653">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1653">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1653">
         <v>1</v>
@@ -84637,13 +84637,13 @@
     </row>
     <row r="1654" spans="1:16">
       <c r="A1654" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1654" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C1654">
-        <v>1.024389949876279</v>
+        <v>0.9590508216483737</v>
       </c>
       <c r="D1654" t="s">
         <v>419</v>
@@ -84655,22 +84655,22 @@
         <v>1</v>
       </c>
       <c r="G1654">
-        <v>0.00963561005012372</v>
+        <v>0.009400949178351626</v>
       </c>
       <c r="H1654">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1654">
-        <v>0.264720512657826</v>
+        <v>0.3300596408857315</v>
       </c>
       <c r="J1654">
         <v>1.209441025315652</v>
       </c>
       <c r="K1654">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="L1654">
-        <v>5.33</v>
+        <v>5.18</v>
       </c>
       <c r="M1654">
         <v>3.06</v>
@@ -84687,13 +84687,13 @@
     </row>
     <row r="1655" spans="1:16">
       <c r="A1655" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1655" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1655">
-        <v>0.9590508216483737</v>
+        <v>1.006956411395218</v>
       </c>
       <c r="D1655" t="s">
         <v>419</v>
@@ -84705,22 +84705,22 @@
         <v>1</v>
       </c>
       <c r="G1655">
-        <v>0.009400949178351626</v>
+        <v>0.009473043588604782</v>
       </c>
       <c r="H1655">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1655">
-        <v>0.3300596408857315</v>
+        <v>0.2821540511388871</v>
       </c>
       <c r="J1655">
         <v>1.209441025315652</v>
       </c>
       <c r="K1655">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1655">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1655">
         <v>3.06</v>
@@ -84737,13 +84737,13 @@
     </row>
     <row r="1656" spans="1:16">
       <c r="A1656" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1656" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C1656">
-        <v>1.006956411395218</v>
+        <v>1.045334052407845</v>
       </c>
       <c r="D1656" t="s">
         <v>419</v>
@@ -84755,22 +84755,22 @@
         <v>1</v>
       </c>
       <c r="G1656">
-        <v>0.009473043588604782</v>
+        <v>0.009414665947592155</v>
       </c>
       <c r="H1656">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1656">
-        <v>0.2821540511388871</v>
+        <v>0.2437764101262605</v>
       </c>
       <c r="J1656">
         <v>1.209441025315652</v>
       </c>
       <c r="K1656">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="L1656">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="M1656">
         <v>3.06</v>
@@ -84787,13 +84787,13 @@
     </row>
     <row r="1657" spans="1:16">
       <c r="A1657" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1657" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C1657">
-        <v>1.045334052407845</v>
+        <v>1.047694308736757</v>
       </c>
       <c r="D1657" t="s">
         <v>419</v>
@@ -84805,22 +84805,22 @@
         <v>1</v>
       </c>
       <c r="G1657">
-        <v>0.009414665947592155</v>
+        <v>0.008812305691263242</v>
       </c>
       <c r="H1657">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1657">
-        <v>0.2437764101262605</v>
+        <v>0.2414161537973483</v>
       </c>
       <c r="J1657">
         <v>1.209441025315652</v>
       </c>
       <c r="K1657">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="L1657">
-        <v>5.23</v>
+        <v>4.93</v>
       </c>
       <c r="M1657">
         <v>3.06</v>
@@ -84832,56 +84832,6 @@
         <v>1</v>
       </c>
       <c r="P1657" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:16">
-      <c r="A1658" s="1">
-        <v>8</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1658">
-        <v>1.047694308736757</v>
-      </c>
-      <c r="D1658" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1658">
-        <v>1.289110462534105</v>
-      </c>
-      <c r="F1658">
-        <v>1</v>
-      </c>
-      <c r="G1658">
-        <v>0.008812305691263242</v>
-      </c>
-      <c r="H1658">
-        <v>0.008690889537465897</v>
-      </c>
-      <c r="I1658">
-        <v>0.2414161537973483</v>
-      </c>
-      <c r="J1658">
-        <v>1.209441025315652</v>
-      </c>
-      <c r="K1658">
-        <v>3.21</v>
-      </c>
-      <c r="L1658">
-        <v>4.93</v>
-      </c>
-      <c r="M1658">
-        <v>3.06</v>
-      </c>
-      <c r="N1658">
-        <v>4.99</v>
-      </c>
-      <c r="O1658">
-        <v>1</v>
-      </c>
-      <c r="P1658" t="s">
         <v>231</v>
       </c>
     </row>

--- a/s60_signal/position-00670-600115.xlsx
+++ b/s60_signal/position-00670-600115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="539">
   <si>
     <t>trade_time</t>
   </si>
@@ -1270,7 +1270,7 @@
     <t>2021-04-30</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-05-17</t>
@@ -1282,10 +1282,10 @@
     <t>2021-04-09</t>
   </si>
   <si>
-    <t>2021-04-28</t>
+    <t>2021-06-01</t>
   </si>
   <si>
-    <t>2021-06-01</t>
+    <t>2021-04-28</t>
   </si>
   <si>
     <t>2016-08-24</t>
@@ -1988,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1667"/>
+  <dimension ref="A1:P1666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79855,7 +79855,7 @@
         <v>418</v>
       </c>
       <c r="E1558">
-        <v>2.596116026755233</v>
+        <v>2.709057542011032</v>
       </c>
       <c r="F1558">
         <v>1</v>
@@ -79864,10 +79864,10 @@
         <v>0.007219471700361068</v>
       </c>
       <c r="H1558">
-        <v>0.007003883973244767</v>
+        <v>0.007230942457988968</v>
       </c>
       <c r="I1558">
-        <v>-0.0444122728836982</v>
+        <v>0.0685292423721009</v>
       </c>
       <c r="J1558">
         <v>0.7132310593025135</v>
@@ -79879,10 +79879,10 @@
         <v>4.93</v>
       </c>
       <c r="M1558">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1558">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1558">
         <v>1</v>
@@ -79905,7 +79905,7 @@
         <v>418</v>
       </c>
       <c r="E1559">
-        <v>2.596116026755233</v>
+        <v>2.709057542011032</v>
       </c>
       <c r="F1559">
         <v>1</v>
@@ -79914,10 +79914,10 @@
         <v>0.006996751662651741</v>
       </c>
       <c r="H1559">
-        <v>0.007003883973244767</v>
+        <v>0.007230942457988968</v>
       </c>
       <c r="I1559">
-        <v>-0.007132310593024993</v>
+        <v>0.1058092046627741</v>
       </c>
       <c r="J1559">
         <v>0.7132310593025135</v>
@@ -79929,10 +79929,10 @@
         <v>4.8</v>
       </c>
       <c r="M1559">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1559">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1559">
         <v>1</v>
@@ -79955,7 +79955,7 @@
         <v>418</v>
       </c>
       <c r="E1560">
-        <v>2.596116026755233</v>
+        <v>2.709057542011032</v>
       </c>
       <c r="F1560">
         <v>1</v>
@@ -79964,10 +79964,10 @@
         <v>0.006998148594430817</v>
       </c>
       <c r="H1560">
-        <v>0.007003883973244767</v>
+        <v>0.007230942457988968</v>
       </c>
       <c r="I1560">
-        <v>0.03426462118604956</v>
+        <v>0.1472061364418487</v>
       </c>
       <c r="J1560">
         <v>0.7132310593025135</v>
@@ -79979,10 +79979,10 @@
         <v>4.78</v>
       </c>
       <c r="M1560">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1560">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1560">
         <v>1</v>
@@ -80355,7 +80355,7 @@
         <v>418</v>
       </c>
       <c r="E1568">
-        <v>2.131117727566172</v>
+        <v>2.232020451904455</v>
       </c>
       <c r="F1568">
         <v>1</v>
@@ -80364,10 +80364,10 @@
         <v>0.007460245112976114</v>
       </c>
       <c r="H1568">
-        <v>0.007468882272433828</v>
+        <v>0.007707979548095545</v>
       </c>
       <c r="I1568">
-        <v>-0.008637159457714372</v>
+        <v>0.09226556488056836</v>
       </c>
       <c r="J1568">
         <v>0.8637159457714654</v>
@@ -80379,10 +80379,10 @@
         <v>4.8</v>
       </c>
       <c r="M1568">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1568">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1568">
         <v>1</v>
@@ -80405,7 +80405,7 @@
         <v>418</v>
       </c>
       <c r="E1569">
-        <v>2.131117727566172</v>
+        <v>2.232020451904455</v>
       </c>
       <c r="F1569">
         <v>1</v>
@@ -80414,10 +80414,10 @@
         <v>0.007466156591349258</v>
       </c>
       <c r="H1569">
-        <v>0.007468882272433828</v>
+        <v>0.007707979548095545</v>
       </c>
       <c r="I1569">
-        <v>0.03727431891542876</v>
+        <v>0.1381770432537115</v>
       </c>
       <c r="J1569">
         <v>0.8637159457714654</v>
@@ -80429,10 +80429,10 @@
         <v>4.78</v>
       </c>
       <c r="M1569">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1569">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1569">
         <v>1</v>
@@ -80805,7 +80805,7 @@
         <v>418</v>
       </c>
       <c r="E1577">
-        <v>2.008461899452755</v>
+        <v>2.106189068370625</v>
       </c>
       <c r="F1577">
         <v>1</v>
@@ -80814,10 +80814,10 @@
         <v>0.007582503996661979</v>
       </c>
       <c r="H1577">
-        <v>0.007591538100547245</v>
+        <v>0.007833810931629374</v>
       </c>
       <c r="I1577">
-        <v>-0.009034103885265932</v>
+        <v>0.08869306503260432</v>
       </c>
       <c r="J1577">
         <v>0.9034103885266167</v>
@@ -80829,10 +80829,10 @@
         <v>4.8</v>
       </c>
       <c r="M1577">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1577">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1577">
         <v>1</v>
@@ -80855,7 +80855,7 @@
         <v>418</v>
       </c>
       <c r="E1578">
-        <v>2.008461899452755</v>
+        <v>2.106189068370625</v>
       </c>
       <c r="F1578">
         <v>1</v>
@@ -80864,10 +80864,10 @@
         <v>0.007589606308317778</v>
       </c>
       <c r="H1578">
-        <v>0.007591538100547245</v>
+        <v>0.007833810931629374</v>
       </c>
       <c r="I1578">
-        <v>0.03806820777053233</v>
+        <v>0.1357953766884026</v>
       </c>
       <c r="J1578">
         <v>0.9034103885266167</v>
@@ -80879,10 +80879,10 @@
         <v>4.78</v>
       </c>
       <c r="M1578">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1578">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1578">
         <v>1</v>
@@ -81305,7 +81305,7 @@
         <v>418</v>
       </c>
       <c r="E1587">
-        <v>1.919186205487978</v>
+        <v>2.014602029578282</v>
       </c>
       <c r="F1587">
         <v>1</v>
@@ -81314,10 +81314,10 @@
         <v>0.00767149077252331</v>
       </c>
       <c r="H1587">
-        <v>0.007680813794512021</v>
+        <v>0.007925397970421719</v>
       </c>
       <c r="I1587">
-        <v>-0.009323021988711933</v>
+        <v>0.08609280210159165</v>
       </c>
       <c r="J1587">
         <v>0.9323021988712045</v>
@@ -81329,10 +81329,10 @@
         <v>4.8</v>
       </c>
       <c r="M1587">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1587">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1587">
         <v>1</v>
@@ -81355,7 +81355,7 @@
         <v>418</v>
       </c>
       <c r="E1588">
-        <v>1.919186205487978</v>
+        <v>2.014602029578282</v>
       </c>
       <c r="F1588">
         <v>1</v>
@@ -81364,10 +81364,10 @@
         <v>0.007679459838489447</v>
       </c>
       <c r="H1588">
-        <v>0.007680813794512021</v>
+        <v>0.007925397970421719</v>
       </c>
       <c r="I1588">
-        <v>0.03864604397742344</v>
+        <v>0.134061868067727</v>
       </c>
       <c r="J1588">
         <v>0.9323021988712045</v>
@@ -81379,10 +81379,10 @@
         <v>4.78</v>
       </c>
       <c r="M1588">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1588">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1588">
         <v>1</v>
@@ -81846,10 +81846,10 @@
         <v>9</v>
       </c>
       <c r="B1598" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1598">
-        <v>1.86564546487347</v>
+        <v>1.846945172665842</v>
       </c>
       <c r="D1598" t="s">
         <v>420</v>
@@ -81861,22 +81861,22 @@
         <v>1</v>
       </c>
       <c r="G1598">
-        <v>0.008454354535126531</v>
+        <v>0.008013054827334156</v>
       </c>
       <c r="H1598">
         <v>0.007928986844748449</v>
       </c>
       <c r="I1598">
-        <v>0.1853676903780808</v>
+        <v>0.2040679825857086</v>
       </c>
       <c r="J1598">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1598">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1598">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1598">
         <v>3.06</v>
@@ -81896,43 +81896,43 @@
         <v>10</v>
       </c>
       <c r="B1599" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1599">
-        <v>1.846945172665842</v>
+        <v>1.841804090906789</v>
       </c>
       <c r="D1599" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1599">
-        <v>2.051013155251551</v>
+        <v>1.925363301355365</v>
       </c>
       <c r="F1599">
         <v>1</v>
       </c>
       <c r="G1599">
-        <v>0.008013054827334156</v>
+        <v>0.00775819590909321</v>
       </c>
       <c r="H1599">
-        <v>0.007928986844748449</v>
+        <v>0.008014636698644636</v>
       </c>
       <c r="I1599">
-        <v>0.2040679825857086</v>
+        <v>0.08355921044857517</v>
       </c>
       <c r="J1599">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1599">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="L1599">
-        <v>4.93</v>
+        <v>4.8</v>
       </c>
       <c r="M1599">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1599">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1599">
         <v>1</v>
@@ -81946,43 +81946,43 @@
         <v>11</v>
       </c>
       <c r="B1600" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C1600">
-        <v>1.841804090906789</v>
+        <v>1.792990494389648</v>
       </c>
       <c r="D1600" t="s">
         <v>418</v>
       </c>
       <c r="E1600">
-        <v>1.832199558734409</v>
+        <v>1.925363301355365</v>
       </c>
       <c r="F1600">
         <v>1</v>
       </c>
       <c r="G1600">
-        <v>0.00775819590909321</v>
+        <v>0.007767009505610351</v>
       </c>
       <c r="H1600">
-        <v>0.007767800441265591</v>
+        <v>0.008014636698644636</v>
       </c>
       <c r="I1600">
-        <v>-0.009604532172380331</v>
+        <v>0.1323728069657162</v>
       </c>
       <c r="J1600">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1600">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="L1600">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="M1600">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="N1600">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="O1600">
         <v>1</v>
@@ -81993,93 +81993,93 @@
     </row>
     <row r="1601" spans="1:16">
       <c r="A1601" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1601" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1601">
-        <v>1.792990494389648</v>
+        <v>1.676370302057997</v>
       </c>
       <c r="D1601" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="E1601">
-        <v>1.832199558734409</v>
+        <v>1.996883057931346</v>
       </c>
       <c r="F1601">
         <v>1</v>
       </c>
       <c r="G1601">
-        <v>0.007767009505610351</v>
+        <v>0.008823629697942004</v>
       </c>
       <c r="H1601">
-        <v>0.007767800441265591</v>
+        <v>0.009283116942068651</v>
       </c>
       <c r="I1601">
-        <v>0.03920906434476068</v>
+        <v>0.3205127558733496</v>
       </c>
       <c r="J1601">
-        <v>0.9604532172380553</v>
+        <v>0.9926749160950009</v>
       </c>
       <c r="K1601">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="L1601">
-        <v>4.78</v>
+        <v>5.25</v>
       </c>
       <c r="M1601">
-        <v>3.09</v>
+        <v>3.67</v>
       </c>
       <c r="N1601">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="O1601">
         <v>1</v>
       </c>
       <c r="P1601" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1602" spans="1:16">
       <c r="A1602" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1602" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C1602">
-        <v>1.676370302057997</v>
+        <v>1.746736556253247</v>
       </c>
       <c r="D1602" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1602">
-        <v>1.996883057931346</v>
+        <v>1.967102810448496</v>
       </c>
       <c r="F1602">
         <v>1</v>
       </c>
       <c r="G1602">
-        <v>0.008823629697942004</v>
+        <v>0.008993263443746754</v>
       </c>
       <c r="H1602">
-        <v>0.009283116942068651</v>
+        <v>0.009312897189551504</v>
       </c>
       <c r="I1602">
-        <v>0.3205127558733496</v>
+        <v>0.2203662541952491</v>
       </c>
       <c r="J1602">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1602">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L1602">
-        <v>5.25</v>
+        <v>5.37</v>
       </c>
       <c r="M1602">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="N1602">
         <v>5.64</v>
@@ -82093,46 +82093,46 @@
     </row>
     <row r="1603" spans="1:16">
       <c r="A1603" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1603" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C1603">
-        <v>1.746736556253247</v>
+        <v>2.017395813804697</v>
       </c>
       <c r="D1603" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="E1603">
-        <v>1.967102810448496</v>
+        <v>1.834978536116047</v>
       </c>
       <c r="F1603">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1603">
-        <v>0.008993263443746754</v>
+        <v>0.009442604186195304</v>
       </c>
       <c r="H1603">
-        <v>0.009312897189551504</v>
+        <v>0.008605021463883953</v>
       </c>
       <c r="I1603">
-        <v>0.2203662541952491</v>
+        <v>0.1824172776886503</v>
       </c>
       <c r="J1603">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1603">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="L1603">
-        <v>5.37</v>
+        <v>5.73</v>
       </c>
       <c r="M1603">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="N1603">
-        <v>5.64</v>
+        <v>5.22</v>
       </c>
       <c r="O1603">
         <v>1</v>
@@ -82143,13 +82143,13 @@
     </row>
     <row r="1604" spans="1:16">
       <c r="A1604" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1604" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C1604">
-        <v>2.017395813804697</v>
+        <v>2.056077298701796</v>
       </c>
       <c r="D1604" t="s">
         <v>417</v>
@@ -82161,22 +82161,22 @@
         <v>-1</v>
       </c>
       <c r="G1604">
-        <v>0.009442604186195304</v>
+        <v>0.009123922701298205</v>
       </c>
       <c r="H1604">
         <v>0.008605021463883953</v>
       </c>
       <c r="I1604">
-        <v>0.1824172776886503</v>
+        <v>0.2210987625857497</v>
       </c>
       <c r="J1604">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1604">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="L1604">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="M1604">
         <v>3.41</v>
@@ -82193,46 +82193,46 @@
     </row>
     <row r="1605" spans="1:16">
       <c r="A1605" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1605" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1605">
-        <v>2.056077298701796</v>
+        <v>1.705051786955097</v>
       </c>
       <c r="D1605" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E1605">
-        <v>1.834978536116047</v>
+        <v>1.945344790311297</v>
       </c>
       <c r="F1605">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1605">
-        <v>0.009123922701298205</v>
+        <v>0.008494948213044903</v>
       </c>
       <c r="H1605">
-        <v>0.008605021463883953</v>
+        <v>0.008814655209688702</v>
       </c>
       <c r="I1605">
-        <v>0.2210987625857497</v>
+        <v>0.2402930033562001</v>
       </c>
       <c r="J1605">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1605">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1605">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1605">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1605">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1605">
         <v>1</v>
@@ -82243,13 +82243,13 @@
     </row>
     <row r="1606" spans="1:16">
       <c r="A1606" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1606" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1606">
-        <v>1.705051786955097</v>
+        <v>1.754978536116047</v>
       </c>
       <c r="D1606" t="s">
         <v>419</v>
@@ -82261,22 +82261,22 @@
         <v>1</v>
       </c>
       <c r="G1606">
-        <v>0.008494948213044903</v>
+        <v>0.008525021463883953</v>
       </c>
       <c r="H1606">
         <v>0.008814655209688702</v>
       </c>
       <c r="I1606">
-        <v>0.2402930033562001</v>
+        <v>0.1903662541952502</v>
       </c>
       <c r="J1606">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1606">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1606">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1606">
         <v>3.46</v>
@@ -82293,46 +82293,46 @@
     </row>
     <row r="1607" spans="1:16">
       <c r="A1607" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1607" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1607">
-        <v>1.754978536116047</v>
+        <v>2.036150549540847</v>
       </c>
       <c r="D1607" t="s">
-        <v>419</v>
+        <v>248</v>
       </c>
       <c r="E1607">
-        <v>1.945344790311297</v>
+        <v>1.796077298701797</v>
       </c>
       <c r="F1607">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1607">
-        <v>0.008525021463883953</v>
+        <v>0.009123849450459152</v>
       </c>
       <c r="H1607">
-        <v>0.008814655209688702</v>
+        <v>0.008863922701298205</v>
       </c>
       <c r="I1607">
-        <v>0.1903662541952502</v>
+        <v>0.2400732508390506</v>
       </c>
       <c r="J1607">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1607">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1607">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1607">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1607">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1607">
         <v>1</v>
@@ -82343,46 +82343,46 @@
     </row>
     <row r="1608" spans="1:16">
       <c r="A1608" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1608" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C1608">
-        <v>2.036150549540847</v>
+        <v>1.715564542828446</v>
       </c>
       <c r="D1608" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="E1608">
-        <v>1.796077298701797</v>
+        <v>1.952414756749298</v>
       </c>
       <c r="F1608">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1608">
-        <v>0.009123849450459152</v>
+        <v>0.008644435457171553</v>
       </c>
       <c r="H1608">
-        <v>0.008863922701298205</v>
+        <v>0.008027585243250703</v>
       </c>
       <c r="I1608">
-        <v>0.2400732508390506</v>
+        <v>0.2368502139208513</v>
       </c>
       <c r="J1608">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1608">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1608">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1608">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="N1608">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="O1608">
         <v>1</v>
@@ -82393,13 +82393,13 @@
     </row>
     <row r="1609" spans="1:16">
       <c r="A1609" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1609" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1609">
-        <v>1.715564542828446</v>
+        <v>1.744758783598896</v>
       </c>
       <c r="D1609" t="s">
         <v>420</v>
@@ -82411,22 +82411,22 @@
         <v>1</v>
       </c>
       <c r="G1609">
-        <v>0.008644435457171553</v>
+        <v>0.008455241216401102</v>
       </c>
       <c r="H1609">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1609">
-        <v>0.2368502139208513</v>
+        <v>0.2076559731504011</v>
       </c>
       <c r="J1609">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1609">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="L1609">
-        <v>5.18</v>
+        <v>5.1</v>
       </c>
       <c r="M1609">
         <v>3.06</v>
@@ -82443,13 +82443,13 @@
     </row>
     <row r="1610" spans="1:16">
       <c r="A1610" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1610" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C1610">
-        <v>1.744758783598896</v>
+        <v>1.755125037794147</v>
       </c>
       <c r="D1610" t="s">
         <v>420</v>
@@ -82461,22 +82461,22 @@
         <v>1</v>
       </c>
       <c r="G1610">
-        <v>0.008455241216401102</v>
+        <v>0.008564874962205853</v>
       </c>
       <c r="H1610">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1610">
-        <v>0.2076559731504011</v>
+        <v>0.1972897189551506</v>
       </c>
       <c r="J1610">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1610">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1610">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1610">
         <v>3.06</v>
@@ -82493,13 +82493,13 @@
     </row>
     <row r="1611" spans="1:16">
       <c r="A1611" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1611" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1611">
-        <v>1.755125037794147</v>
+        <v>1.743513519335047</v>
       </c>
       <c r="D1611" t="s">
         <v>420</v>
@@ -82511,22 +82511,22 @@
         <v>1</v>
       </c>
       <c r="G1611">
-        <v>0.008564874962205853</v>
+        <v>0.008116486480664953</v>
       </c>
       <c r="H1611">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1611">
-        <v>0.1972897189551506</v>
+        <v>0.2089012374142509</v>
       </c>
       <c r="J1611">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1611">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1611">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1611">
         <v>3.06</v>
@@ -82543,46 +82543,46 @@
     </row>
     <row r="1612" spans="1:16">
       <c r="A1612" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1612" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1612">
-        <v>1.743513519335047</v>
+        <v>1.692781010944548</v>
       </c>
       <c r="D1612" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1612">
-        <v>1.952414756749298</v>
+        <v>1.823220515978847</v>
       </c>
       <c r="F1612">
         <v>1</v>
       </c>
       <c r="G1612">
-        <v>0.008116486480664953</v>
+        <v>0.007867218989055453</v>
       </c>
       <c r="H1612">
-        <v>0.008027585243250703</v>
+        <v>0.008116779484021154</v>
       </c>
       <c r="I1612">
-        <v>0.2089012374142509</v>
+        <v>0.1304395050342992</v>
       </c>
       <c r="J1612">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1612">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="L1612">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="M1612">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1612">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1612">
         <v>1</v>
@@ -82593,96 +82593,96 @@
     </row>
     <row r="1613" spans="1:16">
       <c r="A1613" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1613" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C1613">
-        <v>1.692781010944548</v>
+        <v>1.605356319289299</v>
       </c>
       <c r="D1613" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="E1613">
-        <v>1.732634509266447</v>
+        <v>1.823785857909699</v>
       </c>
       <c r="F1613">
         <v>1</v>
       </c>
       <c r="G1613">
-        <v>0.007867218989055453</v>
+        <v>0.009134643680710703</v>
       </c>
       <c r="H1613">
-        <v>0.007867365490733552</v>
+        <v>0.009456214142090301</v>
       </c>
       <c r="I1613">
-        <v>0.03985349832189966</v>
+        <v>0.2184295386204007</v>
       </c>
       <c r="J1613">
-        <v>0.9926749160950009</v>
+        <v>1.031409227591973</v>
       </c>
       <c r="K1613">
-        <v>3.11</v>
+        <v>3.65</v>
       </c>
       <c r="L1613">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="M1613">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="N1613">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="O1613">
         <v>1</v>
       </c>
       <c r="P1613" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1614" spans="1:16">
       <c r="A1614" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1614" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C1614">
-        <v>1.605356319289299</v>
+        <v>1.872529488806021</v>
       </c>
       <c r="D1614" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="E1614">
-        <v>1.823785857909699</v>
+        <v>1.744099950185619</v>
       </c>
       <c r="F1614">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1614">
-        <v>0.009134643680710703</v>
+        <v>0.00958747051119398</v>
       </c>
       <c r="H1614">
-        <v>0.009456214142090301</v>
+        <v>0.00935590004981438</v>
       </c>
       <c r="I1614">
-        <v>0.2184295386204007</v>
+        <v>0.1284295386204017</v>
       </c>
       <c r="J1614">
         <v>1.031409227591973</v>
       </c>
       <c r="K1614">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="L1614">
-        <v>5.37</v>
+        <v>5.73</v>
       </c>
       <c r="M1614">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="N1614">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="O1614">
         <v>1</v>
@@ -82693,46 +82693,46 @@
     </row>
     <row r="1615" spans="1:16">
       <c r="A1615" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1615" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C1615">
-        <v>1.872529488806021</v>
+        <v>1.918183149772576</v>
       </c>
       <c r="D1615" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E1615">
-        <v>1.744099950185619</v>
+        <v>1.702894533911371</v>
       </c>
       <c r="F1615">
         <v>-1</v>
       </c>
       <c r="G1615">
-        <v>0.00958747051119398</v>
+        <v>0.009261816850227424</v>
       </c>
       <c r="H1615">
-        <v>0.00935590004981438</v>
+        <v>0.00873710546608863</v>
       </c>
       <c r="I1615">
-        <v>0.1284295386204017</v>
+        <v>0.2152886158612044</v>
       </c>
       <c r="J1615">
         <v>1.031409227591973</v>
       </c>
       <c r="K1615">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="L1615">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="M1615">
-        <v>3.69</v>
+        <v>3.41</v>
       </c>
       <c r="N1615">
-        <v>5.55</v>
+        <v>5.22</v>
       </c>
       <c r="O1615">
         <v>1</v>
@@ -82743,46 +82743,46 @@
     </row>
     <row r="1616" spans="1:16">
       <c r="A1616" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1616" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1616">
-        <v>1.918183149772576</v>
+        <v>1.572580441635452</v>
       </c>
       <c r="D1616" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E1616">
-        <v>1.702894533911371</v>
+        <v>1.811324072531773</v>
       </c>
       <c r="F1616">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1616">
-        <v>0.009261816850227424</v>
+        <v>0.008627419558364548</v>
       </c>
       <c r="H1616">
-        <v>0.00873710546608863</v>
+        <v>0.008948675927468227</v>
       </c>
       <c r="I1616">
-        <v>0.2152886158612044</v>
+        <v>0.2387436308963213</v>
       </c>
       <c r="J1616">
         <v>1.031409227591973</v>
       </c>
       <c r="K1616">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1616">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1616">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1616">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1616">
         <v>1</v>
@@ -82793,13 +82793,13 @@
     </row>
     <row r="1617" spans="1:16">
       <c r="A1617" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1617" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1617">
-        <v>1.572580441635452</v>
+        <v>1.622894533911371</v>
       </c>
       <c r="D1617" t="s">
         <v>419</v>
@@ -82811,22 +82811,22 @@
         <v>1</v>
       </c>
       <c r="G1617">
-        <v>0.008627419558364548</v>
+        <v>0.00865710546608863</v>
       </c>
       <c r="H1617">
         <v>0.008948675927468227</v>
       </c>
       <c r="I1617">
-        <v>0.2387436308963213</v>
+        <v>0.1884295386204018</v>
       </c>
       <c r="J1617">
         <v>1.031409227591973</v>
       </c>
       <c r="K1617">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1617">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1617">
         <v>3.46</v>
@@ -82843,46 +82843,46 @@
     </row>
     <row r="1618" spans="1:16">
       <c r="A1618" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1618" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1618">
-        <v>1.622894533911371</v>
+        <v>1.897869057496656</v>
       </c>
       <c r="D1618" t="s">
-        <v>419</v>
+        <v>248</v>
       </c>
       <c r="E1618">
-        <v>1.811324072531773</v>
+        <v>1.658183149772576</v>
       </c>
       <c r="F1618">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1618">
-        <v>0.00865710546608863</v>
+        <v>0.009262130942503345</v>
       </c>
       <c r="H1618">
-        <v>0.008948675927468227</v>
+        <v>0.009001816850227424</v>
       </c>
       <c r="I1618">
-        <v>0.1884295386204018</v>
+        <v>0.2396859077240805</v>
       </c>
       <c r="J1618">
         <v>1.031409227591973</v>
       </c>
       <c r="K1618">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1618">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1618">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1618">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1618">
         <v>1</v>
@@ -82893,46 +82893,46 @@
     </row>
     <row r="1619" spans="1:16">
       <c r="A1619" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1619" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C1619">
-        <v>1.897869057496656</v>
+        <v>1.580381795704013</v>
       </c>
       <c r="D1619" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="E1619">
-        <v>1.658183149772576</v>
+        <v>1.833887763568562</v>
       </c>
       <c r="F1619">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1619">
-        <v>0.009262130942503345</v>
+        <v>0.008779618204295986</v>
       </c>
       <c r="H1619">
-        <v>0.009001816850227424</v>
+        <v>0.008146112236431439</v>
       </c>
       <c r="I1619">
-        <v>0.2396859077240805</v>
+        <v>0.253505967864549</v>
       </c>
       <c r="J1619">
         <v>1.031409227591973</v>
       </c>
       <c r="K1619">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1619">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1619">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="N1619">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="O1619">
         <v>1</v>
@@ -82943,13 +82943,13 @@
     </row>
     <row r="1620" spans="1:16">
       <c r="A1620" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1620" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1620">
-        <v>1.580381795704013</v>
+        <v>1.630067703428094</v>
       </c>
       <c r="D1620" t="s">
         <v>420</v>
@@ -82961,22 +82961,22 @@
         <v>1</v>
       </c>
       <c r="G1620">
-        <v>0.008779618204295986</v>
+        <v>0.008849932296571906</v>
       </c>
       <c r="H1620">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1620">
-        <v>0.253505967864549</v>
+        <v>0.2038200601404681</v>
       </c>
       <c r="J1620">
         <v>1.031409227591973</v>
       </c>
       <c r="K1620">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1620">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1620">
         <v>3.06</v>
@@ -82993,13 +82993,13 @@
     </row>
     <row r="1621" spans="1:16">
       <c r="A1621" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1621" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1621">
-        <v>1.630067703428094</v>
+        <v>1.613836810739131</v>
       </c>
       <c r="D1621" t="s">
         <v>420</v>
@@ -83011,22 +83011,22 @@
         <v>1</v>
       </c>
       <c r="G1621">
-        <v>0.008849932296571906</v>
+        <v>0.00858616318926087</v>
       </c>
       <c r="H1621">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1621">
-        <v>0.2038200601404681</v>
+        <v>0.2200509528294314</v>
       </c>
       <c r="J1621">
         <v>1.031409227591973</v>
       </c>
       <c r="K1621">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L1621">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="M1621">
         <v>3.06</v>
@@ -83043,13 +83043,13 @@
     </row>
     <row r="1622" spans="1:16">
       <c r="A1622" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1622" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C1622">
-        <v>1.613836810739131</v>
+        <v>1.622266349359532</v>
       </c>
       <c r="D1622" t="s">
         <v>420</v>
@@ -83061,22 +83061,22 @@
         <v>1</v>
       </c>
       <c r="G1622">
-        <v>0.00858616318926087</v>
+        <v>0.008697733650640469</v>
       </c>
       <c r="H1622">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1622">
-        <v>0.2200509528294314</v>
+        <v>0.2116214142090302</v>
       </c>
       <c r="J1622">
         <v>1.031409227591973</v>
       </c>
       <c r="K1622">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1622">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1622">
         <v>3.06</v>
@@ -83093,13 +83093,13 @@
     </row>
     <row r="1623" spans="1:16">
       <c r="A1623" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1623" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1623">
-        <v>1.622266349359532</v>
+        <v>1.619176379429766</v>
       </c>
       <c r="D1623" t="s">
         <v>420</v>
@@ -83111,22 +83111,22 @@
         <v>1</v>
       </c>
       <c r="G1623">
-        <v>0.008697733650640469</v>
+        <v>0.008240823620570232</v>
       </c>
       <c r="H1623">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1623">
-        <v>0.2116214142090302</v>
+        <v>0.2147113841387962</v>
       </c>
       <c r="J1623">
         <v>1.031409227591973</v>
       </c>
       <c r="K1623">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1623">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1623">
         <v>3.06</v>
@@ -83143,46 +83143,46 @@
     </row>
     <row r="1624" spans="1:16">
       <c r="A1624" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1624" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1624">
-        <v>1.619176379429766</v>
+        <v>1.572317302188964</v>
       </c>
       <c r="D1624" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1624">
-        <v>1.833887763568562</v>
+        <v>1.700432748533445</v>
       </c>
       <c r="F1624">
         <v>1</v>
       </c>
       <c r="G1624">
-        <v>0.008240823620570232</v>
+        <v>0.007987682697811038</v>
       </c>
       <c r="H1624">
-        <v>0.008146112236431439</v>
+        <v>0.008239567251466554</v>
       </c>
       <c r="I1624">
-        <v>0.2147113841387962</v>
+        <v>0.1281154463444811</v>
       </c>
       <c r="J1624">
         <v>1.031409227591973</v>
       </c>
       <c r="K1624">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="L1624">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="M1624">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1624">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1624">
         <v>1</v>
@@ -83193,96 +83193,96 @@
     </row>
     <row r="1625" spans="1:16">
       <c r="A1625" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1625" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C1625">
-        <v>1.572317302188964</v>
+        <v>1.516085437608808</v>
       </c>
       <c r="D1625" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="E1625">
-        <v>1.612945486740803</v>
+        <v>1.733292087439065</v>
       </c>
       <c r="F1625">
         <v>1</v>
       </c>
       <c r="G1625">
-        <v>0.007987682697811038</v>
+        <v>0.009223914562391192</v>
       </c>
       <c r="H1625">
-        <v>0.007987054513259196</v>
+        <v>0.009546707912560935</v>
       </c>
       <c r="I1625">
-        <v>0.04062818455183903</v>
+        <v>0.2172066498302567</v>
       </c>
       <c r="J1625">
-        <v>1.031409227591973</v>
+        <v>1.055867003394847</v>
       </c>
       <c r="K1625">
-        <v>3.11</v>
+        <v>3.65</v>
       </c>
       <c r="L1625">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="M1625">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="N1625">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="O1625">
         <v>1</v>
       </c>
       <c r="P1625" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1626" spans="1:16">
       <c r="A1626" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1626" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1626">
-        <v>1.516085437608808</v>
+        <v>1.831113467914344</v>
       </c>
       <c r="D1626" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="E1626">
-        <v>1.733292087439065</v>
+        <v>1.619493518423571</v>
       </c>
       <c r="F1626">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1626">
-        <v>0.009223914562391192</v>
+        <v>0.009348886532085656</v>
       </c>
       <c r="H1626">
-        <v>0.009546707912560935</v>
+        <v>0.008820506481576429</v>
       </c>
       <c r="I1626">
-        <v>0.2172066498302567</v>
+        <v>0.2116199494907733</v>
       </c>
       <c r="J1626">
         <v>1.055867003394847</v>
       </c>
       <c r="K1626">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1626">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1626">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="N1626">
-        <v>5.64</v>
+        <v>5.22</v>
       </c>
       <c r="O1626">
         <v>1</v>
@@ -83293,46 +83293,46 @@
     </row>
     <row r="1627" spans="1:16">
       <c r="A1627" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1627" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1627">
-        <v>1.831113467914344</v>
+        <v>1.488934848389623</v>
       </c>
       <c r="D1627" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E1627">
-        <v>1.619493518423571</v>
+        <v>1.726700168253829</v>
       </c>
       <c r="F1627">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1627">
-        <v>0.009348886532085656</v>
+        <v>0.008711065151610378</v>
       </c>
       <c r="H1627">
-        <v>0.008820506481576429</v>
+        <v>0.00903329983174617</v>
       </c>
       <c r="I1627">
-        <v>0.2116199494907733</v>
+        <v>0.2377653198642062</v>
       </c>
       <c r="J1627">
         <v>1.055867003394847</v>
       </c>
       <c r="K1627">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1627">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1627">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="N1627">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="O1627">
         <v>1</v>
@@ -83343,13 +83343,13 @@
     </row>
     <row r="1628" spans="1:16">
       <c r="A1628" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1628" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1628">
-        <v>1.488934848389623</v>
+        <v>1.539493518423571</v>
       </c>
       <c r="D1628" t="s">
         <v>419</v>
@@ -83361,22 +83361,22 @@
         <v>1</v>
       </c>
       <c r="G1628">
-        <v>0.008711065151610378</v>
+        <v>0.008740506481576428</v>
       </c>
       <c r="H1628">
         <v>0.00903329983174617</v>
       </c>
       <c r="I1628">
-        <v>0.2377653198642062</v>
+        <v>0.1872066498302583</v>
       </c>
       <c r="J1628">
         <v>1.055867003394847</v>
       </c>
       <c r="K1628">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1628">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1628">
         <v>3.46</v>
@@ -83393,46 +83393,46 @@
     </row>
     <row r="1629" spans="1:16">
       <c r="A1629" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1629" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1629">
-        <v>1.539493518423571</v>
+        <v>1.810554797880396</v>
       </c>
       <c r="D1629" t="s">
-        <v>419</v>
+        <v>248</v>
       </c>
       <c r="E1629">
-        <v>1.726700168253829</v>
+        <v>1.571113467914344</v>
       </c>
       <c r="F1629">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1629">
-        <v>0.008740506481576428</v>
+        <v>0.009349445202119604</v>
       </c>
       <c r="H1629">
-        <v>0.00903329983174617</v>
+        <v>0.009088886532085656</v>
       </c>
       <c r="I1629">
-        <v>0.1872066498302583</v>
+        <v>0.2394413299660516</v>
       </c>
       <c r="J1629">
         <v>1.055867003394847</v>
       </c>
       <c r="K1629">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1629">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1629">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="N1629">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="O1629">
         <v>1</v>
@@ -83443,46 +83443,46 @@
     </row>
     <row r="1630" spans="1:16">
       <c r="A1630" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1630" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C1630">
-        <v>1.810554797880396</v>
+        <v>1.495024158151983</v>
       </c>
       <c r="D1630" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="E1630">
-        <v>1.571113467914344</v>
+        <v>1.759046969611768</v>
       </c>
       <c r="F1630">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1630">
-        <v>0.009349445202119604</v>
+        <v>0.008864975841848017</v>
       </c>
       <c r="H1630">
-        <v>0.009088886532085656</v>
+        <v>0.008220953030388231</v>
       </c>
       <c r="I1630">
-        <v>0.2394413299660516</v>
+        <v>0.2640228114597849</v>
       </c>
       <c r="J1630">
         <v>1.055867003394847</v>
       </c>
       <c r="K1630">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1630">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1630">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="N1630">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="O1630">
         <v>1</v>
@@ -83493,13 +83493,13 @@
     </row>
     <row r="1631" spans="1:16">
       <c r="A1631" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1631" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1631">
-        <v>1.495024158151983</v>
+        <v>1.544465488118035</v>
       </c>
       <c r="D1631" t="s">
         <v>420</v>
@@ -83511,22 +83511,22 @@
         <v>1</v>
       </c>
       <c r="G1631">
-        <v>0.008864975841848017</v>
+        <v>0.008935534511881966</v>
       </c>
       <c r="H1631">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1631">
-        <v>0.2640228114597849</v>
+        <v>0.2145814814937328</v>
       </c>
       <c r="J1631">
         <v>1.055867003394847</v>
       </c>
       <c r="K1631">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1631">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1631">
         <v>3.06</v>
@@ -83543,13 +83543,13 @@
     </row>
     <row r="1632" spans="1:16">
       <c r="A1632" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1632" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1632">
-        <v>1.544465488118035</v>
+        <v>1.531169528525416</v>
       </c>
       <c r="D1632" t="s">
         <v>420</v>
@@ -83561,22 +83561,22 @@
         <v>1</v>
       </c>
       <c r="G1632">
-        <v>0.008935534511881966</v>
+        <v>0.008668830471474584</v>
       </c>
       <c r="H1632">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1632">
-        <v>0.2145814814937328</v>
+        <v>0.2278774410863518</v>
       </c>
       <c r="J1632">
         <v>1.055867003394847</v>
       </c>
       <c r="K1632">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L1632">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="M1632">
         <v>3.06</v>
@@ -83593,13 +83593,13 @@
     </row>
     <row r="1633" spans="1:16">
       <c r="A1633" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1633" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C1633">
-        <v>1.531169528525416</v>
+        <v>1.538376178355674</v>
       </c>
       <c r="D1633" t="s">
         <v>420</v>
@@ -83611,22 +83611,22 @@
         <v>1</v>
       </c>
       <c r="G1633">
-        <v>0.008668830471474584</v>
+        <v>0.008781623821644326</v>
       </c>
       <c r="H1633">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1633">
-        <v>0.2278774410863518</v>
+        <v>0.2206707912560937</v>
       </c>
       <c r="J1633">
         <v>1.055867003394847</v>
       </c>
       <c r="K1633">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1633">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1633">
         <v>3.06</v>
@@ -83643,13 +83643,13 @@
     </row>
     <row r="1634" spans="1:16">
       <c r="A1634" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1634" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1634">
-        <v>1.538376178355674</v>
+        <v>1.54066691910254</v>
       </c>
       <c r="D1634" t="s">
         <v>420</v>
@@ -83661,22 +83661,22 @@
         <v>1</v>
       </c>
       <c r="G1634">
-        <v>0.008781623821644326</v>
+        <v>0.008319333080897461</v>
       </c>
       <c r="H1634">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1634">
-        <v>0.2206707912560937</v>
+        <v>0.2183800505092277</v>
       </c>
       <c r="J1634">
         <v>1.055867003394847</v>
       </c>
       <c r="K1634">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1634">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1634">
         <v>3.06</v>
@@ -83693,46 +83693,46 @@
     </row>
     <row r="1635" spans="1:16">
       <c r="A1635" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1635" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1635">
-        <v>1.54066691910254</v>
+        <v>1.496253619442026</v>
       </c>
       <c r="D1635" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1635">
-        <v>1.759046969611768</v>
+        <v>1.622901599238334</v>
       </c>
       <c r="F1635">
         <v>1</v>
       </c>
       <c r="G1635">
-        <v>0.008319333080897461</v>
+        <v>0.008063746380557974</v>
       </c>
       <c r="H1635">
-        <v>0.008220953030388231</v>
+        <v>0.008317098400761665</v>
       </c>
       <c r="I1635">
-        <v>0.2183800505092277</v>
+        <v>0.1266479797963087</v>
       </c>
       <c r="J1635">
         <v>1.055867003394847</v>
       </c>
       <c r="K1635">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="L1635">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="M1635">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1635">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1635">
         <v>1</v>
@@ -83743,96 +83743,96 @@
     </row>
     <row r="1636" spans="1:16">
       <c r="A1636" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1636" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C1636">
-        <v>1.496253619442026</v>
+        <v>1.244990997067842</v>
       </c>
       <c r="D1636" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="E1636">
-        <v>1.537370959509922</v>
+        <v>1.458484024424935</v>
       </c>
       <c r="F1636">
         <v>1</v>
       </c>
       <c r="G1636">
-        <v>0.008063746380557974</v>
+        <v>0.009495009002932157</v>
       </c>
       <c r="H1636">
-        <v>0.008062629040490077</v>
+        <v>0.009821515975575065</v>
       </c>
       <c r="I1636">
-        <v>0.0411173400678968</v>
+        <v>0.2134930273570932</v>
       </c>
       <c r="J1636">
-        <v>1.055867003394847</v>
+        <v>1.130139452858125</v>
       </c>
       <c r="K1636">
-        <v>3.11</v>
+        <v>3.65</v>
       </c>
       <c r="L1636">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="M1636">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="N1636">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="O1636">
         <v>1</v>
       </c>
       <c r="P1636" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1637" spans="1:16">
       <c r="A1637" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1637" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1637">
-        <v>1.244990997067842</v>
+        <v>1.566703547825073</v>
       </c>
       <c r="D1637" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="E1637">
-        <v>1.458484024424935</v>
+        <v>1.366224465753792</v>
       </c>
       <c r="F1637">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1637">
-        <v>0.009495009002932157</v>
+        <v>0.009613296452174926</v>
       </c>
       <c r="H1637">
-        <v>0.009821515975575065</v>
+        <v>0.009073775534246207</v>
       </c>
       <c r="I1637">
-        <v>0.2134930273570932</v>
+        <v>0.200479082071281</v>
       </c>
       <c r="J1637">
         <v>1.130139452858125</v>
       </c>
       <c r="K1637">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1637">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1637">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="N1637">
-        <v>5.64</v>
+        <v>5.22</v>
       </c>
       <c r="O1637">
         <v>1</v>
@@ -83843,46 +83843,46 @@
     </row>
     <row r="1638" spans="1:16">
       <c r="A1638" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1638" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1638">
-        <v>1.566703547825073</v>
+        <v>1.234923071225211</v>
       </c>
       <c r="D1638" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1638">
-        <v>1.415813309525142</v>
+        <v>1.469717493110886</v>
       </c>
       <c r="F1638">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1638">
-        <v>0.009613296452174926</v>
+        <v>0.008965076928774789</v>
       </c>
       <c r="H1638">
-        <v>0.009304186690474857</v>
+        <v>0.009290282506889113</v>
       </c>
       <c r="I1638">
-        <v>0.1508902382999304</v>
+        <v>0.2347944218856752</v>
       </c>
       <c r="J1638">
         <v>1.130139452858125</v>
       </c>
       <c r="K1638">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1638">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1638">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1638">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1638">
         <v>1</v>
@@ -83893,13 +83893,13 @@
     </row>
     <row r="1639" spans="1:16">
       <c r="A1639" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1639" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1639">
-        <v>1.234923071225211</v>
+        <v>1.286224465753792</v>
       </c>
       <c r="D1639" t="s">
         <v>419</v>
@@ -83911,22 +83911,22 @@
         <v>1</v>
       </c>
       <c r="G1639">
-        <v>0.008965076928774789</v>
+        <v>0.008993775534246207</v>
       </c>
       <c r="H1639">
         <v>0.009290282506889113</v>
       </c>
       <c r="I1639">
-        <v>0.2347944218856752</v>
+        <v>0.1834930273570943</v>
       </c>
       <c r="J1639">
         <v>1.130139452858125</v>
       </c>
       <c r="K1639">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1639">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1639">
         <v>3.46</v>
@@ -83943,46 +83943,46 @@
     </row>
     <row r="1640" spans="1:16">
       <c r="A1640" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1640" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1640">
-        <v>1.286224465753792</v>
+        <v>1.545402153296492</v>
       </c>
       <c r="D1640" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1640">
-        <v>1.469717493110886</v>
+        <v>1.411909125939398</v>
       </c>
       <c r="F1640">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1640">
-        <v>0.008993775534246207</v>
+        <v>0.009614597846703507</v>
       </c>
       <c r="H1640">
-        <v>0.009290282506889113</v>
+        <v>0.009368090874060602</v>
       </c>
       <c r="I1640">
-        <v>0.1834930273570943</v>
+        <v>0.133493027357094</v>
       </c>
       <c r="J1640">
         <v>1.130139452858125</v>
       </c>
       <c r="K1640">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1640">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1640">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1640">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1640">
         <v>1</v>
@@ -83993,46 +83993,46 @@
     </row>
     <row r="1641" spans="1:16">
       <c r="A1641" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1641" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C1641">
-        <v>1.545402153296492</v>
+        <v>1.235813309525142</v>
       </c>
       <c r="D1641" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E1641">
-        <v>1.411909125939398</v>
+        <v>1.531773274254136</v>
       </c>
       <c r="F1641">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1641">
-        <v>0.009614597846703507</v>
+        <v>0.009124186690474857</v>
       </c>
       <c r="H1641">
-        <v>0.009368090874060602</v>
+        <v>0.008448226725745866</v>
       </c>
       <c r="I1641">
-        <v>0.133493027357094</v>
+        <v>0.2959599647289943</v>
       </c>
       <c r="J1641">
         <v>1.130139452858125</v>
       </c>
       <c r="K1641">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L1641">
-        <v>5.58</v>
+        <v>5.18</v>
       </c>
       <c r="M1641">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1641">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1641">
         <v>1</v>
@@ -84043,13 +84043,13 @@
     </row>
     <row r="1642" spans="1:16">
       <c r="A1642" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1642" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1642">
-        <v>1.235813309525142</v>
+        <v>1.284511914996561</v>
       </c>
       <c r="D1642" t="s">
         <v>420</v>
@@ -84061,22 +84061,22 @@
         <v>1</v>
       </c>
       <c r="G1642">
-        <v>0.009124186690474857</v>
+        <v>0.00919548808500344</v>
       </c>
       <c r="H1642">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1642">
-        <v>0.2959599647289943</v>
+        <v>0.2472613592575748</v>
       </c>
       <c r="J1642">
         <v>1.130139452858125</v>
       </c>
       <c r="K1642">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1642">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1642">
         <v>3.06</v>
@@ -84093,13 +84093,13 @@
     </row>
     <row r="1643" spans="1:16">
       <c r="A1643" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1643" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1643">
-        <v>1.284511914996561</v>
+        <v>1.280128649339536</v>
       </c>
       <c r="D1643" t="s">
         <v>420</v>
@@ -84111,22 +84111,22 @@
         <v>1</v>
       </c>
       <c r="G1643">
-        <v>0.00919548808500344</v>
+        <v>0.008919871350660464</v>
       </c>
       <c r="H1643">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1643">
-        <v>0.2472613592575748</v>
+        <v>0.2516446249146003</v>
       </c>
       <c r="J1643">
         <v>1.130139452858125</v>
       </c>
       <c r="K1643">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L1643">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="M1643">
         <v>3.06</v>
@@ -84143,13 +84143,13 @@
     </row>
     <row r="1644" spans="1:16">
       <c r="A1644" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1644" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C1644">
-        <v>1.280128649339536</v>
+        <v>1.28362167669663</v>
       </c>
       <c r="D1644" t="s">
         <v>420</v>
@@ -84161,22 +84161,22 @@
         <v>1</v>
       </c>
       <c r="G1644">
-        <v>0.008919871350660464</v>
+        <v>0.009036378323303371</v>
       </c>
       <c r="H1644">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1644">
-        <v>0.2516446249146003</v>
+        <v>0.2481515975575066</v>
       </c>
       <c r="J1644">
         <v>1.130139452858125</v>
       </c>
       <c r="K1644">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="L1644">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="M1644">
         <v>3.06</v>
@@ -84193,13 +84193,13 @@
     </row>
     <row r="1645" spans="1:16">
       <c r="A1645" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1645" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1645">
-        <v>1.28362167669663</v>
+        <v>1.302252356325417</v>
       </c>
       <c r="D1645" t="s">
         <v>420</v>
@@ -84211,22 +84211,22 @@
         <v>1</v>
       </c>
       <c r="G1645">
-        <v>0.009036378323303371</v>
+        <v>0.008557747643674583</v>
       </c>
       <c r="H1645">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1645">
-        <v>0.2481515975575066</v>
+        <v>0.2295209179287192</v>
       </c>
       <c r="J1645">
         <v>1.130139452858125</v>
       </c>
       <c r="K1645">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1645">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1645">
         <v>3.06</v>
@@ -84243,46 +84243,46 @@
     </row>
     <row r="1646" spans="1:16">
       <c r="A1646" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1646" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1646">
-        <v>1.302252356325417</v>
+        <v>1.26526630161123</v>
       </c>
       <c r="D1646" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1646">
-        <v>1.531773274254136</v>
+        <v>1.387457934439742</v>
       </c>
       <c r="F1646">
         <v>1</v>
       </c>
       <c r="G1646">
-        <v>0.008557747643674583</v>
+        <v>0.008294733698388771</v>
       </c>
       <c r="H1646">
-        <v>0.008448226725745866</v>
+        <v>0.008552542065560257</v>
       </c>
       <c r="I1646">
-        <v>0.2295209179287192</v>
+        <v>0.1221916328285118</v>
       </c>
       <c r="J1646">
         <v>1.130139452858125</v>
       </c>
       <c r="K1646">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="L1646">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="M1646">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1646">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1646">
         <v>1</v>
@@ -84293,96 +84293,96 @@
     </row>
     <row r="1647" spans="1:16">
       <c r="A1647" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1647" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C1647">
-        <v>1.26526630161123</v>
+        <v>1.121405183498271</v>
       </c>
       <c r="D1647" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="E1647">
-        <v>1.307869090668393</v>
+        <v>1.333205254505096</v>
       </c>
       <c r="F1647">
         <v>1</v>
       </c>
       <c r="G1647">
-        <v>0.008294733698388771</v>
+        <v>0.00961859481650173</v>
       </c>
       <c r="H1647">
-        <v>0.008292130909331608</v>
+        <v>0.009946794745494904</v>
       </c>
       <c r="I1647">
-        <v>0.0426027890571623</v>
+        <v>0.2118000710068246</v>
       </c>
       <c r="J1647">
-        <v>1.130139452858125</v>
+        <v>1.163998579863488</v>
       </c>
       <c r="K1647">
-        <v>3.11</v>
+        <v>3.65</v>
       </c>
       <c r="L1647">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="M1647">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="N1647">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="O1647">
         <v>1</v>
       </c>
       <c r="P1647" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1648" spans="1:16">
       <c r="A1648" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1648" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1648">
-        <v>1.121405183498271</v>
+        <v>1.446165055685984</v>
       </c>
       <c r="D1648" t="s">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="E1648">
-        <v>1.333205254505096</v>
+        <v>1.297644956276429</v>
       </c>
       <c r="F1648">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1648">
-        <v>0.00961859481650173</v>
+        <v>0.009733834944314016</v>
       </c>
       <c r="H1648">
-        <v>0.009946794745494904</v>
+        <v>0.009422355043723572</v>
       </c>
       <c r="I1648">
-        <v>0.2118000710068246</v>
+        <v>0.1485200994095557</v>
       </c>
       <c r="J1648">
         <v>1.163998579863488</v>
       </c>
       <c r="K1648">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="L1648">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="M1648">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="N1648">
-        <v>5.64</v>
+        <v>5.36</v>
       </c>
       <c r="O1648">
         <v>1</v>
@@ -84393,46 +84393,46 @@
     </row>
     <row r="1649" spans="1:16">
       <c r="A1649" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1649" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1649">
-        <v>1.446165055685984</v>
+        <v>1.119124856866872</v>
       </c>
       <c r="D1649" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1649">
-        <v>1.297644956276429</v>
+        <v>1.352564913672333</v>
       </c>
       <c r="F1649">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1649">
-        <v>0.009733834944314016</v>
+        <v>0.009080875143133127</v>
       </c>
       <c r="H1649">
-        <v>0.009422355043723572</v>
+        <v>0.009407435086327666</v>
       </c>
       <c r="I1649">
-        <v>0.1485200994095557</v>
+        <v>0.2334400568054611</v>
       </c>
       <c r="J1649">
         <v>1.163998579863488</v>
       </c>
       <c r="K1649">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1649">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1649">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1649">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1649">
         <v>1</v>
@@ -84443,13 +84443,13 @@
     </row>
     <row r="1650" spans="1:16">
       <c r="A1650" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1650" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1650">
-        <v>1.119124856866872</v>
+        <v>1.170764842665507</v>
       </c>
       <c r="D1650" t="s">
         <v>419</v>
@@ -84461,22 +84461,22 @@
         <v>1</v>
       </c>
       <c r="G1650">
-        <v>0.009080875143133127</v>
+        <v>0.009109235157334493</v>
       </c>
       <c r="H1650">
         <v>0.009407435086327666</v>
       </c>
       <c r="I1650">
-        <v>0.2334400568054611</v>
+        <v>0.1818000710068266</v>
       </c>
       <c r="J1650">
         <v>1.163998579863488</v>
       </c>
       <c r="K1650">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1650">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1650">
         <v>3.46</v>
@@ -84493,46 +84493,46 @@
     </row>
     <row r="1651" spans="1:16">
       <c r="A1651" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1651" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1651">
-        <v>1.170764842665507</v>
+        <v>1.42452506988735</v>
       </c>
       <c r="D1651" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1651">
-        <v>1.352564913672333</v>
+        <v>1.292724998880524</v>
       </c>
       <c r="F1651">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1651">
-        <v>0.009109235157334493</v>
+        <v>0.009735474930112651</v>
       </c>
       <c r="H1651">
-        <v>0.009407435086327666</v>
+        <v>0.009487275001119474</v>
       </c>
       <c r="I1651">
-        <v>0.1818000710068266</v>
+        <v>0.1318000710068263</v>
       </c>
       <c r="J1651">
         <v>1.163998579863488</v>
       </c>
       <c r="K1651">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1651">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1651">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1651">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1651">
         <v>1</v>
@@ -84543,46 +84543,46 @@
     </row>
     <row r="1652" spans="1:16">
       <c r="A1652" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1652" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C1652">
-        <v>1.42452506988735</v>
+        <v>1.186165055685985</v>
       </c>
       <c r="D1652" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E1652">
-        <v>1.292724998880524</v>
+        <v>1.428164345617728</v>
       </c>
       <c r="F1652">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1652">
-        <v>0.009735474930112651</v>
+        <v>0.009473834944314016</v>
       </c>
       <c r="H1652">
-        <v>0.009487275001119474</v>
+        <v>0.008551835654382271</v>
       </c>
       <c r="I1652">
-        <v>0.1318000710068263</v>
+        <v>0.2419992899317438</v>
       </c>
       <c r="J1652">
         <v>1.163998579863488</v>
       </c>
       <c r="K1652">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L1652">
-        <v>5.58</v>
+        <v>5.33</v>
       </c>
       <c r="M1652">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1652">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1652">
         <v>1</v>
@@ -84593,13 +84593,13 @@
     </row>
     <row r="1653" spans="1:16">
       <c r="A1653" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1653" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C1653">
-        <v>1.186165055685985</v>
+        <v>1.117644956276428</v>
       </c>
       <c r="D1653" t="s">
         <v>420</v>
@@ -84611,22 +84611,22 @@
         <v>1</v>
       </c>
       <c r="G1653">
-        <v>0.009473834944314016</v>
+        <v>0.009242355043723571</v>
       </c>
       <c r="H1653">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1653">
-        <v>0.2419992899317438</v>
+        <v>0.3105193893413003</v>
       </c>
       <c r="J1653">
         <v>1.163998579863488</v>
       </c>
       <c r="K1653">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="L1653">
-        <v>5.33</v>
+        <v>5.18</v>
       </c>
       <c r="M1653">
         <v>3.06</v>
@@ -84643,13 +84643,13 @@
     </row>
     <row r="1654" spans="1:16">
       <c r="A1654" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1654" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1654">
-        <v>1.117644956276428</v>
+        <v>1.166004970477794</v>
       </c>
       <c r="D1654" t="s">
         <v>420</v>
@@ -84661,22 +84661,22 @@
         <v>1</v>
       </c>
       <c r="G1654">
-        <v>0.009242355043723571</v>
+        <v>0.009313995029522208</v>
       </c>
       <c r="H1654">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1654">
-        <v>0.3105193893413003</v>
+        <v>0.2621593751399343</v>
       </c>
       <c r="J1654">
         <v>1.163998579863488</v>
       </c>
       <c r="K1654">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1654">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1654">
         <v>3.06</v>
@@ -84693,13 +84693,13 @@
     </row>
     <row r="1655" spans="1:16">
       <c r="A1655" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1655" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1655">
-        <v>1.166004970477794</v>
+        <v>1.167484871068238</v>
       </c>
       <c r="D1655" t="s">
         <v>420</v>
@@ -84711,22 +84711,22 @@
         <v>1</v>
       </c>
       <c r="G1655">
-        <v>0.009313995029522208</v>
+        <v>0.009152515128931763</v>
       </c>
       <c r="H1655">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1655">
-        <v>0.2621593751399343</v>
+        <v>0.2606794745494909</v>
       </c>
       <c r="J1655">
         <v>1.163998579863488</v>
       </c>
       <c r="K1655">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L1655">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
       <c r="M1655">
         <v>3.06</v>
@@ -84743,13 +84743,13 @@
     </row>
     <row r="1656" spans="1:16">
       <c r="A1656" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1656" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1656">
-        <v>1.167484871068238</v>
+        <v>1.193564558638205</v>
       </c>
       <c r="D1656" t="s">
         <v>420</v>
@@ -84761,22 +84761,22 @@
         <v>1</v>
       </c>
       <c r="G1656">
-        <v>0.009152515128931763</v>
+        <v>0.008666435441361794</v>
       </c>
       <c r="H1656">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1656">
-        <v>0.2606794745494909</v>
+        <v>0.2345997869795236</v>
       </c>
       <c r="J1656">
         <v>1.163998579863488</v>
       </c>
       <c r="K1656">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="L1656">
-        <v>5.16</v>
+        <v>4.93</v>
       </c>
       <c r="M1656">
         <v>3.06</v>
@@ -84793,46 +84793,46 @@
     </row>
     <row r="1657" spans="1:16">
       <c r="A1657" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1657" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1657">
-        <v>1.193564558638205</v>
+        <v>1.159964416624554</v>
       </c>
       <c r="D1657" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1657">
-        <v>1.428164345617728</v>
+        <v>1.280124501832745</v>
       </c>
       <c r="F1657">
         <v>1</v>
       </c>
       <c r="G1657">
-        <v>0.008666435441361794</v>
+        <v>0.008400035583375447</v>
       </c>
       <c r="H1657">
-        <v>0.008551835654382271</v>
+        <v>0.008659875498167255</v>
       </c>
       <c r="I1657">
-        <v>0.2345997869795236</v>
+        <v>0.1201600852081905</v>
       </c>
       <c r="J1657">
         <v>1.163998579863488</v>
       </c>
       <c r="K1657">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="L1657">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="M1657">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1657">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1657">
         <v>1</v>
@@ -84843,96 +84843,96 @@
     </row>
     <row r="1658" spans="1:16">
       <c r="A1658" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1658" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C1658">
-        <v>1.159964416624554</v>
+        <v>1.284389949876279</v>
       </c>
       <c r="D1658" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E1658">
-        <v>1.203244388221823</v>
+        <v>1.139050821648374</v>
       </c>
       <c r="F1658">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1658">
-        <v>0.008400035583375447</v>
+        <v>0.009895610050123722</v>
       </c>
       <c r="H1658">
-        <v>0.008396755611778176</v>
+        <v>0.009580949178351627</v>
       </c>
       <c r="I1658">
-        <v>0.04327997159726937</v>
+        <v>0.1453391282279046</v>
       </c>
       <c r="J1658">
-        <v>1.163998579863488</v>
+        <v>1.209441025315652</v>
       </c>
       <c r="K1658">
-        <v>3.11</v>
+        <v>3.56</v>
       </c>
       <c r="L1658">
-        <v>4.78</v>
+        <v>5.59</v>
       </c>
       <c r="M1658">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="N1658">
-        <v>4.8</v>
+        <v>5.36</v>
       </c>
       <c r="O1658">
         <v>1</v>
       </c>
       <c r="P1658" t="s">
-        <v>538</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1659" spans="1:16">
       <c r="A1659" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1659" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C1659">
-        <v>1.284389949876279</v>
+        <v>0.9637116934204695</v>
       </c>
       <c r="D1659" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1659">
-        <v>1.139050821648374</v>
+        <v>1.195334052407844</v>
       </c>
       <c r="F1659">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1659">
-        <v>0.009895610050123722</v>
+        <v>0.00923628830657953</v>
       </c>
       <c r="H1659">
-        <v>0.009580949178351627</v>
+        <v>0.009564665947592156</v>
       </c>
       <c r="I1659">
-        <v>0.1453391282279046</v>
+        <v>0.2316223589873747</v>
       </c>
       <c r="J1659">
         <v>1.209441025315652</v>
       </c>
       <c r="K1659">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="L1659">
-        <v>5.59</v>
+        <v>5.1</v>
       </c>
       <c r="M1659">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="N1659">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="O1659">
         <v>1</v>
@@ -84943,13 +84943,13 @@
     </row>
     <row r="1660" spans="1:16">
       <c r="A1660" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1660" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1660">
-        <v>0.9637116934204695</v>
+        <v>1.015806103673627</v>
       </c>
       <c r="D1660" t="s">
         <v>419</v>
@@ -84961,22 +84961,22 @@
         <v>1</v>
       </c>
       <c r="G1660">
-        <v>0.00923628830657953</v>
+        <v>0.009264193896326373</v>
       </c>
       <c r="H1660">
         <v>0.009564665947592156</v>
       </c>
       <c r="I1660">
-        <v>0.2316223589873747</v>
+        <v>0.1795279487342176</v>
       </c>
       <c r="J1660">
         <v>1.209441025315652</v>
       </c>
       <c r="K1660">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="L1660">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="M1660">
         <v>3.46</v>
@@ -84993,46 +84993,46 @@
     </row>
     <row r="1661" spans="1:16">
       <c r="A1661" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1661" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C1661">
-        <v>1.015806103673627</v>
+        <v>1.262295539623123</v>
       </c>
       <c r="D1661" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1661">
-        <v>1.195334052407844</v>
+        <v>1.132767590888904</v>
       </c>
       <c r="F1661">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1661">
-        <v>0.009264193896326373</v>
+        <v>0.009897704460376877</v>
       </c>
       <c r="H1661">
-        <v>0.009564665947592156</v>
+        <v>0.009647232409111094</v>
       </c>
       <c r="I1661">
-        <v>0.1795279487342176</v>
+        <v>0.1295279487342187</v>
       </c>
       <c r="J1661">
         <v>1.209441025315652</v>
       </c>
       <c r="K1661">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="L1661">
-        <v>5.14</v>
+        <v>5.58</v>
       </c>
       <c r="M1661">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="N1661">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="O1661">
         <v>1</v>
@@ -85043,46 +85043,46 @@
     </row>
     <row r="1662" spans="1:16">
       <c r="A1662" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1662" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C1662">
-        <v>1.262295539623123</v>
+        <v>1.024389949876279</v>
       </c>
       <c r="D1662" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E1662">
-        <v>1.132767590888904</v>
+        <v>1.289110462534105</v>
       </c>
       <c r="F1662">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1662">
-        <v>0.009897704460376877</v>
+        <v>0.00963561005012372</v>
       </c>
       <c r="H1662">
-        <v>0.009647232409111094</v>
+        <v>0.008690889537465897</v>
       </c>
       <c r="I1662">
-        <v>0.1295279487342187</v>
+        <v>0.264720512657826</v>
       </c>
       <c r="J1662">
         <v>1.209441025315652</v>
       </c>
       <c r="K1662">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L1662">
-        <v>5.58</v>
+        <v>5.33</v>
       </c>
       <c r="M1662">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="N1662">
-        <v>5.39</v>
+        <v>4.99</v>
       </c>
       <c r="O1662">
         <v>1</v>
@@ -85093,13 +85093,13 @@
     </row>
     <row r="1663" spans="1:16">
       <c r="A1663" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1663" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C1663">
-        <v>1.024389949876279</v>
+        <v>0.9590508216483737</v>
       </c>
       <c r="D1663" t="s">
         <v>420</v>
@@ -85111,22 +85111,22 @@
         <v>1</v>
       </c>
       <c r="G1663">
-        <v>0.00963561005012372</v>
+        <v>0.009400949178351626</v>
       </c>
       <c r="H1663">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1663">
-        <v>0.264720512657826</v>
+        <v>0.3300596408857315</v>
       </c>
       <c r="J1663">
         <v>1.209441025315652</v>
       </c>
       <c r="K1663">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="L1663">
-        <v>5.33</v>
+        <v>5.18</v>
       </c>
       <c r="M1663">
         <v>3.06</v>
@@ -85143,13 +85143,13 @@
     </row>
     <row r="1664" spans="1:16">
       <c r="A1664" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1664" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1664">
-        <v>0.9590508216483737</v>
+        <v>1.006956411395218</v>
       </c>
       <c r="D1664" t="s">
         <v>420</v>
@@ -85161,22 +85161,22 @@
         <v>1</v>
       </c>
       <c r="G1664">
-        <v>0.009400949178351626</v>
+        <v>0.009473043588604782</v>
       </c>
       <c r="H1664">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1664">
-        <v>0.3300596408857315</v>
+        <v>0.2821540511388871</v>
       </c>
       <c r="J1664">
         <v>1.209441025315652</v>
       </c>
       <c r="K1664">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L1664">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="M1664">
         <v>3.06</v>
@@ -85193,13 +85193,13 @@
     </row>
     <row r="1665" spans="1:16">
       <c r="A1665" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1665" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C1665">
-        <v>1.006956411395218</v>
+        <v>1.045334052407845</v>
       </c>
       <c r="D1665" t="s">
         <v>420</v>
@@ -85211,22 +85211,22 @@
         <v>1</v>
       </c>
       <c r="G1665">
-        <v>0.009473043588604782</v>
+        <v>0.009414665947592155</v>
       </c>
       <c r="H1665">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1665">
-        <v>0.2821540511388871</v>
+        <v>0.2437764101262605</v>
       </c>
       <c r="J1665">
         <v>1.209441025315652</v>
       </c>
       <c r="K1665">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="L1665">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="M1665">
         <v>3.06</v>
@@ -85243,101 +85243,51 @@
     </row>
     <row r="1666" spans="1:16">
       <c r="A1666" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1666" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C1666">
-        <v>1.045334052407845</v>
+        <v>1.018638411268323</v>
       </c>
       <c r="D1666" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E1666">
-        <v>1.289110462534105</v>
+        <v>1.136071949749383</v>
       </c>
       <c r="F1666">
         <v>1</v>
       </c>
       <c r="G1666">
-        <v>0.009414665947592155</v>
+        <v>0.008541361588731679</v>
       </c>
       <c r="H1666">
-        <v>0.008690889537465897</v>
+        <v>0.008803928050250617</v>
       </c>
       <c r="I1666">
-        <v>0.2437764101262605</v>
+        <v>0.1174335384810603</v>
       </c>
       <c r="J1666">
         <v>1.209441025315652</v>
       </c>
       <c r="K1666">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="L1666">
-        <v>5.23</v>
+        <v>4.78</v>
       </c>
       <c r="M1666">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="N1666">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="O1666">
         <v>1</v>
       </c>
       <c r="P1666" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:16">
-      <c r="A1667" s="1">
-        <v>8</v>
-      </c>
-      <c r="B1667" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1667">
-        <v>1.018638411268323</v>
-      </c>
-      <c r="D1667" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1667">
-        <v>1.062827231774635</v>
-      </c>
-      <c r="F1667">
-        <v>1</v>
-      </c>
-      <c r="G1667">
-        <v>0.008541361588731679</v>
-      </c>
-      <c r="H1667">
-        <v>0.008537172768225364</v>
-      </c>
-      <c r="I1667">
-        <v>0.04418882050631279</v>
-      </c>
-      <c r="J1667">
-        <v>1.209441025315652</v>
-      </c>
-      <c r="K1667">
-        <v>3.11</v>
-      </c>
-      <c r="L1667">
-        <v>4.78</v>
-      </c>
-      <c r="M1667">
-        <v>3.09</v>
-      </c>
-      <c r="N1667">
-        <v>4.8</v>
-      </c>
-      <c r="O1667">
-        <v>1</v>
-      </c>
-      <c r="P1667" t="s">
         <v>231</v>
       </c>
     </row>

--- a/s60_signal/position-00670-600115.xlsx
+++ b/s60_signal/position-00670-600115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="539">
   <si>
     <t>trade_time</t>
   </si>
@@ -1270,7 +1270,7 @@
     <t>2021-04-30</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2021-05-17</t>
@@ -1282,10 +1282,10 @@
     <t>2021-04-09</t>
   </si>
   <si>
-    <t>2021-06-01</t>
+    <t>2021-04-28</t>
   </si>
   <si>
-    <t>2021-04-28</t>
+    <t>2021-06-01</t>
   </si>
   <si>
     <t>2016-08-24</t>
@@ -1988,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1666"/>
+  <dimension ref="A1:P1669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79855,7 +79855,7 @@
         <v>418</v>
       </c>
       <c r="E1558">
-        <v>2.709057542011032</v>
+        <v>2.760528299638931</v>
       </c>
       <c r="F1558">
         <v>1</v>
@@ -79864,10 +79864,10 @@
         <v>0.007219471700361068</v>
       </c>
       <c r="H1558">
-        <v>0.007230942457988968</v>
+        <v>0.007339471700361069</v>
       </c>
       <c r="I1558">
-        <v>0.0685292423721009</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="J1558">
         <v>0.7132310593025135</v>
@@ -79879,10 +79879,10 @@
         <v>4.93</v>
       </c>
       <c r="M1558">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1558">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1558">
         <v>1</v>
@@ -79905,7 +79905,7 @@
         <v>418</v>
       </c>
       <c r="E1559">
-        <v>2.709057542011032</v>
+        <v>2.760528299638931</v>
       </c>
       <c r="F1559">
         <v>1</v>
@@ -79914,10 +79914,10 @@
         <v>0.006996751662651741</v>
       </c>
       <c r="H1559">
-        <v>0.007230942457988968</v>
+        <v>0.007339471700361069</v>
       </c>
       <c r="I1559">
-        <v>0.1058092046627741</v>
+        <v>0.1572799622906733</v>
       </c>
       <c r="J1559">
         <v>0.7132310593025135</v>
@@ -79929,10 +79929,10 @@
         <v>4.8</v>
       </c>
       <c r="M1559">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1559">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1559">
         <v>1</v>
@@ -79955,7 +79955,7 @@
         <v>418</v>
       </c>
       <c r="E1560">
-        <v>2.709057542011032</v>
+        <v>2.760528299638931</v>
       </c>
       <c r="F1560">
         <v>1</v>
@@ -79964,10 +79964,10 @@
         <v>0.006998148594430817</v>
       </c>
       <c r="H1560">
-        <v>0.007230942457988968</v>
+        <v>0.007339471700361069</v>
       </c>
       <c r="I1560">
-        <v>0.1472061364418487</v>
+        <v>0.1986768940697479</v>
       </c>
       <c r="J1560">
         <v>0.7132310593025135</v>
@@ -79979,10 +79979,10 @@
         <v>4.78</v>
       </c>
       <c r="M1560">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1560">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1560">
         <v>1</v>
@@ -80355,7 +80355,7 @@
         <v>418</v>
       </c>
       <c r="E1568">
-        <v>2.232020451904455</v>
+        <v>2.277471814073596</v>
       </c>
       <c r="F1568">
         <v>1</v>
@@ -80364,10 +80364,10 @@
         <v>0.007460245112976114</v>
       </c>
       <c r="H1568">
-        <v>0.007707979548095545</v>
+        <v>0.007822528185926403</v>
       </c>
       <c r="I1568">
-        <v>0.09226556488056836</v>
+        <v>0.1377169270497096</v>
       </c>
       <c r="J1568">
         <v>0.8637159457714654</v>
@@ -80379,10 +80379,10 @@
         <v>4.8</v>
       </c>
       <c r="M1568">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1568">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1568">
         <v>1</v>
@@ -80405,7 +80405,7 @@
         <v>418</v>
       </c>
       <c r="E1569">
-        <v>2.232020451904455</v>
+        <v>2.277471814073596</v>
       </c>
       <c r="F1569">
         <v>1</v>
@@ -80414,10 +80414,10 @@
         <v>0.007466156591349258</v>
       </c>
       <c r="H1569">
-        <v>0.007707979548095545</v>
+        <v>0.007822528185926403</v>
       </c>
       <c r="I1569">
-        <v>0.1381770432537115</v>
+        <v>0.1836284054228527</v>
       </c>
       <c r="J1569">
         <v>0.8637159457714654</v>
@@ -80429,10 +80429,10 @@
         <v>4.78</v>
       </c>
       <c r="M1569">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1569">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1569">
         <v>1</v>
@@ -80805,7 +80805,7 @@
         <v>418</v>
       </c>
       <c r="E1577">
-        <v>2.106189068370625</v>
+        <v>2.15005265282956</v>
       </c>
       <c r="F1577">
         <v>1</v>
@@ -80814,10 +80814,10 @@
         <v>0.007582503996661979</v>
       </c>
       <c r="H1577">
-        <v>0.007833810931629374</v>
+        <v>0.007949947347170441</v>
       </c>
       <c r="I1577">
-        <v>0.08869306503260432</v>
+        <v>0.1325566494915398</v>
       </c>
       <c r="J1577">
         <v>0.9034103885266167</v>
@@ -80829,10 +80829,10 @@
         <v>4.8</v>
       </c>
       <c r="M1577">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1577">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1577">
         <v>1</v>
@@ -80855,7 +80855,7 @@
         <v>418</v>
       </c>
       <c r="E1578">
-        <v>2.106189068370625</v>
+        <v>2.15005265282956</v>
       </c>
       <c r="F1578">
         <v>1</v>
@@ -80864,10 +80864,10 @@
         <v>0.007589606308317778</v>
       </c>
       <c r="H1578">
-        <v>0.007833810931629374</v>
+        <v>0.007949947347170441</v>
       </c>
       <c r="I1578">
-        <v>0.1357953766884026</v>
+        <v>0.179658961147338</v>
       </c>
       <c r="J1578">
         <v>0.9034103885266167</v>
@@ -80879,10 +80879,10 @@
         <v>4.78</v>
       </c>
       <c r="M1578">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1578">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1578">
         <v>1</v>
@@ -81305,7 +81305,7 @@
         <v>418</v>
       </c>
       <c r="E1587">
-        <v>2.014602029578282</v>
+        <v>2.057309941623434</v>
       </c>
       <c r="F1587">
         <v>1</v>
@@ -81314,10 +81314,10 @@
         <v>0.00767149077252331</v>
       </c>
       <c r="H1587">
-        <v>0.007925397970421719</v>
+        <v>0.008042690058376566</v>
       </c>
       <c r="I1587">
-        <v>0.08609280210159165</v>
+        <v>0.1288007141467435</v>
       </c>
       <c r="J1587">
         <v>0.9323021988712045</v>
@@ -81329,10 +81329,10 @@
         <v>4.8</v>
       </c>
       <c r="M1587">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1587">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1587">
         <v>1</v>
@@ -81355,7 +81355,7 @@
         <v>418</v>
       </c>
       <c r="E1588">
-        <v>2.014602029578282</v>
+        <v>2.057309941623434</v>
       </c>
       <c r="F1588">
         <v>1</v>
@@ -81364,10 +81364,10 @@
         <v>0.007679459838489447</v>
       </c>
       <c r="H1588">
-        <v>0.007925397970421719</v>
+        <v>0.008042690058376566</v>
       </c>
       <c r="I1588">
-        <v>0.134061868067727</v>
+        <v>0.1767697801128789</v>
       </c>
       <c r="J1588">
         <v>0.9323021988712045</v>
@@ -81379,10 +81379,10 @@
         <v>4.78</v>
       </c>
       <c r="M1588">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1588">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1588">
         <v>1</v>
@@ -81846,10 +81846,10 @@
         <v>9</v>
       </c>
       <c r="B1598" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C1598">
-        <v>1.846945172665842</v>
+        <v>1.86564546487347</v>
       </c>
       <c r="D1598" t="s">
         <v>420</v>
@@ -81861,22 +81861,22 @@
         <v>1</v>
       </c>
       <c r="G1598">
-        <v>0.008013054827334156</v>
+        <v>0.008454354535126531</v>
       </c>
       <c r="H1598">
         <v>0.007928986844748449</v>
       </c>
       <c r="I1598">
-        <v>0.2040679825857086</v>
+        <v>0.1853676903780808</v>
       </c>
       <c r="J1598">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1598">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="L1598">
-        <v>4.93</v>
+        <v>5.16</v>
       </c>
       <c r="M1598">
         <v>3.06</v>
@@ -81896,43 +81896,43 @@
         <v>10</v>
       </c>
       <c r="B1599" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1599">
-        <v>1.841804090906789</v>
+        <v>1.846945172665842</v>
       </c>
       <c r="D1599" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1599">
-        <v>1.925363301355365</v>
+        <v>2.051013155251551</v>
       </c>
       <c r="F1599">
         <v>1</v>
       </c>
       <c r="G1599">
-        <v>0.00775819590909321</v>
+        <v>0.008013054827334156</v>
       </c>
       <c r="H1599">
-        <v>0.008014636698644636</v>
+        <v>0.007928986844748449</v>
       </c>
       <c r="I1599">
-        <v>0.08355921044857517</v>
+        <v>0.2040679825857086</v>
       </c>
       <c r="J1599">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1599">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="L1599">
-        <v>4.8</v>
+        <v>4.93</v>
       </c>
       <c r="M1599">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1599">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1599">
         <v>1</v>
@@ -81946,43 +81946,43 @@
         <v>11</v>
       </c>
       <c r="B1600" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1600">
-        <v>1.792990494389648</v>
+        <v>1.841804090906789</v>
       </c>
       <c r="D1600" t="s">
         <v>418</v>
       </c>
       <c r="E1600">
-        <v>1.925363301355365</v>
+        <v>1.966945172665842</v>
       </c>
       <c r="F1600">
         <v>1</v>
       </c>
       <c r="G1600">
-        <v>0.007767009505610351</v>
+        <v>0.00775819590909321</v>
       </c>
       <c r="H1600">
-        <v>0.008014636698644636</v>
+        <v>0.008133054827334157</v>
       </c>
       <c r="I1600">
-        <v>0.1323728069657162</v>
+        <v>0.125141081759053</v>
       </c>
       <c r="J1600">
         <v>0.9604532172380553</v>
       </c>
       <c r="K1600">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="L1600">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="M1600">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="N1600">
-        <v>4.97</v>
+        <v>5.05</v>
       </c>
       <c r="O1600">
         <v>1</v>
@@ -81993,93 +81993,93 @@
     </row>
     <row r="1601" spans="1:16">
       <c r="A1601" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1601" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1601">
-        <v>1.676370302057997</v>
+        <v>1.792990494389648</v>
       </c>
       <c r="D1601" t="s">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="E1601">
-        <v>1.996883057931346</v>
+        <v>1.966945172665842</v>
       </c>
       <c r="F1601">
         <v>1</v>
       </c>
       <c r="G1601">
-        <v>0.008823629697942004</v>
+        <v>0.007767009505610351</v>
       </c>
       <c r="H1601">
-        <v>0.009283116942068651</v>
+        <v>0.008133054827334157</v>
       </c>
       <c r="I1601">
-        <v>0.3205127558733496</v>
+        <v>0.173954678276194</v>
       </c>
       <c r="J1601">
-        <v>0.9926749160950009</v>
+        <v>0.9604532172380553</v>
       </c>
       <c r="K1601">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="L1601">
-        <v>5.25</v>
+        <v>4.78</v>
       </c>
       <c r="M1601">
-        <v>3.67</v>
+        <v>3.21</v>
       </c>
       <c r="N1601">
-        <v>5.64</v>
+        <v>5.05</v>
       </c>
       <c r="O1601">
         <v>1</v>
       </c>
       <c r="P1601" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1602" spans="1:16">
       <c r="A1602" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1602" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C1602">
-        <v>1.746736556253247</v>
+        <v>1.676370302057997</v>
       </c>
       <c r="D1602" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1602">
-        <v>1.967102810448496</v>
+        <v>1.996883057931346</v>
       </c>
       <c r="F1602">
         <v>1</v>
       </c>
       <c r="G1602">
-        <v>0.008993263443746754</v>
+        <v>0.008823629697942004</v>
       </c>
       <c r="H1602">
-        <v>0.009312897189551504</v>
+        <v>0.009283116942068651</v>
       </c>
       <c r="I1602">
-        <v>0.2203662541952491</v>
+        <v>0.3205127558733496</v>
       </c>
       <c r="J1602">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1602">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L1602">
-        <v>5.37</v>
+        <v>5.25</v>
       </c>
       <c r="M1602">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="N1602">
         <v>5.64</v>
@@ -82093,46 +82093,46 @@
     </row>
     <row r="1603" spans="1:16">
       <c r="A1603" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1603" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1603">
-        <v>2.017395813804697</v>
+        <v>1.746736556253247</v>
       </c>
       <c r="D1603" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="E1603">
-        <v>1.834978536116047</v>
+        <v>1.967102810448496</v>
       </c>
       <c r="F1603">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1603">
-        <v>0.009442604186195304</v>
+        <v>0.008993263443746754</v>
       </c>
       <c r="H1603">
-        <v>0.008605021463883953</v>
+        <v>0.009312897189551504</v>
       </c>
       <c r="I1603">
-        <v>0.1824172776886503</v>
+        <v>0.2203662541952491</v>
       </c>
       <c r="J1603">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1603">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="L1603">
-        <v>5.73</v>
+        <v>5.37</v>
       </c>
       <c r="M1603">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="N1603">
-        <v>5.22</v>
+        <v>5.64</v>
       </c>
       <c r="O1603">
         <v>1</v>
@@ -82143,13 +82143,13 @@
     </row>
     <row r="1604" spans="1:16">
       <c r="A1604" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1604" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C1604">
-        <v>2.056077298701796</v>
+        <v>2.017395813804697</v>
       </c>
       <c r="D1604" t="s">
         <v>417</v>
@@ -82161,22 +82161,22 @@
         <v>-1</v>
       </c>
       <c r="G1604">
-        <v>0.009123922701298205</v>
+        <v>0.009442604186195304</v>
       </c>
       <c r="H1604">
         <v>0.008605021463883953</v>
       </c>
       <c r="I1604">
-        <v>0.2210987625857497</v>
+        <v>0.1824172776886503</v>
       </c>
       <c r="J1604">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1604">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="L1604">
-        <v>5.59</v>
+        <v>5.73</v>
       </c>
       <c r="M1604">
         <v>3.41</v>
@@ -82193,46 +82193,46 @@
     </row>
     <row r="1605" spans="1:16">
       <c r="A1605" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1605" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C1605">
-        <v>1.705051786955097</v>
+        <v>2.056077298701796</v>
       </c>
       <c r="D1605" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E1605">
-        <v>1.945344790311297</v>
+        <v>1.834978536116047</v>
       </c>
       <c r="F1605">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1605">
-        <v>0.008494948213044903</v>
+        <v>0.009123922701298205</v>
       </c>
       <c r="H1605">
-        <v>0.008814655209688702</v>
+        <v>0.008605021463883953</v>
       </c>
       <c r="I1605">
-        <v>0.2402930033562001</v>
+        <v>0.2210987625857497</v>
       </c>
       <c r="J1605">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1605">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="L1605">
-        <v>5.1</v>
+        <v>5.59</v>
       </c>
       <c r="M1605">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="N1605">
-        <v>5.38</v>
+        <v>5.22</v>
       </c>
       <c r="O1605">
         <v>1</v>
@@ -82243,13 +82243,13 @@
     </row>
     <row r="1606" spans="1:16">
       <c r="A1606" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1606" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1606">
-        <v>1.754978536116047</v>
+        <v>1.705051786955097</v>
       </c>
       <c r="D1606" t="s">
         <v>419</v>
@@ -82261,22 +82261,22 @@
         <v>1</v>
       </c>
       <c r="G1606">
-        <v>0.008525021463883953</v>
+        <v>0.008494948213044903</v>
       </c>
       <c r="H1606">
         <v>0.008814655209688702</v>
       </c>
       <c r="I1606">
-        <v>0.1903662541952502</v>
+        <v>0.2402930033562001</v>
       </c>
       <c r="J1606">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1606">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="L1606">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="M1606">
         <v>3.46</v>
@@ -82293,46 +82293,46 @@
     </row>
     <row r="1607" spans="1:16">
       <c r="A1607" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1607" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C1607">
-        <v>2.036150549540847</v>
+        <v>1.754978536116047</v>
       </c>
       <c r="D1607" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="E1607">
-        <v>1.796077298701797</v>
+        <v>1.945344790311297</v>
       </c>
       <c r="F1607">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1607">
-        <v>0.009123849450459152</v>
+        <v>0.008525021463883953</v>
       </c>
       <c r="H1607">
-        <v>0.008863922701298205</v>
+        <v>0.008814655209688702</v>
       </c>
       <c r="I1607">
-        <v>0.2400732508390506</v>
+        <v>0.1903662541952502</v>
       </c>
       <c r="J1607">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1607">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="L1607">
-        <v>5.58</v>
+        <v>5.14</v>
       </c>
       <c r="M1607">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="N1607">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="O1607">
         <v>1</v>
@@ -82343,46 +82343,46 @@
     </row>
     <row r="1608" spans="1:16">
       <c r="A1608" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1608" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1608">
-        <v>1.715564542828446</v>
+        <v>2.036150549540847</v>
       </c>
       <c r="D1608" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="E1608">
-        <v>1.952414756749298</v>
+        <v>1.796077298701797</v>
       </c>
       <c r="F1608">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1608">
-        <v>0.008644435457171553</v>
+        <v>0.009123849450459152</v>
       </c>
       <c r="H1608">
-        <v>0.008027585243250703</v>
+        <v>0.008863922701298205</v>
       </c>
       <c r="I1608">
-        <v>0.2368502139208513</v>
+        <v>0.2400732508390506</v>
       </c>
       <c r="J1608">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1608">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1608">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1608">
-        <v>3.06</v>
+        <v>3.56</v>
       </c>
       <c r="N1608">
-        <v>4.99</v>
+        <v>5.33</v>
       </c>
       <c r="O1608">
         <v>1</v>
@@ -82393,13 +82393,13 @@
     </row>
     <row r="1609" spans="1:16">
       <c r="A1609" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1609" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1609">
-        <v>1.744758783598896</v>
+        <v>1.715564542828446</v>
       </c>
       <c r="D1609" t="s">
         <v>420</v>
@@ -82411,22 +82411,22 @@
         <v>1</v>
       </c>
       <c r="G1609">
-        <v>0.008455241216401102</v>
+        <v>0.008644435457171553</v>
       </c>
       <c r="H1609">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1609">
-        <v>0.2076559731504011</v>
+        <v>0.2368502139208513</v>
       </c>
       <c r="J1609">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1609">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="L1609">
-        <v>5.1</v>
+        <v>5.18</v>
       </c>
       <c r="M1609">
         <v>3.06</v>
@@ -82443,13 +82443,13 @@
     </row>
     <row r="1610" spans="1:16">
       <c r="A1610" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1610" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C1610">
-        <v>1.755125037794147</v>
+        <v>1.744758783598896</v>
       </c>
       <c r="D1610" t="s">
         <v>420</v>
@@ -82461,22 +82461,22 @@
         <v>1</v>
       </c>
       <c r="G1610">
-        <v>0.008564874962205853</v>
+        <v>0.008455241216401102</v>
       </c>
       <c r="H1610">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1610">
-        <v>0.1972897189551506</v>
+        <v>0.2076559731504011</v>
       </c>
       <c r="J1610">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1610">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="L1610">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="M1610">
         <v>3.06</v>
@@ -82493,13 +82493,13 @@
     </row>
     <row r="1611" spans="1:16">
       <c r="A1611" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1611" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C1611">
-        <v>1.743513519335047</v>
+        <v>1.755125037794147</v>
       </c>
       <c r="D1611" t="s">
         <v>420</v>
@@ -82511,22 +82511,22 @@
         <v>1</v>
       </c>
       <c r="G1611">
-        <v>0.008116486480664953</v>
+        <v>0.008564874962205853</v>
       </c>
       <c r="H1611">
         <v>0.008027585243250703</v>
       </c>
       <c r="I1611">
-        <v>0.2089012374142509</v>
+        <v>0.1972897189551506</v>
       </c>
       <c r="J1611">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1611">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="L1611">
-        <v>4.93</v>
+        <v>5.16</v>
       </c>
       <c r="M1611">
         <v>3.06</v>
@@ -82543,46 +82543,46 @@
     </row>
     <row r="1612" spans="1:16">
       <c r="A1612" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1612" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1612">
-        <v>1.692781010944548</v>
+        <v>1.743513519335047</v>
       </c>
       <c r="D1612" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1612">
-        <v>1.823220515978847</v>
+        <v>1.952414756749298</v>
       </c>
       <c r="F1612">
         <v>1</v>
       </c>
       <c r="G1612">
-        <v>0.007867218989055453</v>
+        <v>0.008116486480664953</v>
       </c>
       <c r="H1612">
-        <v>0.008116779484021154</v>
+        <v>0.008027585243250703</v>
       </c>
       <c r="I1612">
-        <v>0.1304395050342992</v>
+        <v>0.2089012374142509</v>
       </c>
       <c r="J1612">
         <v>0.9926749160950009</v>
       </c>
       <c r="K1612">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="L1612">
-        <v>4.78</v>
+        <v>4.93</v>
       </c>
       <c r="M1612">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1612">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1612">
         <v>1</v>
@@ -82593,96 +82593,96 @@
     </row>
     <row r="1613" spans="1:16">
       <c r="A1613" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1613" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C1613">
-        <v>1.605356319289299</v>
+        <v>1.692781010944548</v>
       </c>
       <c r="D1613" t="s">
-        <v>231</v>
+        <v>418</v>
       </c>
       <c r="E1613">
-        <v>1.823785857909699</v>
+        <v>1.863513519335047</v>
       </c>
       <c r="F1613">
         <v>1</v>
       </c>
       <c r="G1613">
-        <v>0.009134643680710703</v>
+        <v>0.007867218989055453</v>
       </c>
       <c r="H1613">
-        <v>0.009456214142090301</v>
+        <v>0.008236486480664953</v>
       </c>
       <c r="I1613">
-        <v>0.2184295386204007</v>
+        <v>0.1707325083904991</v>
       </c>
       <c r="J1613">
-        <v>1.031409227591973</v>
+        <v>0.9926749160950009</v>
       </c>
       <c r="K1613">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="L1613">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="M1613">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="N1613">
-        <v>5.64</v>
+        <v>5.05</v>
       </c>
       <c r="O1613">
         <v>1</v>
       </c>
       <c r="P1613" t="s">
-        <v>239</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1614" spans="1:16">
       <c r="A1614" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1614" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1614">
-        <v>1.872529488806021</v>
+        <v>1.605356319289299</v>
       </c>
       <c r="D1614" t="s">
-        <v>421</v>
+        <v>231</v>
       </c>
       <c r="E1614">
-        <v>1.744099950185619</v>
+        <v>1.823785857909699</v>
       </c>
       <c r="F1614">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1614">
-        <v>0.00958747051119398</v>
+        <v>0.009134643680710703</v>
       </c>
       <c r="H1614">
-        <v>0.00935590004981438</v>
+        <v>0.009456214142090301</v>
       </c>
       <c r="I1614">
-        <v>0.1284295386204017</v>
+        <v>0.2184295386204007</v>
       </c>
       <c r="J1614">
         <v>1.031409227591973</v>
       </c>
       <c r="K1614">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="L1614">
-        <v>5.73</v>
+        <v>5.37</v>
       </c>
       <c r="M1614">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="N1614">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="O1614">
         <v>1</v>
@@ -82693,46 +82693,46 @@
     </row>
     <row r="1615" spans="1:16">
       <c r="A1615" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1615" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C1615">
-        <v>1.918183149772576</v>
+        <v>1.872529488806021</v>
       </c>
       <c r="D1615" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E1615">
-        <v>1.702894533911371</v>
+        <v>1.744099950185619</v>
       </c>
       <c r="F1615">
         <v>-1</v>
       </c>
       <c r="G1615">
-        <v>0.009261816850227424</v>
+        <v>0.00958747051119398</v>
       </c>
       <c r="H1615">
-        <v>0.00873710546608863</v>
+        <v>0.00935590004981438</v>
       </c>
       <c r="I1615">
-        <v>0.2152886158612044</v>
+        <v>0.1284295386204017</v>
       </c>
       <c r="J1615">
         <v>1.031409227591973</v>
       </c>
       <c r="K1615">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="L1615">
-        <v>5.59</v>
+        <v>5.73</v>
       </c>
       <c r="M1615">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="N1615">
-        <v>5.22</v>
+        <v>5.55</v>
       </c>
       <c r="O1615">
         <v>1</v>
@@ -82743,46 +82743,46 @@
     </row>
     <row r="1616" spans="1:16">
       <c r="A1616" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1616" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C1616">
-        <v>1.572580441635452</v>
+        <v>1.918183149772576</v>
       </c>
       <c r="D1616" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E1616">
-        <v>1.811324072531773</v>
+        <v>1.702894533911371</v>
       </c>
       <c r="F1616">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1616">
-        <v>0.008627419558364548</v>
+        <v>0.009261816850227424</v>
       </c>
       <c r="H1616">
-        <v>0.008948675927468227</v>
+        <v>0.00873710546608863</v>
       </c>
       <c r="I1616">
-        <v>0.2387436308963213</v>
+        <v>0.2152886158612044</v>
       </c>
       <c r="J1616">
         <v>1.031409227591973</v>
       </c>
       <c r="K1616">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="L1616">
-        <v>5.1</v>
+        <v>5.59</v>
       </c>
       <c r="M1616">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="N1616">
-        <v>5.38</v>
+        <v>5.22</v>
       </c>
       <c r="O1616">
         <v>1</v>
@@ -82793,13 +82793,13 @@
     </row>
     <row r="1617" spans="1:16">
       <c r="A1617" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1617" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1617">
-        <v>1.622894533911371</v>
+        <v>1.572580441635452</v>
       </c>
       <c r="D1617" t="s">
         <v>419</v>
@@ -82811,22 +82811,22 @@
         <v>1</v>
       </c>
       <c r="G1617">
-        <v>0.00865710546608863</v>
+        <v>0.008627419558364548</v>
       </c>
       <c r="H1617">
         <v>0.008948675927468227</v>
       </c>
       <c r="I1617">
-        <v>0.1884295386204018</v>
+        <v>0.2387436308963213</v>
       </c>
       <c r="J1617">
         <v>1.031409227591973</v>
       </c>
       <c r="K1617">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="L1617">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="M1617">
         <v>3.46</v>
@@ -82843,46 +82843,46 @@
     </row>
     <row r="1618" spans="1:16">
       <c r="A1618" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1618" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C1618">
-        <v>1.897869057496656</v>
+        <v>1.622894533911371</v>
       </c>
       <c r="D1618" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="E1618">
-        <v>1.658183149772576</v>
+        <v>1.811324072531773</v>
       </c>
       <c r="F1618">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1618">
-        <v>0.009262130942503345</v>
+        <v>0.00865710546608863</v>
       </c>
       <c r="H1618">
-        <v>0.009001816850227424</v>
+        <v>0.008948675927468227</v>
       </c>
       <c r="I1618">
-        <v>0.2396859077240805</v>
+        <v>0.1884295386204018</v>
       </c>
       <c r="J1618">
         <v>1.031409227591973</v>
       </c>
       <c r="K1618">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="L1618">
-        <v>5.58</v>
+        <v>5.14</v>
       </c>
       <c r="M1618">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="N1618">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="O1618">
         <v>1</v>
@@ -82893,46 +82893,46 @@
     </row>
     <row r="1619" spans="1:16">
       <c r="A1619" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1619" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1619">
-        <v>1.580381795704013</v>
+        <v>1.897869057496656</v>
       </c>
       <c r="D1619" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="E1619">
-        <v>1.833887763568562</v>
+        <v>1.658183149772576</v>
       </c>
       <c r="F1619">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1619">
-        <v>0.008779618204295986</v>
+        <v>0.009262130942503345</v>
       </c>
       <c r="H1619">
-        <v>0.008146112236431439</v>
+        <v>0.009001816850227424</v>
       </c>
       <c r="I1619">
-        <v>0.253505967864549</v>
+        <v>0.2396859077240805</v>
       </c>
       <c r="J1619">
         <v>1.031409227591973</v>
       </c>
       <c r="K1619">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1619">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1619">
-        <v>3.06</v>
+        <v>3.56</v>
       </c>
       <c r="N1619">
-        <v>4.99</v>
+        <v>5.33</v>
       </c>
       <c r="O1619">
         <v>1</v>
@@ -82943,13 +82943,13 @@
     </row>
     <row r="1620" spans="1:16">
       <c r="A1620" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1620" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C1620">
-        <v>1.630067703428094</v>
+        <v>1.580381795704013</v>
       </c>
       <c r="D1620" t="s">
         <v>420</v>
@@ -82961,22 +82961,22 @@
         <v>1</v>
       </c>
       <c r="G1620">
-        <v>0.008849932296571906</v>
+        <v>0.008779618204295986</v>
       </c>
       <c r="H1620">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1620">
-        <v>0.2038200601404681</v>
+        <v>0.253505967864549</v>
       </c>
       <c r="J1620">
         <v>1.031409227591973</v>
       </c>
       <c r="K1620">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="L1620">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="M1620">
         <v>3.06</v>
@@ -82993,13 +82993,13 @@
     </row>
     <row r="1621" spans="1:16">
       <c r="A1621" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1621" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C1621">
-        <v>1.613836810739131</v>
+        <v>1.630067703428094</v>
       </c>
       <c r="D1621" t="s">
         <v>420</v>
@@ -83011,22 +83011,22 @@
         <v>1</v>
       </c>
       <c r="G1621">
-        <v>0.00858616318926087</v>
+        <v>0.008849932296571906</v>
       </c>
       <c r="H1621">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1621">
-        <v>0.2200509528294314</v>
+        <v>0.2038200601404681</v>
       </c>
       <c r="J1621">
         <v>1.031409227591973</v>
       </c>
       <c r="K1621">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="L1621">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="M1621">
         <v>3.06</v>
@@ -83043,13 +83043,13 @@
     </row>
     <row r="1622" spans="1:16">
       <c r="A1622" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1622" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C1622">
-        <v>1.622266349359532</v>
+        <v>1.613836810739131</v>
       </c>
       <c r="D1622" t="s">
         <v>420</v>
@@ -83061,22 +83061,22 @@
         <v>1</v>
       </c>
       <c r="G1622">
-        <v>0.008697733650640469</v>
+        <v>0.00858616318926087</v>
       </c>
       <c r="H1622">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1622">
-        <v>0.2116214142090302</v>
+        <v>0.2200509528294314</v>
       </c>
       <c r="J1622">
         <v>1.031409227591973</v>
       </c>
       <c r="K1622">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="L1622">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="M1622">
         <v>3.06</v>
@@ -83093,13 +83093,13 @@
     </row>
     <row r="1623" spans="1:16">
       <c r="A1623" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1623" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C1623">
-        <v>1.619176379429766</v>
+        <v>1.622266349359532</v>
       </c>
       <c r="D1623" t="s">
         <v>420</v>
@@ -83111,22 +83111,22 @@
         <v>1</v>
       </c>
       <c r="G1623">
-        <v>0.008240823620570232</v>
+        <v>0.008697733650640469</v>
       </c>
       <c r="H1623">
         <v>0.008146112236431439</v>
       </c>
       <c r="I1623">
-        <v>0.2147113841387962</v>
+        <v>0.2116214142090302</v>
       </c>
       <c r="J1623">
         <v>1.031409227591973</v>
       </c>
       <c r="K1623">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="L1623">
-        <v>4.93</v>
+        <v>5.16</v>
       </c>
       <c r="M1623">
         <v>3.06</v>
@@ -83143,46 +83143,46 @@
     </row>
     <row r="1624" spans="1:16">
       <c r="A1624" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1624" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1624">
-        <v>1.572317302188964</v>
+        <v>1.619176379429766</v>
       </c>
       <c r="D1624" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1624">
-        <v>1.700432748533445</v>
+        <v>1.833887763568562</v>
       </c>
       <c r="F1624">
         <v>1</v>
       </c>
       <c r="G1624">
-        <v>0.007987682697811038</v>
+        <v>0.008240823620570232</v>
       </c>
       <c r="H1624">
-        <v>0.008239567251466554</v>
+        <v>0.008146112236431439</v>
       </c>
       <c r="I1624">
-        <v>0.1281154463444811</v>
+        <v>0.2147113841387962</v>
       </c>
       <c r="J1624">
         <v>1.031409227591973</v>
       </c>
       <c r="K1624">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="L1624">
-        <v>4.78</v>
+        <v>4.93</v>
       </c>
       <c r="M1624">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1624">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1624">
         <v>1</v>
@@ -83193,96 +83193,96 @@
     </row>
     <row r="1625" spans="1:16">
       <c r="A1625" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1625" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C1625">
-        <v>1.516085437608808</v>
+        <v>1.572317302188964</v>
       </c>
       <c r="D1625" t="s">
-        <v>231</v>
+        <v>418</v>
       </c>
       <c r="E1625">
-        <v>1.733292087439065</v>
+        <v>1.739176379429766</v>
       </c>
       <c r="F1625">
         <v>1</v>
       </c>
       <c r="G1625">
-        <v>0.009223914562391192</v>
+        <v>0.007987682697811038</v>
       </c>
       <c r="H1625">
-        <v>0.009546707912560935</v>
+        <v>0.008360823620570234</v>
       </c>
       <c r="I1625">
-        <v>0.2172066498302567</v>
+        <v>0.1668590772408023</v>
       </c>
       <c r="J1625">
-        <v>1.055867003394847</v>
+        <v>1.031409227591973</v>
       </c>
       <c r="K1625">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="L1625">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="M1625">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="N1625">
-        <v>5.64</v>
+        <v>5.05</v>
       </c>
       <c r="O1625">
         <v>1</v>
       </c>
       <c r="P1625" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1626" spans="1:16">
       <c r="A1626" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1626" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C1626">
-        <v>1.831113467914344</v>
+        <v>1.516085437608808</v>
       </c>
       <c r="D1626" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="E1626">
-        <v>1.619493518423571</v>
+        <v>1.733292087439065</v>
       </c>
       <c r="F1626">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1626">
-        <v>0.009348886532085656</v>
+        <v>0.009223914562391192</v>
       </c>
       <c r="H1626">
-        <v>0.008820506481576429</v>
+        <v>0.009546707912560935</v>
       </c>
       <c r="I1626">
-        <v>0.2116199494907733</v>
+        <v>0.2172066498302567</v>
       </c>
       <c r="J1626">
         <v>1.055867003394847</v>
       </c>
       <c r="K1626">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="L1626">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="M1626">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="N1626">
-        <v>5.22</v>
+        <v>5.64</v>
       </c>
       <c r="O1626">
         <v>1</v>
@@ -83293,46 +83293,46 @@
     </row>
     <row r="1627" spans="1:16">
       <c r="A1627" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1627" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C1627">
-        <v>1.488934848389623</v>
+        <v>1.831113467914344</v>
       </c>
       <c r="D1627" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E1627">
-        <v>1.726700168253829</v>
+        <v>1.619493518423571</v>
       </c>
       <c r="F1627">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1627">
-        <v>0.008711065151610378</v>
+        <v>0.009348886532085656</v>
       </c>
       <c r="H1627">
-        <v>0.00903329983174617</v>
+        <v>0.008820506481576429</v>
       </c>
       <c r="I1627">
-        <v>0.2377653198642062</v>
+        <v>0.2116199494907733</v>
       </c>
       <c r="J1627">
         <v>1.055867003394847</v>
       </c>
       <c r="K1627">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="L1627">
-        <v>5.1</v>
+        <v>5.59</v>
       </c>
       <c r="M1627">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="N1627">
-        <v>5.38</v>
+        <v>5.22</v>
       </c>
       <c r="O1627">
         <v>1</v>
@@ -83343,13 +83343,13 @@
     </row>
     <row r="1628" spans="1:16">
       <c r="A1628" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1628" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1628">
-        <v>1.539493518423571</v>
+        <v>1.488934848389623</v>
       </c>
       <c r="D1628" t="s">
         <v>419</v>
@@ -83361,22 +83361,22 @@
         <v>1</v>
       </c>
       <c r="G1628">
-        <v>0.008740506481576428</v>
+        <v>0.008711065151610378</v>
       </c>
       <c r="H1628">
         <v>0.00903329983174617</v>
       </c>
       <c r="I1628">
-        <v>0.1872066498302583</v>
+        <v>0.2377653198642062</v>
       </c>
       <c r="J1628">
         <v>1.055867003394847</v>
       </c>
       <c r="K1628">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="L1628">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="M1628">
         <v>3.46</v>
@@ -83393,46 +83393,46 @@
     </row>
     <row r="1629" spans="1:16">
       <c r="A1629" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1629" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C1629">
-        <v>1.810554797880396</v>
+        <v>1.539493518423571</v>
       </c>
       <c r="D1629" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="E1629">
-        <v>1.571113467914344</v>
+        <v>1.726700168253829</v>
       </c>
       <c r="F1629">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1629">
-        <v>0.009349445202119604</v>
+        <v>0.008740506481576428</v>
       </c>
       <c r="H1629">
-        <v>0.009088886532085656</v>
+        <v>0.00903329983174617</v>
       </c>
       <c r="I1629">
-        <v>0.2394413299660516</v>
+        <v>0.1872066498302583</v>
       </c>
       <c r="J1629">
         <v>1.055867003394847</v>
       </c>
       <c r="K1629">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="L1629">
-        <v>5.58</v>
+        <v>5.14</v>
       </c>
       <c r="M1629">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="N1629">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="O1629">
         <v>1</v>
@@ -83443,46 +83443,46 @@
     </row>
     <row r="1630" spans="1:16">
       <c r="A1630" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1630" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1630">
-        <v>1.495024158151983</v>
+        <v>1.810554797880396</v>
       </c>
       <c r="D1630" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="E1630">
-        <v>1.759046969611768</v>
+        <v>1.571113467914344</v>
       </c>
       <c r="F1630">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1630">
-        <v>0.008864975841848017</v>
+        <v>0.009349445202119604</v>
       </c>
       <c r="H1630">
-        <v>0.008220953030388231</v>
+        <v>0.009088886532085656</v>
       </c>
       <c r="I1630">
-        <v>0.2640228114597849</v>
+        <v>0.2394413299660516</v>
       </c>
       <c r="J1630">
         <v>1.055867003394847</v>
       </c>
       <c r="K1630">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1630">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1630">
-        <v>3.06</v>
+        <v>3.56</v>
       </c>
       <c r="N1630">
-        <v>4.99</v>
+        <v>5.33</v>
       </c>
       <c r="O1630">
         <v>1</v>
@@ -83493,13 +83493,13 @@
     </row>
     <row r="1631" spans="1:16">
       <c r="A1631" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1631" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C1631">
-        <v>1.544465488118035</v>
+        <v>1.495024158151983</v>
       </c>
       <c r="D1631" t="s">
         <v>420</v>
@@ -83511,22 +83511,22 @@
         <v>1</v>
       </c>
       <c r="G1631">
-        <v>0.008935534511881966</v>
+        <v>0.008864975841848017</v>
       </c>
       <c r="H1631">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1631">
-        <v>0.2145814814937328</v>
+        <v>0.2640228114597849</v>
       </c>
       <c r="J1631">
         <v>1.055867003394847</v>
       </c>
       <c r="K1631">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="L1631">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="M1631">
         <v>3.06</v>
@@ -83543,13 +83543,13 @@
     </row>
     <row r="1632" spans="1:16">
       <c r="A1632" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1632" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C1632">
-        <v>1.531169528525416</v>
+        <v>1.544465488118035</v>
       </c>
       <c r="D1632" t="s">
         <v>420</v>
@@ -83561,22 +83561,22 @@
         <v>1</v>
       </c>
       <c r="G1632">
-        <v>0.008668830471474584</v>
+        <v>0.008935534511881966</v>
       </c>
       <c r="H1632">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1632">
-        <v>0.2278774410863518</v>
+        <v>0.2145814814937328</v>
       </c>
       <c r="J1632">
         <v>1.055867003394847</v>
       </c>
       <c r="K1632">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="L1632">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="M1632">
         <v>3.06</v>
@@ -83593,13 +83593,13 @@
     </row>
     <row r="1633" spans="1:16">
       <c r="A1633" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1633" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C1633">
-        <v>1.538376178355674</v>
+        <v>1.531169528525416</v>
       </c>
       <c r="D1633" t="s">
         <v>420</v>
@@ -83611,22 +83611,22 @@
         <v>1</v>
       </c>
       <c r="G1633">
-        <v>0.008781623821644326</v>
+        <v>0.008668830471474584</v>
       </c>
       <c r="H1633">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1633">
-        <v>0.2206707912560937</v>
+        <v>0.2278774410863518</v>
       </c>
       <c r="J1633">
         <v>1.055867003394847</v>
       </c>
       <c r="K1633">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="L1633">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="M1633">
         <v>3.06</v>
@@ -83643,13 +83643,13 @@
     </row>
     <row r="1634" spans="1:16">
       <c r="A1634" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1634" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C1634">
-        <v>1.54066691910254</v>
+        <v>1.538376178355674</v>
       </c>
       <c r="D1634" t="s">
         <v>420</v>
@@ -83661,22 +83661,22 @@
         <v>1</v>
       </c>
       <c r="G1634">
-        <v>0.008319333080897461</v>
+        <v>0.008781623821644326</v>
       </c>
       <c r="H1634">
         <v>0.008220953030388231</v>
       </c>
       <c r="I1634">
-        <v>0.2183800505092277</v>
+        <v>0.2206707912560937</v>
       </c>
       <c r="J1634">
         <v>1.055867003394847</v>
       </c>
       <c r="K1634">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="L1634">
-        <v>4.93</v>
+        <v>5.16</v>
       </c>
       <c r="M1634">
         <v>3.06</v>
@@ -83693,46 +83693,46 @@
     </row>
     <row r="1635" spans="1:16">
       <c r="A1635" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1635" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1635">
-        <v>1.496253619442026</v>
+        <v>1.54066691910254</v>
       </c>
       <c r="D1635" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1635">
-        <v>1.622901599238334</v>
+        <v>1.759046969611768</v>
       </c>
       <c r="F1635">
         <v>1</v>
       </c>
       <c r="G1635">
-        <v>0.008063746380557974</v>
+        <v>0.008319333080897461</v>
       </c>
       <c r="H1635">
-        <v>0.008317098400761665</v>
+        <v>0.008220953030388231</v>
       </c>
       <c r="I1635">
-        <v>0.1266479797963087</v>
+        <v>0.2183800505092277</v>
       </c>
       <c r="J1635">
         <v>1.055867003394847</v>
       </c>
       <c r="K1635">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="L1635">
-        <v>4.78</v>
+        <v>4.93</v>
       </c>
       <c r="M1635">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1635">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1635">
         <v>1</v>
@@ -83743,96 +83743,96 @@
     </row>
     <row r="1636" spans="1:16">
       <c r="A1636" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1636" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C1636">
-        <v>1.244990997067842</v>
+        <v>1.496253619442026</v>
       </c>
       <c r="D1636" t="s">
-        <v>231</v>
+        <v>418</v>
       </c>
       <c r="E1636">
-        <v>1.458484024424935</v>
+        <v>1.66066691910254</v>
       </c>
       <c r="F1636">
         <v>1</v>
       </c>
       <c r="G1636">
-        <v>0.009495009002932157</v>
+        <v>0.008063746380557974</v>
       </c>
       <c r="H1636">
-        <v>0.009821515975575065</v>
+        <v>0.008439333080897459</v>
       </c>
       <c r="I1636">
-        <v>0.2134930273570932</v>
+        <v>0.1644132996605148</v>
       </c>
       <c r="J1636">
-        <v>1.130139452858125</v>
+        <v>1.055867003394847</v>
       </c>
       <c r="K1636">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="L1636">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="M1636">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="N1636">
-        <v>5.64</v>
+        <v>5.05</v>
       </c>
       <c r="O1636">
         <v>1</v>
       </c>
       <c r="P1636" t="s">
-        <v>537</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1637" spans="1:16">
       <c r="A1637" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1637" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C1637">
-        <v>1.566703547825073</v>
+        <v>1.244990997067842</v>
       </c>
       <c r="D1637" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="E1637">
-        <v>1.366224465753792</v>
+        <v>1.458484024424935</v>
       </c>
       <c r="F1637">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1637">
-        <v>0.009613296452174926</v>
+        <v>0.009495009002932157</v>
       </c>
       <c r="H1637">
-        <v>0.009073775534246207</v>
+        <v>0.009821515975575065</v>
       </c>
       <c r="I1637">
-        <v>0.200479082071281</v>
+        <v>0.2134930273570932</v>
       </c>
       <c r="J1637">
         <v>1.130139452858125</v>
       </c>
       <c r="K1637">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="L1637">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="M1637">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="N1637">
-        <v>5.22</v>
+        <v>5.64</v>
       </c>
       <c r="O1637">
         <v>1</v>
@@ -83843,46 +83843,46 @@
     </row>
     <row r="1638" spans="1:16">
       <c r="A1638" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1638" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C1638">
-        <v>1.234923071225211</v>
+        <v>1.566703547825073</v>
       </c>
       <c r="D1638" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1638">
-        <v>1.469717493110886</v>
+        <v>1.415813309525142</v>
       </c>
       <c r="F1638">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1638">
-        <v>0.008965076928774789</v>
+        <v>0.009613296452174926</v>
       </c>
       <c r="H1638">
-        <v>0.009290282506889113</v>
+        <v>0.009304186690474857</v>
       </c>
       <c r="I1638">
-        <v>0.2347944218856752</v>
+        <v>0.1508902382999304</v>
       </c>
       <c r="J1638">
         <v>1.130139452858125</v>
       </c>
       <c r="K1638">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="L1638">
-        <v>5.1</v>
+        <v>5.59</v>
       </c>
       <c r="M1638">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="N1638">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="O1638">
         <v>1</v>
@@ -83893,13 +83893,13 @@
     </row>
     <row r="1639" spans="1:16">
       <c r="A1639" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1639" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1639">
-        <v>1.286224465753792</v>
+        <v>1.234923071225211</v>
       </c>
       <c r="D1639" t="s">
         <v>419</v>
@@ -83911,22 +83911,22 @@
         <v>1</v>
       </c>
       <c r="G1639">
-        <v>0.008993775534246207</v>
+        <v>0.008965076928774789</v>
       </c>
       <c r="H1639">
         <v>0.009290282506889113</v>
       </c>
       <c r="I1639">
-        <v>0.1834930273570943</v>
+        <v>0.2347944218856752</v>
       </c>
       <c r="J1639">
         <v>1.130139452858125</v>
       </c>
       <c r="K1639">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="L1639">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="M1639">
         <v>3.46</v>
@@ -83943,46 +83943,46 @@
     </row>
     <row r="1640" spans="1:16">
       <c r="A1640" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1640" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C1640">
-        <v>1.545402153296492</v>
+        <v>1.286224465753792</v>
       </c>
       <c r="D1640" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1640">
-        <v>1.411909125939398</v>
+        <v>1.469717493110886</v>
       </c>
       <c r="F1640">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1640">
-        <v>0.009614597846703507</v>
+        <v>0.008993775534246207</v>
       </c>
       <c r="H1640">
-        <v>0.009368090874060602</v>
+        <v>0.009290282506889113</v>
       </c>
       <c r="I1640">
-        <v>0.133493027357094</v>
+        <v>0.1834930273570943</v>
       </c>
       <c r="J1640">
         <v>1.130139452858125</v>
       </c>
       <c r="K1640">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="L1640">
-        <v>5.58</v>
+        <v>5.14</v>
       </c>
       <c r="M1640">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="N1640">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="O1640">
         <v>1</v>
@@ -83993,46 +83993,46 @@
     </row>
     <row r="1641" spans="1:16">
       <c r="A1641" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1641" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1641">
-        <v>1.235813309525142</v>
+        <v>1.545402153296492</v>
       </c>
       <c r="D1641" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E1641">
-        <v>1.531773274254136</v>
+        <v>1.411909125939398</v>
       </c>
       <c r="F1641">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1641">
-        <v>0.009124186690474857</v>
+        <v>0.009614597846703507</v>
       </c>
       <c r="H1641">
-        <v>0.008448226725745866</v>
+        <v>0.009368090874060602</v>
       </c>
       <c r="I1641">
-        <v>0.2959599647289943</v>
+        <v>0.133493027357094</v>
       </c>
       <c r="J1641">
         <v>1.130139452858125</v>
       </c>
       <c r="K1641">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1641">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1641">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="N1641">
-        <v>4.99</v>
+        <v>5.39</v>
       </c>
       <c r="O1641">
         <v>1</v>
@@ -84043,13 +84043,13 @@
     </row>
     <row r="1642" spans="1:16">
       <c r="A1642" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1642" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1642">
-        <v>1.284511914996561</v>
+        <v>1.306703547825073</v>
       </c>
       <c r="D1642" t="s">
         <v>420</v>
@@ -84061,22 +84061,22 @@
         <v>1</v>
       </c>
       <c r="G1642">
-        <v>0.00919548808500344</v>
+        <v>0.009353296452174927</v>
       </c>
       <c r="H1642">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1642">
-        <v>0.2472613592575748</v>
+        <v>0.2250697264290631</v>
       </c>
       <c r="J1642">
         <v>1.130139452858125</v>
       </c>
       <c r="K1642">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="L1642">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="M1642">
         <v>3.06</v>
@@ -84093,13 +84093,13 @@
     </row>
     <row r="1643" spans="1:16">
       <c r="A1643" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1643" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1643">
-        <v>1.280128649339536</v>
+        <v>1.235813309525142</v>
       </c>
       <c r="D1643" t="s">
         <v>420</v>
@@ -84111,22 +84111,22 @@
         <v>1</v>
       </c>
       <c r="G1643">
-        <v>0.008919871350660464</v>
+        <v>0.009124186690474857</v>
       </c>
       <c r="H1643">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1643">
-        <v>0.2516446249146003</v>
+        <v>0.2959599647289943</v>
       </c>
       <c r="J1643">
         <v>1.130139452858125</v>
       </c>
       <c r="K1643">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="L1643">
-        <v>5.1</v>
+        <v>5.18</v>
       </c>
       <c r="M1643">
         <v>3.06</v>
@@ -84143,13 +84143,13 @@
     </row>
     <row r="1644" spans="1:16">
       <c r="A1644" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1644" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C1644">
-        <v>1.28362167669663</v>
+        <v>1.284511914996561</v>
       </c>
       <c r="D1644" t="s">
         <v>420</v>
@@ -84161,22 +84161,22 @@
         <v>1</v>
       </c>
       <c r="G1644">
-        <v>0.009036378323303371</v>
+        <v>0.00919548808500344</v>
       </c>
       <c r="H1644">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1644">
-        <v>0.2481515975575066</v>
+        <v>0.2472613592575748</v>
       </c>
       <c r="J1644">
         <v>1.130139452858125</v>
       </c>
       <c r="K1644">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="L1644">
-        <v>5.16</v>
+        <v>5.24</v>
       </c>
       <c r="M1644">
         <v>3.06</v>
@@ -84193,13 +84193,13 @@
     </row>
     <row r="1645" spans="1:16">
       <c r="A1645" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1645" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C1645">
-        <v>1.302252356325417</v>
+        <v>1.280128649339536</v>
       </c>
       <c r="D1645" t="s">
         <v>420</v>
@@ -84211,22 +84211,22 @@
         <v>1</v>
       </c>
       <c r="G1645">
-        <v>0.008557747643674583</v>
+        <v>0.008919871350660464</v>
       </c>
       <c r="H1645">
         <v>0.008448226725745866</v>
       </c>
       <c r="I1645">
-        <v>0.2295209179287192</v>
+        <v>0.2516446249146003</v>
       </c>
       <c r="J1645">
         <v>1.130139452858125</v>
       </c>
       <c r="K1645">
-        <v>3.21</v>
+        <v>3.38</v>
       </c>
       <c r="L1645">
-        <v>4.93</v>
+        <v>5.1</v>
       </c>
       <c r="M1645">
         <v>3.06</v>
@@ -84243,46 +84243,46 @@
     </row>
     <row r="1646" spans="1:16">
       <c r="A1646" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1646" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C1646">
-        <v>1.26526630161123</v>
+        <v>1.28362167669663</v>
       </c>
       <c r="D1646" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1646">
-        <v>1.387457934439742</v>
+        <v>1.531773274254136</v>
       </c>
       <c r="F1646">
         <v>1</v>
       </c>
       <c r="G1646">
-        <v>0.008294733698388771</v>
+        <v>0.009036378323303371</v>
       </c>
       <c r="H1646">
-        <v>0.008552542065560257</v>
+        <v>0.008448226725745866</v>
       </c>
       <c r="I1646">
-        <v>0.1221916328285118</v>
+        <v>0.2481515975575066</v>
       </c>
       <c r="J1646">
         <v>1.130139452858125</v>
       </c>
       <c r="K1646">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="L1646">
-        <v>4.78</v>
+        <v>5.16</v>
       </c>
       <c r="M1646">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1646">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1646">
         <v>1</v>
@@ -84293,146 +84293,146 @@
     </row>
     <row r="1647" spans="1:16">
       <c r="A1647" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1647" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C1647">
-        <v>1.121405183498271</v>
+        <v>1.302252356325417</v>
       </c>
       <c r="D1647" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="E1647">
-        <v>1.333205254505096</v>
+        <v>1.531773274254136</v>
       </c>
       <c r="F1647">
         <v>1</v>
       </c>
       <c r="G1647">
-        <v>0.00961859481650173</v>
+        <v>0.008557747643674583</v>
       </c>
       <c r="H1647">
-        <v>0.009946794745494904</v>
+        <v>0.008448226725745866</v>
       </c>
       <c r="I1647">
-        <v>0.2118000710068246</v>
+        <v>0.2295209179287192</v>
       </c>
       <c r="J1647">
-        <v>1.163998579863488</v>
+        <v>1.130139452858125</v>
       </c>
       <c r="K1647">
-        <v>3.65</v>
+        <v>3.21</v>
       </c>
       <c r="L1647">
-        <v>5.37</v>
+        <v>4.93</v>
       </c>
       <c r="M1647">
-        <v>3.7</v>
+        <v>3.06</v>
       </c>
       <c r="N1647">
-        <v>5.64</v>
+        <v>4.99</v>
       </c>
       <c r="O1647">
         <v>1</v>
       </c>
       <c r="P1647" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1648" spans="1:16">
       <c r="A1648" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B1648" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C1648">
-        <v>1.446165055685984</v>
+        <v>1.26526630161123</v>
       </c>
       <c r="D1648" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E1648">
-        <v>1.297644956276429</v>
+        <v>1.422252356325417</v>
       </c>
       <c r="F1648">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1648">
-        <v>0.009733834944314016</v>
+        <v>0.008294733698388771</v>
       </c>
       <c r="H1648">
-        <v>0.009422355043723572</v>
+        <v>0.008677747643674582</v>
       </c>
       <c r="I1648">
-        <v>0.1485200994095557</v>
+        <v>0.1569860547141868</v>
       </c>
       <c r="J1648">
-        <v>1.163998579863488</v>
+        <v>1.130139452858125</v>
       </c>
       <c r="K1648">
-        <v>3.56</v>
+        <v>3.11</v>
       </c>
       <c r="L1648">
-        <v>5.59</v>
+        <v>4.78</v>
       </c>
       <c r="M1648">
-        <v>3.49</v>
+        <v>3.21</v>
       </c>
       <c r="N1648">
-        <v>5.36</v>
+        <v>5.05</v>
       </c>
       <c r="O1648">
         <v>1</v>
       </c>
       <c r="P1648" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1649" spans="1:16">
       <c r="A1649" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1649" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1649">
-        <v>1.119124856866872</v>
+        <v>1.121405183498271</v>
       </c>
       <c r="D1649" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="E1649">
-        <v>1.352564913672333</v>
+        <v>1.333205254505096</v>
       </c>
       <c r="F1649">
         <v>1</v>
       </c>
       <c r="G1649">
-        <v>0.009080875143133127</v>
+        <v>0.00961859481650173</v>
       </c>
       <c r="H1649">
-        <v>0.009407435086327666</v>
+        <v>0.009946794745494904</v>
       </c>
       <c r="I1649">
-        <v>0.2334400568054611</v>
+        <v>0.2118000710068246</v>
       </c>
       <c r="J1649">
         <v>1.163998579863488</v>
       </c>
       <c r="K1649">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="L1649">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
       <c r="M1649">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="N1649">
-        <v>5.38</v>
+        <v>5.64</v>
       </c>
       <c r="O1649">
         <v>1</v>
@@ -84443,46 +84443,46 @@
     </row>
     <row r="1650" spans="1:16">
       <c r="A1650" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1650" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C1650">
-        <v>1.170764842665507</v>
+        <v>1.446165055685984</v>
       </c>
       <c r="D1650" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1650">
-        <v>1.352564913672333</v>
+        <v>1.297644956276429</v>
       </c>
       <c r="F1650">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1650">
-        <v>0.009109235157334493</v>
+        <v>0.009733834944314016</v>
       </c>
       <c r="H1650">
-        <v>0.009407435086327666</v>
+        <v>0.009422355043723572</v>
       </c>
       <c r="I1650">
-        <v>0.1818000710068266</v>
+        <v>0.1485200994095557</v>
       </c>
       <c r="J1650">
         <v>1.163998579863488</v>
       </c>
       <c r="K1650">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="L1650">
-        <v>5.14</v>
+        <v>5.59</v>
       </c>
       <c r="M1650">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="N1650">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="O1650">
         <v>1</v>
@@ -84493,46 +84493,46 @@
     </row>
     <row r="1651" spans="1:16">
       <c r="A1651" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1651" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C1651">
-        <v>1.42452506988735</v>
+        <v>1.119124856866872</v>
       </c>
       <c r="D1651" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1651">
-        <v>1.292724998880524</v>
+        <v>1.352564913672333</v>
       </c>
       <c r="F1651">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1651">
-        <v>0.009735474930112651</v>
+        <v>0.009080875143133127</v>
       </c>
       <c r="H1651">
-        <v>0.009487275001119474</v>
+        <v>0.009407435086327666</v>
       </c>
       <c r="I1651">
-        <v>0.1318000710068263</v>
+        <v>0.2334400568054611</v>
       </c>
       <c r="J1651">
         <v>1.163998579863488</v>
       </c>
       <c r="K1651">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="L1651">
-        <v>5.58</v>
+        <v>5.1</v>
       </c>
       <c r="M1651">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="N1651">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="O1651">
         <v>1</v>
@@ -84543,46 +84543,46 @@
     </row>
     <row r="1652" spans="1:16">
       <c r="A1652" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1652" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C1652">
-        <v>1.186165055685985</v>
+        <v>1.170764842665507</v>
       </c>
       <c r="D1652" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1652">
-        <v>1.428164345617728</v>
+        <v>1.352564913672333</v>
       </c>
       <c r="F1652">
         <v>1</v>
       </c>
       <c r="G1652">
-        <v>0.009473834944314016</v>
+        <v>0.009109235157334493</v>
       </c>
       <c r="H1652">
-        <v>0.008551835654382271</v>
+        <v>0.009407435086327666</v>
       </c>
       <c r="I1652">
-        <v>0.2419992899317438</v>
+        <v>0.1818000710068266</v>
       </c>
       <c r="J1652">
         <v>1.163998579863488</v>
       </c>
       <c r="K1652">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="L1652">
-        <v>5.33</v>
+        <v>5.14</v>
       </c>
       <c r="M1652">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="N1652">
-        <v>4.99</v>
+        <v>5.38</v>
       </c>
       <c r="O1652">
         <v>1</v>
@@ -84593,46 +84593,46 @@
     </row>
     <row r="1653" spans="1:16">
       <c r="A1653" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1653" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1653">
-        <v>1.117644956276428</v>
+        <v>1.42452506988735</v>
       </c>
       <c r="D1653" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E1653">
-        <v>1.428164345617728</v>
+        <v>1.292724998880524</v>
       </c>
       <c r="F1653">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1653">
-        <v>0.009242355043723571</v>
+        <v>0.009735474930112651</v>
       </c>
       <c r="H1653">
-        <v>0.008551835654382271</v>
+        <v>0.009487275001119474</v>
       </c>
       <c r="I1653">
-        <v>0.3105193893413003</v>
+        <v>0.1318000710068263</v>
       </c>
       <c r="J1653">
         <v>1.163998579863488</v>
       </c>
       <c r="K1653">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1653">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1653">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="N1653">
-        <v>4.99</v>
+        <v>5.39</v>
       </c>
       <c r="O1653">
         <v>1</v>
@@ -84643,13 +84643,13 @@
     </row>
     <row r="1654" spans="1:16">
       <c r="A1654" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1654" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1654">
-        <v>1.166004970477794</v>
+        <v>1.186165055685985</v>
       </c>
       <c r="D1654" t="s">
         <v>420</v>
@@ -84661,22 +84661,22 @@
         <v>1</v>
       </c>
       <c r="G1654">
-        <v>0.009313995029522208</v>
+        <v>0.009473834944314016</v>
       </c>
       <c r="H1654">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1654">
-        <v>0.2621593751399343</v>
+        <v>0.2419992899317438</v>
       </c>
       <c r="J1654">
         <v>1.163998579863488</v>
       </c>
       <c r="K1654">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="L1654">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="M1654">
         <v>3.06</v>
@@ -84693,13 +84693,13 @@
     </row>
     <row r="1655" spans="1:16">
       <c r="A1655" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1655" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C1655">
-        <v>1.167484871068238</v>
+        <v>1.117644956276428</v>
       </c>
       <c r="D1655" t="s">
         <v>420</v>
@@ -84711,22 +84711,22 @@
         <v>1</v>
       </c>
       <c r="G1655">
-        <v>0.009152515128931763</v>
+        <v>0.009242355043723571</v>
       </c>
       <c r="H1655">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1655">
-        <v>0.2606794745494909</v>
+        <v>0.3105193893413003</v>
       </c>
       <c r="J1655">
         <v>1.163998579863488</v>
       </c>
       <c r="K1655">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="L1655">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="M1655">
         <v>3.06</v>
@@ -84743,13 +84743,13 @@
     </row>
     <row r="1656" spans="1:16">
       <c r="A1656" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1656" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C1656">
-        <v>1.193564558638205</v>
+        <v>1.166004970477794</v>
       </c>
       <c r="D1656" t="s">
         <v>420</v>
@@ -84761,22 +84761,22 @@
         <v>1</v>
       </c>
       <c r="G1656">
-        <v>0.008666435441361794</v>
+        <v>0.009313995029522208</v>
       </c>
       <c r="H1656">
         <v>0.008551835654382271</v>
       </c>
       <c r="I1656">
-        <v>0.2345997869795236</v>
+        <v>0.2621593751399343</v>
       </c>
       <c r="J1656">
         <v>1.163998579863488</v>
       </c>
       <c r="K1656">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="L1656">
-        <v>4.93</v>
+        <v>5.24</v>
       </c>
       <c r="M1656">
         <v>3.06</v>
@@ -84793,46 +84793,46 @@
     </row>
     <row r="1657" spans="1:16">
       <c r="A1657" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1657" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C1657">
-        <v>1.159964416624554</v>
+        <v>1.167484871068238</v>
       </c>
       <c r="D1657" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1657">
-        <v>1.280124501832745</v>
+        <v>1.428164345617728</v>
       </c>
       <c r="F1657">
         <v>1</v>
       </c>
       <c r="G1657">
-        <v>0.008400035583375447</v>
+        <v>0.009152515128931763</v>
       </c>
       <c r="H1657">
-        <v>0.008659875498167255</v>
+        <v>0.008551835654382271</v>
       </c>
       <c r="I1657">
-        <v>0.1201600852081905</v>
+        <v>0.2606794745494909</v>
       </c>
       <c r="J1657">
         <v>1.163998579863488</v>
       </c>
       <c r="K1657">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="L1657">
-        <v>4.78</v>
+        <v>5.16</v>
       </c>
       <c r="M1657">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="N1657">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="O1657">
         <v>1</v>
@@ -84843,146 +84843,146 @@
     </row>
     <row r="1658" spans="1:16">
       <c r="A1658" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1658" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1658">
-        <v>1.284389949876279</v>
+        <v>1.193564558638205</v>
       </c>
       <c r="D1658" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E1658">
-        <v>1.139050821648374</v>
+        <v>1.428164345617728</v>
       </c>
       <c r="F1658">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1658">
-        <v>0.009895610050123722</v>
+        <v>0.008666435441361794</v>
       </c>
       <c r="H1658">
-        <v>0.009580949178351627</v>
+        <v>0.008551835654382271</v>
       </c>
       <c r="I1658">
-        <v>0.1453391282279046</v>
+        <v>0.2345997869795236</v>
       </c>
       <c r="J1658">
-        <v>1.209441025315652</v>
+        <v>1.163998579863488</v>
       </c>
       <c r="K1658">
-        <v>3.56</v>
+        <v>3.21</v>
       </c>
       <c r="L1658">
-        <v>5.59</v>
+        <v>4.93</v>
       </c>
       <c r="M1658">
-        <v>3.49</v>
+        <v>3.06</v>
       </c>
       <c r="N1658">
-        <v>5.36</v>
+        <v>4.99</v>
       </c>
       <c r="O1658">
         <v>1</v>
       </c>
       <c r="P1658" t="s">
-        <v>231</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1659" spans="1:16">
       <c r="A1659" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1659" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1659">
-        <v>0.9637116934204695</v>
+        <v>1.159964416624554</v>
       </c>
       <c r="D1659" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E1659">
-        <v>1.195334052407844</v>
+        <v>1.313564558638205</v>
       </c>
       <c r="F1659">
         <v>1</v>
       </c>
       <c r="G1659">
-        <v>0.00923628830657953</v>
+        <v>0.008400035583375447</v>
       </c>
       <c r="H1659">
-        <v>0.009564665947592156</v>
+        <v>0.008786435441361795</v>
       </c>
       <c r="I1659">
-        <v>0.2316223589873747</v>
+        <v>0.153600142013651</v>
       </c>
       <c r="J1659">
-        <v>1.209441025315652</v>
+        <v>1.163998579863488</v>
       </c>
       <c r="K1659">
-        <v>3.42</v>
+        <v>3.11</v>
       </c>
       <c r="L1659">
-        <v>5.1</v>
+        <v>4.78</v>
       </c>
       <c r="M1659">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="N1659">
-        <v>5.38</v>
+        <v>5.05</v>
       </c>
       <c r="O1659">
         <v>1</v>
       </c>
       <c r="P1659" t="s">
-        <v>231</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1660" spans="1:16">
       <c r="A1660" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1660" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C1660">
-        <v>1.015806103673627</v>
+        <v>1.284389949876279</v>
       </c>
       <c r="D1660" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E1660">
-        <v>1.195334052407844</v>
+        <v>1.139050821648374</v>
       </c>
       <c r="F1660">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1660">
-        <v>0.009264193896326373</v>
+        <v>0.009895610050123722</v>
       </c>
       <c r="H1660">
-        <v>0.009564665947592156</v>
+        <v>0.009580949178351627</v>
       </c>
       <c r="I1660">
-        <v>0.1795279487342176</v>
+        <v>0.1453391282279046</v>
       </c>
       <c r="J1660">
         <v>1.209441025315652</v>
       </c>
       <c r="K1660">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="L1660">
-        <v>5.14</v>
+        <v>5.59</v>
       </c>
       <c r="M1660">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="N1660">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="O1660">
         <v>1</v>
@@ -84993,46 +84993,46 @@
     </row>
     <row r="1661" spans="1:16">
       <c r="A1661" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1661" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C1661">
-        <v>1.262295539623123</v>
+        <v>0.9637116934204695</v>
       </c>
       <c r="D1661" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E1661">
-        <v>1.132767590888904</v>
+        <v>1.195334052407844</v>
       </c>
       <c r="F1661">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1661">
-        <v>0.009897704460376877</v>
+        <v>0.00923628830657953</v>
       </c>
       <c r="H1661">
-        <v>0.009647232409111094</v>
+        <v>0.009564665947592156</v>
       </c>
       <c r="I1661">
-        <v>0.1295279487342187</v>
+        <v>0.2316223589873747</v>
       </c>
       <c r="J1661">
         <v>1.209441025315652</v>
       </c>
       <c r="K1661">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="L1661">
-        <v>5.58</v>
+        <v>5.1</v>
       </c>
       <c r="M1661">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="N1661">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="O1661">
         <v>1</v>
@@ -85043,46 +85043,46 @@
     </row>
     <row r="1662" spans="1:16">
       <c r="A1662" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1662" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C1662">
-        <v>1.024389949876279</v>
+        <v>1.015806103673627</v>
       </c>
       <c r="D1662" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1662">
-        <v>1.289110462534105</v>
+        <v>1.195334052407844</v>
       </c>
       <c r="F1662">
         <v>1</v>
       </c>
       <c r="G1662">
-        <v>0.00963561005012372</v>
+        <v>0.009264193896326373</v>
       </c>
       <c r="H1662">
-        <v>0.008690889537465897</v>
+        <v>0.009564665947592156</v>
       </c>
       <c r="I1662">
-        <v>0.264720512657826</v>
+        <v>0.1795279487342176</v>
       </c>
       <c r="J1662">
         <v>1.209441025315652</v>
       </c>
       <c r="K1662">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="L1662">
-        <v>5.33</v>
+        <v>5.14</v>
       </c>
       <c r="M1662">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="N1662">
-        <v>4.99</v>
+        <v>5.38</v>
       </c>
       <c r="O1662">
         <v>1</v>
@@ -85093,46 +85093,46 @@
     </row>
     <row r="1663" spans="1:16">
       <c r="A1663" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1663" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C1663">
-        <v>0.9590508216483737</v>
+        <v>1.262295539623123</v>
       </c>
       <c r="D1663" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E1663">
-        <v>1.289110462534105</v>
+        <v>1.132767590888904</v>
       </c>
       <c r="F1663">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1663">
-        <v>0.009400949178351626</v>
+        <v>0.009897704460376877</v>
       </c>
       <c r="H1663">
-        <v>0.008690889537465897</v>
+        <v>0.009647232409111094</v>
       </c>
       <c r="I1663">
-        <v>0.3300596408857315</v>
+        <v>0.1295279487342187</v>
       </c>
       <c r="J1663">
         <v>1.209441025315652</v>
       </c>
       <c r="K1663">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="L1663">
-        <v>5.18</v>
+        <v>5.58</v>
       </c>
       <c r="M1663">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="N1663">
-        <v>4.99</v>
+        <v>5.39</v>
       </c>
       <c r="O1663">
         <v>1</v>
@@ -85143,13 +85143,13 @@
     </row>
     <row r="1664" spans="1:16">
       <c r="A1664" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1664" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1664">
-        <v>1.006956411395218</v>
+        <v>1.024389949876279</v>
       </c>
       <c r="D1664" t="s">
         <v>420</v>
@@ -85161,22 +85161,22 @@
         <v>1</v>
       </c>
       <c r="G1664">
-        <v>0.009473043588604782</v>
+        <v>0.00963561005012372</v>
       </c>
       <c r="H1664">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1664">
-        <v>0.2821540511388871</v>
+        <v>0.264720512657826</v>
       </c>
       <c r="J1664">
         <v>1.209441025315652</v>
       </c>
       <c r="K1664">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="L1664">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="M1664">
         <v>3.06</v>
@@ -85193,13 +85193,13 @@
     </row>
     <row r="1665" spans="1:16">
       <c r="A1665" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1665" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C1665">
-        <v>1.045334052407845</v>
+        <v>0.9590508216483737</v>
       </c>
       <c r="D1665" t="s">
         <v>420</v>
@@ -85211,22 +85211,22 @@
         <v>1</v>
       </c>
       <c r="G1665">
-        <v>0.009414665947592155</v>
+        <v>0.009400949178351626</v>
       </c>
       <c r="H1665">
         <v>0.008690889537465897</v>
       </c>
       <c r="I1665">
-        <v>0.2437764101262605</v>
+        <v>0.3300596408857315</v>
       </c>
       <c r="J1665">
         <v>1.209441025315652</v>
       </c>
       <c r="K1665">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="L1665">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
       <c r="M1665">
         <v>3.06</v>
@@ -85243,51 +85243,201 @@
     </row>
     <row r="1666" spans="1:16">
       <c r="A1666" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1666" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C1666">
-        <v>1.018638411268323</v>
+        <v>1.006956411395218</v>
       </c>
       <c r="D1666" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1666">
-        <v>1.136071949749383</v>
+        <v>1.289110462534105</v>
       </c>
       <c r="F1666">
         <v>1</v>
       </c>
       <c r="G1666">
-        <v>0.008541361588731679</v>
+        <v>0.009473043588604782</v>
       </c>
       <c r="H1666">
-        <v>0.008803928050250617</v>
+        <v>0.008690889537465897</v>
       </c>
       <c r="I1666">
-        <v>0.1174335384810603</v>
+        <v>0.2821540511388871</v>
       </c>
       <c r="J1666">
         <v>1.209441025315652</v>
       </c>
       <c r="K1666">
+        <v>3.5</v>
+      </c>
+      <c r="L1666">
+        <v>5.24</v>
+      </c>
+      <c r="M1666">
+        <v>3.06</v>
+      </c>
+      <c r="N1666">
+        <v>4.99</v>
+      </c>
+      <c r="O1666">
+        <v>1</v>
+      </c>
+      <c r="P1666" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:16">
+      <c r="A1667" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1667">
+        <v>1.045334052407845</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1667">
+        <v>1.289110462534105</v>
+      </c>
+      <c r="F1667">
+        <v>1</v>
+      </c>
+      <c r="G1667">
+        <v>0.009414665947592155</v>
+      </c>
+      <c r="H1667">
+        <v>0.008690889537465897</v>
+      </c>
+      <c r="I1667">
+        <v>0.2437764101262605</v>
+      </c>
+      <c r="J1667">
+        <v>1.209441025315652</v>
+      </c>
+      <c r="K1667">
+        <v>3.46</v>
+      </c>
+      <c r="L1667">
+        <v>5.23</v>
+      </c>
+      <c r="M1667">
+        <v>3.06</v>
+      </c>
+      <c r="N1667">
+        <v>4.99</v>
+      </c>
+      <c r="O1667">
+        <v>1</v>
+      </c>
+      <c r="P1667" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:16">
+      <c r="A1668" s="1">
+        <v>8</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1668">
+        <v>1.047694308736757</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1668">
+        <v>1.289110462534105</v>
+      </c>
+      <c r="F1668">
+        <v>1</v>
+      </c>
+      <c r="G1668">
+        <v>0.008812305691263242</v>
+      </c>
+      <c r="H1668">
+        <v>0.008690889537465897</v>
+      </c>
+      <c r="I1668">
+        <v>0.2414161537973483</v>
+      </c>
+      <c r="J1668">
+        <v>1.209441025315652</v>
+      </c>
+      <c r="K1668">
+        <v>3.21</v>
+      </c>
+      <c r="L1668">
+        <v>4.93</v>
+      </c>
+      <c r="M1668">
+        <v>3.06</v>
+      </c>
+      <c r="N1668">
+        <v>4.99</v>
+      </c>
+      <c r="O1668">
+        <v>1</v>
+      </c>
+      <c r="P1668" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:16">
+      <c r="A1669" s="1">
+        <v>9</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1669">
+        <v>1.018638411268323</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1669">
+        <v>1.167694308736757</v>
+      </c>
+      <c r="F1669">
+        <v>1</v>
+      </c>
+      <c r="G1669">
+        <v>0.008541361588731679</v>
+      </c>
+      <c r="H1669">
+        <v>0.008932305691263243</v>
+      </c>
+      <c r="I1669">
+        <v>0.1490558974684344</v>
+      </c>
+      <c r="J1669">
+        <v>1.209441025315652</v>
+      </c>
+      <c r="K1669">
         <v>3.11</v>
       </c>
-      <c r="L1666">
+      <c r="L1669">
         <v>4.78</v>
       </c>
-      <c r="M1666">
-        <v>3.17</v>
-      </c>
-      <c r="N1666">
-        <v>4.97</v>
-      </c>
-      <c r="O1666">
-        <v>1</v>
-      </c>
-      <c r="P1666" t="s">
+      <c r="M1669">
+        <v>3.21</v>
+      </c>
+      <c r="N1669">
+        <v>5.05</v>
+      </c>
+      <c r="O1669">
+        <v>1</v>
+      </c>
+      <c r="P1669" t="s">
         <v>231</v>
       </c>
     </row>
